--- a/CdS_Mastodon/lib/toots/xlsx/toots_CdS_2.xlsx
+++ b/CdS_Mastodon/lib/toots/xlsx/toots_CdS_2.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-4-26</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19:31:02</t>
+          <t>10:50:11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"J'ai reçu presqu'au moment où je partais pour venir ici votre tout agréable bulletin ..." à Raboteau, 1817-04-26, https://constance-de-salm.de/archiv/#/document/3937 #onthisday</t>
+          <t>»J'ai reçu presqu'au moment où je partais pour venir ici votre tout agréable bulletin ...« à Raboteau, 1817-04-26, https://constance-de-salm.de/archiv/#/document/3937 #onthisday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-4-26</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14:16:07</t>
+          <t>19:45:14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"J'ai reçu presqu'au moment où je partais pour venir ici votre tout agréable bulletin ..." à Raboteau, 1817-04-26, https://constance-de-salm.de/archiv/#/document/4349 #onthisday</t>
+          <t>»J'ai reçu presqu'au moment où je partais pour venir ici votre tout agréable bulletin ...« à Raboteau, 1817-04-26, https://constance-de-salm.de/archiv/#/document/4349 #onthisday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-4-27</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18:08:11</t>
+          <t>15:11:45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Cher frère; je suis d’une tristesse mortelle aujourd’hui, et l’espoir que cette lettre ..." à Théis, 1814-04-27, https://constance-de-salm.de/archiv/#/document/10499 #onthisday</t>
+          <t>»Cher frère; je suis d’une tristesse mortelle aujourd’hui, et l’espoir que cette lettre ...« à Théis, 1814-04-27, https://constance-de-salm.de/archiv/#/document/10499 #onthisday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,17 +544,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-4-27</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18:14:57</t>
+          <t>09:22:18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Comment excuser mon long silence, Madame? Surtout après l'heureuse annonce que vous m'avez faite du mariage de la Princesse Sophie ..." à Thurn und Taxis, 1827-04-27, https://constance-de-salm.de/archiv/#/document/246 #onthisday</t>
+          <t>»Comment excuser mon long silence, Madame? Surtout après l'heureuse annonce que vous m'avez faite du mariage de la Princesse Sophie ...« à Thurn und Taxis, 1827-04-27, https://constance-de-salm.de/archiv/#/document/246 #onthisday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-4-28</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15:56:41</t>
+          <t>18:17:05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas répondu de Paris, mon cher Chokier, j'avais trop à faire ..." à Surlet de Chokier, 1815-04-28, https://constance-de-salm.de/archiv/#/document/4270 #onthisday</t>
+          <t>»Je ne vous ai pas répondu de Paris, mon cher Chokier, j'avais trop à faire ...« à Surlet de Chokier, 1815-04-28, https://constance-de-salm.de/archiv/#/document/4270 #onthisday</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-4-29</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:33:33</t>
+          <t>18:12:22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Il n'y a rien de plus ridicule que l'éloignement, très aimable amie ..." à Laya, 1820-04-29, https://constance-de-salm.de/archiv/#/document/4522 #onthisday</t>
+          <t>»Il n'y a rien de plus ridicule que l'éloignement, très aimable amie ...« à Laya, 1820-04-29, https://constance-de-salm.de/archiv/#/document/4522 #onthisday</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-4-30</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08:41:50</t>
+          <t>18:32:44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Il est un nombre et propice et divin / C'est celui que l'on donne aux filles de mémoire; ..." à Andrieux, 1817-04-30, https://constance-de-salm.de/archiv/#/document/4350 #onthisday</t>
+          <t>»Il est un nombre et propice et divin / C'est celui que l'on donne aux filles de mémoire; ...« à Andrieux, 1817-04-30, https://constance-de-salm.de/archiv/#/document/4350 #onthisday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -652,17 +652,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-5-1</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10:07:15</t>
+          <t>08:42:54</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Je vous ai promis, Mademoiselle, une réponse détaillée à votre avant-dernière lettre ..." à Salis, 1798-05-01, https://constance-de-salm.de/archiv/#/document/10393 #onthisday</t>
+          <t>»Je vous ai promis, Mademoiselle, une réponse détaillée à votre avant-dernière lettre ...« à Salis, 1798-05-01, https://constance-de-salm.de/archiv/#/document/10393 #onthisday</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -679,17 +679,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-5-2</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17:14:27</t>
+          <t>14:54:32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Je suis étonnée, ma chère amie, de ne pas recevoir de vos nouvelles depuis quelque temps ..." à Salis, 1800-05-02, https://constance-de-salm.de/archiv/#/document/8585 #onthisday</t>
+          <t>»Je suis étonnée, ma chère amie, de ne pas recevoir de vos nouvelles depuis quelque temps ...« à Salis, 1800-05-02, https://constance-de-salm.de/archiv/#/document/8585 #onthisday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -706,17 +706,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-5-3</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16:01:47</t>
+          <t>17:43:51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Je vous ai promis de vous écrire, avant de quitter Paris, Monsieur et ami, et je tiens ma promesse ..." à Raboteau, 1824-05-03, https://constance-de-salm.de/archiv/#/document/4002 #onthisday</t>
+          <t>»Je vous ai promis de vous écrire, avant de quitter Paris, Monsieur et ami, et je tiens ma promesse ...« à Raboteau, 1824-05-03, https://constance-de-salm.de/archiv/#/document/4002 #onthisday</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,17 +733,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-5-3</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16:00:17</t>
+          <t>14:21:24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"En lisant cette lettre où ma plume sincère / Peint une amie et si rare et si chère / Chacun de la nommer veut m'imposer la loi ..." à Thurn und Taxis, 1824-05-03, https://constance-de-salm.de/archiv/#/document/231 #onthisday</t>
+          <t>»En lisant cette lettre où ma plume sincère / Peint une amie et si rare et si chère / Chacun de la nommer veut m'imposer la loi ...« à Thurn und Taxis, 1824-05-03, https://constance-de-salm.de/archiv/#/document/231 #onthisday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,17 +760,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-5-4</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16:50:45</t>
+          <t>16:45:49</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Je suis fâché [sic] de ce que vous êtes roidi contre Dumont ..." à Prous, 1820-05-04, https://constance-de-salm.de/archiv/#/document/4524 #onthisday</t>
+          <t>»Je suis fâché [sic] de ce que vous êtes roidi contre Dumont ...« à Prous, 1820-05-04, https://constance-de-salm.de/archiv/#/document/4524 #onthisday</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-5-5</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:29:52</t>
+          <t>12:57:49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Il semble, ma chère Minette, que les dimanches le fassent exprès ..." à Francq, 1814-05-05, https://constance-de-salm.de/archiv/#/document/6186 #onthisday</t>
+          <t>»Il semble, ma chère Minette, que les dimanches le fassent exprès ...« à Francq, 1814-05-05, https://constance-de-salm.de/archiv/#/document/6186 #onthisday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,17 +814,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-5-5</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08:37:39</t>
+          <t>15:40:38</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je n'ai entendu parler de vous, Monsieur et ami ..." à Raboteau, 1816-05-05, https://constance-de-salm.de/archiv/#/document/3929 #onthisday</t>
+          <t>»Il y a bien longtemps que je n'ai entendu parler de vous, Monsieur et ami ...« à Raboteau, 1816-05-05, https://constance-de-salm.de/archiv/#/document/3929 #onthisday</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -841,17 +841,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-5-6</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08:50:52</t>
+          <t>13:40:35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit il y a plusieurs mois à mon arrivée ici, mon cher voisin ..." à Maison, 1829-05-06, https://constance-de-salm.de/archiv/#/document/9376 #onthisday</t>
+          <t>»Je vous ai écrit il y a plusieurs mois à mon arrivée ici, mon cher voisin ...« à Maison, 1829-05-06, https://constance-de-salm.de/archiv/#/document/9376 #onthisday</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -868,17 +868,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-5-7</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:38:38</t>
+          <t>14:52:18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Je me figure, Madame et ancienne amie, que vous serez toute surprise de recevoir une lettre de moi écrite à Bruxelles ..." à Gay, 1828-05-07, https://constance-de-salm.de/archiv/#/document/9164 #onthisday</t>
+          <t>»Je me figure, Madame et ancienne amie, que vous serez toute surprise de recevoir une lettre de moi écrite à Bruxelles ...« à Gay, 1828-05-07, https://constance-de-salm.de/archiv/#/document/9164 #onthisday</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -895,17 +895,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-5-8</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12:10:16</t>
+          <t>16:25:12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Je m’empresse, Monsieur le baron, de vous remercier de votre charmante réception à laquelle j’ai été bien sensible ..." à Ladoucette, 1811-05-08, https://constance-de-salm.de/archiv/#/document/2205 #onthisday</t>
+          <t>»Je m’empresse, Monsieur le baron, de vous remercier de votre charmante réception à laquelle j’ai été bien sensible ...« à Ladoucette, 1811-05-08, https://constance-de-salm.de/archiv/#/document/2205 #onthisday</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,17 +922,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-5-8</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19:34:45</t>
+          <t>09:53:07</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Je n'ai pas en vérité osé attendre la chère Louise, Monsieur, hier ni avant-hier ..." à Prous, 1816-05-08, https://constance-de-salm.de/archiv/#/document/4307 #onthisday</t>
+          <t>»Je n'ai pas en vérité osé attendre la chère Louise, Monsieur, hier ni avant-hier ...« à Prous, 1816-05-08, https://constance-de-salm.de/archiv/#/document/4307 #onthisday</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-5-9</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15:10:46</t>
+          <t>17:19:15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"De ces anneaux ne soyez point surpris ..." à Raboteau, 1817-05-09, https://constance-de-salm.de/archiv/#/document/3934 #onthisday</t>
+          <t>»De ces anneaux ne soyez point surpris ...« à Raboteau, 1817-05-09, https://constance-de-salm.de/archiv/#/document/3934 #onthisday</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-5-10</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10:07:31</t>
+          <t>19:54:20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"J'envoie un paquet à Paris, Monsieur, et j'y veux joindre ..." à Pailliet, 1825-05-10, https://constance-de-salm.de/archiv/#/document/11338 #onthisday</t>
+          <t>»J'envoie un paquet à Paris, Monsieur, et j'y veux joindre ...« à Pailliet, 1825-05-10, https://constance-de-salm.de/archiv/#/document/11338 #onthisday</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1003,17 +1003,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-5-10</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15:01:03</t>
+          <t>08:18:37</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Vous ne venez pas, Monsieur, une foule d’affaires nous rappellent dans notre pays ..." à Pailliet, 1829-05-10, https://constance-de-salm.de/archiv/#/document/11355 #onthisday</t>
+          <t>»Vous ne venez pas, Monsieur, une foule d’affaires nous rappellent dans notre pays ...« à Pailliet, 1829-05-10, https://constance-de-salm.de/archiv/#/document/11355 #onthisday</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-5-11</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15:58:55</t>
+          <t>18:29:51</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Au moment où ma dernière lettre venait de partir j’ai reçu celle que vous m’avez écrite ..." à Pailliet, 1829-05-11, https://constance-de-salm.de/archiv/#/document/11356 #onthisday</t>
+          <t>»Au moment où ma dernière lettre venait de partir j’ai reçu celle que vous m’avez écrite ...« à Pailliet, 1829-05-11, https://constance-de-salm.de/archiv/#/document/11356 #onthisday</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-5-12</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16:35:19</t>
+          <t>10:23:08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"J’apprends avec le plus vif plaisir, Monsieur et ami, la nouvelle justice que l’on vient de vous rendre ..." à Barbier, 1821-05-12, https://constance-de-salm.de/archiv/#/document/11052 #onthisday</t>
+          <t>»J’apprends avec le plus vif plaisir, Monsieur et ami, la nouvelle justice que l’on vient de vous rendre ...« à Barbier, 1821-05-12, https://constance-de-salm.de/archiv/#/document/11052 #onthisday</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-5-12</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11:36:16</t>
+          <t>09:12:43</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Je profite, Monsieur le comte, de mon premier jour de repos pour vous envoyer les fables que je vous ai promises ..." à Orloff, 1823-05-12, https://constance-de-salm.de/archiv/#/document/62 #onthisday</t>
+          <t>»Je profite, Monsieur le comte, de mon premier jour de repos pour vous envoyer les fables que je vous ai promises ...« à Orloff, 1823-05-12, https://constance-de-salm.de/archiv/#/document/62 #onthisday</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-5-13</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12:36:10</t>
+          <t>10:08:13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Cher frère, j’ai reçu avant hier ta première lettre et hier ta seconde ..." à Théis, 1821-05-13, https://constance-de-salm.de/archiv/#/document/10502 #onthisday</t>
+          <t>»Cher frère, j’ai reçu avant hier ta première lettre et hier ta seconde ...« à Théis, 1821-05-13, https://constance-de-salm.de/archiv/#/document/10502 #onthisday</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-5-14</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12:50:13</t>
+          <t>17:21:35</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"J’ai une occasion, Monsieur et ami, et j’en profite pour vous dire que je suis arrivée à bon port ..." à Raboteau, 1811-05-14, https://constance-de-salm.de/archiv/#/document/2209 #onthisday</t>
+          <t>»J’ai une occasion, Monsieur et ami, et j’en profite pour vous dire que je suis arrivée à bon port ...« à Raboteau, 1811-05-14, https://constance-de-salm.de/archiv/#/document/2209 #onthisday</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-5-15</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10:17:55</t>
+          <t>10:09:38</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Vous attachez trop de prix, Monsieur, au léger cadeau ..." à Suard, 1817-05-15, https://constance-de-salm.de/archiv/#/document/4356 #onthisday</t>
+          <t>»Vous attachez trop de prix, Monsieur, au léger cadeau ...« à Suard, 1817-05-15, https://constance-de-salm.de/archiv/#/document/4356 #onthisday</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-5-15</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15:40:19</t>
+          <t>08:19:56</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Quoique le vendredi soit un mauvais jour, quoique la pluie soit un mauvais temps, quoique Rubelrath [sic] soit un mauvais village ..." à Prous, 1818-05-15, https://constance-de-salm.de/archiv/#/document/10636 #onthisday</t>
+          <t>»Quoique le vendredi soit un mauvais jour, quoique la pluie soit un mauvais temps, quoique Rubelrath [sic] soit un mauvais village ...« à Prous, 1818-05-15, https://constance-de-salm.de/archiv/#/document/10636 #onthisday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,17 +1219,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-5-16</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13:57:29</t>
+          <t>12:46:11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Je ne vous écrirai qu'une bien petite lettre aujourd'hui, ma chère amie, il est tard et j'ai beaucoup de choses à faire; ..." à Salis, 1800-05-16, https://constance-de-salm.de/archiv/#/document/5138 #onthisday</t>
+          <t>»Je ne vous écrirai qu'une bien petite lettre aujourd'hui, ma chère amie, il est tard et j'ai beaucoup de choses à faire; ...« à Salis, 1800-05-16, https://constance-de-salm.de/archiv/#/document/5138 #onthisday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,17 +1246,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-5-16</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12:14:43</t>
+          <t>12:11:15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Je ne vous écrirai qu'une bien petite lettre aujourd'hui, ma chère amie, il est tard et j'ai beaucoup de choses à faire; ..." à Salis, 1800-05-16, https://constance-de-salm.de/archiv/#/document/8591 #onthisday</t>
+          <t>»Je ne vous écrirai qu'une bien petite lettre aujourd'hui, ma chère amie, il est tard et j'ai beaucoup de choses à faire; ...« à Salis, 1800-05-16, https://constance-de-salm.de/archiv/#/document/8591 #onthisday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-5-17</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>19:52:12</t>
+          <t>11:37:15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Que dit Monsieur Prous de notre pauvre patrie? ..." à Prous, 1816-05-17, https://constance-de-salm.de/archiv/#/document/4308 #onthisday</t>
+          <t>»Que dit Monsieur Prous de notre pauvre patrie? ...« à Prous, 1816-05-17, https://constance-de-salm.de/archiv/#/document/4308 #onthisday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-5-18</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12:45:16</t>
+          <t>16:34:04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Me voilà donc dans ce paisible asile / Que dans mes vers j'accusais si souvent, / Déjà je sens mon âme plus tranquille ..." à Thurn und Taxis, 1819-05-18, https://constance-de-salm.de/archiv/#/document/4473 #onthisday</t>
+          <t>»Me voilà donc dans ce paisible asile / Que dans mes vers j'accusais si souvent, / Déjà je sens mon âme plus tranquille ...« à Thurn und Taxis, 1819-05-18, https://constance-de-salm.de/archiv/#/document/4473 #onthisday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1327,17 +1327,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-5-18</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18:58:03</t>
+          <t>15:55:52</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Je suis malade d'un terrible catarrhe qui me retient depuis ..." à Prous, 1820-05-18, https://constance-de-salm.de/archiv/#/document/4528 #onthisday</t>
+          <t>»Je suis malade d'un terrible catarrhe qui me retient depuis ...« à Prous, 1820-05-18, https://constance-de-salm.de/archiv/#/document/4528 #onthisday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1354,17 +1354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-5-19</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14:36:53</t>
+          <t>14:57:10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Il me paraît bien surprenant qu’après nos conventions à peu près remplies vous veniez sans raison me chicaner sur la raison que vous voulez voir ma fille ..." à Pipelet, 1801-05-19, https://constance-de-salm.de/archiv/#/document/8980 #onthisday</t>
+          <t>»Il me paraît bien surprenant qu’après nos conventions à peu près remplies vous veniez sans raison me chicaner sur la raison que vous voulez voir ma fille ...« à Pipelet, 1801-05-19, https://constance-de-salm.de/archiv/#/document/8980 #onthisday</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,17 +1381,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-5-19</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:08:20</t>
+          <t>19:05:07</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Je suis à la campagne, Monsieur et cher correspondant, cela vous rétablit ..." à Gudin de La Brenellerie, 1809-05-19, https://constance-de-salm.de/archiv/#/document/2088 #onthisday</t>
+          <t>»Je suis à la campagne, Monsieur et cher correspondant, cela vous rétablit ...« à Gudin de La Brenellerie, 1809-05-19, https://constance-de-salm.de/archiv/#/document/2088 #onthisday</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1408,17 +1408,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-5-20</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>09:57:30</t>
+          <t>19:42:28</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Voilà le carton, Monsieur: il vient en droite ligne de Paris et est bien fait dans sa simplicité ..." à Prous, 1816-05-20, https://constance-de-salm.de/archiv/#/document/2789 #onthisday</t>
+          <t>»Voilà le carton, Monsieur: il vient en droite ligne de Paris et est bien fait dans sa simplicité ...« à Prous, 1816-05-20, https://constance-de-salm.de/archiv/#/document/2789 #onthisday</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,17 +1435,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-5-20</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>09:36:56</t>
+          <t>14:28:58</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Voilà le carton, Monsieur, il vient en droite ligne de Paris, et est bien fait dans sa simplicité ..." à Prous, 1816-05-20, https://constance-de-salm.de/archiv/#/document/10601 #onthisday</t>
+          <t>»Voilà le carton, Monsieur, il vient en droite ligne de Paris, et est bien fait dans sa simplicité ...« à Prous, 1816-05-20, https://constance-de-salm.de/archiv/#/document/10601 #onthisday</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-5-21</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12:26:07</t>
+          <t>13:20:24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Je profite de l’occasion d’un contreseing, Monsieur, pour vous dire que je suis arrivée en bonne santé ..." à Raboteau, 1809-05-21, https://constance-de-salm.de/archiv/#/document/2119 #onthisday</t>
+          <t>»Je profite de l’occasion d’un contreseing, Monsieur, pour vous dire que je suis arrivée en bonne santé ...« à Raboteau, 1809-05-21, https://constance-de-salm.de/archiv/#/document/2119 #onthisday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-5-22</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17:03:07</t>
+          <t>09:12:54</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Je m'empresse d'adresser à Votre Altresse Royale un exemplaire d'un petit ouvrage ..." à Mecklenburg-Strelitz, 1820-05-22, https://constance-de-salm.de/archiv/#/document/4532 #onthisday</t>
+          <t>»Je m'empresse d'adresser à Votre Altresse Royale un exemplaire d'un petit ouvrage ...« à Mecklenburg-Strelitz, 1820-05-22, https://constance-de-salm.de/archiv/#/document/4532 #onthisday</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-5-23</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>17:38:51</t>
+          <t>12:01:22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Je n’ose en vérité, Monsieur et ami, vous écrire de méchants vers comme j’en ai eu l’idée dix fois ..." à Raboteau, 1813-05-23, https://constance-de-salm.de/archiv/#/document/2301 #onthisday</t>
+          <t>»Je n’ose en vérité, Monsieur et ami, vous écrire de méchants vers comme j’en ai eu l’idée dix fois ...« à Raboteau, 1813-05-23, https://constance-de-salm.de/archiv/#/document/2301 #onthisday</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,17 +1543,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-5-23</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16:42:33</t>
+          <t>19:12:21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Je n’ose en vérité, Monsieur et ami, vous écrire de méchants vers comme j’en ai eu l’idée 10 fois ..." à Raboteau, 1813-05-23, https://constance-de-salm.de/archiv/#/document/3910 #onthisday</t>
+          <t>»Je n’ose en vérité, Monsieur et ami, vous écrire de méchants vers comme j’en ai eu l’idée 10 fois ...« à Raboteau, 1813-05-23, https://constance-de-salm.de/archiv/#/document/3910 #onthisday</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1570,17 +1570,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-5-24</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15:44:31</t>
+          <t>18:45:22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Je joins à cette lettre, Monsieur, un exemplaire d'une épître que je viens de faire ..." à Nees von Esenbeck, 1820-05-24, https://constance-de-salm.de/archiv/#/document/4533 #onthisday</t>
+          <t>»Je joins à cette lettre, Monsieur, un exemplaire d'une épître que je viens de faire ...« à Nees von Esenbeck, 1820-05-24, https://constance-de-salm.de/archiv/#/document/4533 #onthisday</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1597,17 +1597,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-5-25</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12:37:30</t>
+          <t>15:37:31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"D’où vient cet éloge charmant / Qu’obtient aujourd’hui mon ouvrage? / Quel est l’auteur de cet hommage / Et si flatteur et si galant? ..." à Ladoucette, 1811-05-25, https://constance-de-salm.de/archiv/#/document/2216 #onthisday</t>
+          <t>»D’où vient cet éloge charmant / Qu’obtient aujourd’hui mon ouvrage? / Quel est l’auteur de cet hommage / Et si flatteur et si galant? ...« à Ladoucette, 1811-05-25, https://constance-de-salm.de/archiv/#/document/2216 #onthisday</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-5-25</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11:23:03</t>
+          <t>17:31:23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Je suis ici, depuis trois jours, cher frère, j’ai écrit dix lettres d’affaires, et d’amis, et je veux t’annoncer ..." à Théis, 1829-05-25, https://constance-de-salm.de/archiv/#/document/10755 #onthisday</t>
+          <t>»Je suis ici, depuis trois jours, cher frère, j’ai écrit dix lettres d’affaires, et d’amis, et je veux t’annoncer ...« à Théis, 1829-05-25, https://constance-de-salm.de/archiv/#/document/10755 #onthisday</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,17 +1651,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-5-26</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13:52:29</t>
+          <t>13:03:13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"J'enverrai demain la lettre à mon mari; mais elle ne peut partir que jeudi ..." à Prous, 1816-05-26, https://constance-de-salm.de/archiv/#/document/4310 #onthisday</t>
+          <t>»J'enverrai demain la lettre à mon mari; mais elle ne peut partir que jeudi ...« à Prous, 1816-05-26, https://constance-de-salm.de/archiv/#/document/4310 #onthisday</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-5-26</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10:46:33</t>
+          <t>17:25:52</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"J'enverrai demain la lettre à mon mari; mais elle ne peut partir que jeudi ..." à Prous, 1816-05-26, https://constance-de-salm.de/archiv/#/document/2790 #onthisday</t>
+          <t>»J'enverrai demain la lettre à mon mari; mais elle ne peut partir que jeudi ...« à Prous, 1816-05-26, https://constance-de-salm.de/archiv/#/document/2790 #onthisday</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1705,17 +1705,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-5-27</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>08:48:43</t>
+          <t>19:33:03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelque temps une lettre de vous, ma chère amie, dans laquelle vous vous plaignez de mon silence ..." à Salis, 1801-05-27, https://constance-de-salm.de/archiv/#/document/5142 #onthisday</t>
+          <t>»J'ai reçu il y a quelque temps une lettre de vous, ma chère amie, dans laquelle vous vous plaignez de mon silence ...« à Salis, 1801-05-27, https://constance-de-salm.de/archiv/#/document/5142 #onthisday</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-5-27</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:22:36</t>
+          <t>15:07:51</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelque temps une lettre de vous, ma chère amie, dans laquelle vous vous plaignez de mon silence ..." à Salis, 1801-05-27, https://constance-de-salm.de/archiv/#/document/8616 #onthisday</t>
+          <t>»J'ai reçu il y a quelque temps une lettre de vous, ma chère amie, dans laquelle vous vous plaignez de mon silence ...« à Salis, 1801-05-27, https://constance-de-salm.de/archiv/#/document/8616 #onthisday</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-5-28</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13:15:42</t>
+          <t>19:33:26</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas encore écrit, Monsieur ..." à Raboteau, 1807-05-28, https://constance-de-salm.de/archiv/#/document/2077 #onthisday</t>
+          <t>»Je ne vous ai pas encore écrit, Monsieur ...« à Raboteau, 1807-05-28, https://constance-de-salm.de/archiv/#/document/2077 #onthisday</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,17 +1786,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-5-28</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12:37:00</t>
+          <t>18:33:12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas encore écrit, Monsieur ..." à Raboteau, 1807-05-28, https://constance-de-salm.de/archiv/#/document/3882 #onthisday</t>
+          <t>»Je ne vous ai pas encore écrit, Monsieur ...« à Raboteau, 1807-05-28, https://constance-de-salm.de/archiv/#/document/3882 #onthisday</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1813,17 +1813,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-5-29</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13:24:44</t>
+          <t>10:52:08</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier deux de vos lettres, ma chère amie, mais, autant que j’ai pu ..." à Salis, 1800-05-29, https://constance-de-salm.de/archiv/#/document/8592 #onthisday</t>
+          <t>»J’ai reçu hier deux de vos lettres, ma chère amie, mais, autant que j’ai pu ...« à Salis, 1800-05-29, https://constance-de-salm.de/archiv/#/document/8592 #onthisday</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-5-29</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10:07:36</t>
+          <t>15:36:26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier deux de vos lettres, ma chère amie, mais, autant que j’ai pu ..." à Salis, 1800-05-29, https://constance-de-salm.de/archiv/#/document/10420 #onthisday</t>
+          <t>»J’ai reçu hier deux de vos lettres, ma chère amie, mais, autant que j’ai pu ...« à Salis, 1800-05-29, https://constance-de-salm.de/archiv/#/document/10420 #onthisday</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-5-30</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>09:24:19</t>
+          <t>13:10:41</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Je veux vous donner de mes nouvelles, mon ancien ami ..." à Breguet, 1823-05-30, https://constance-de-salm.de/archiv/#/document/65 #onthisday</t>
+          <t>»Je veux vous donner de mes nouvelles, mon ancien ami ...« à Breguet, 1823-05-30, https://constance-de-salm.de/archiv/#/document/65 #onthisday</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-5-30</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19:13:04</t>
+          <t>09:08:24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"J’ai bien tardé, Mademoiselle, à vous remercier de l’intéressant ouvrage que vous m’avez envoyé; ..." à Cabanon, 1828-05-30, https://constance-de-salm.de/archiv/#/document/9178 #onthisday</t>
+          <t>»J’ai bien tardé, Mademoiselle, à vous remercier de l’intéressant ouvrage que vous m’avez envoyé; ...« à Cabanon, 1828-05-30, https://constance-de-salm.de/archiv/#/document/9178 #onthisday</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1921,17 +1921,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-5-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11:02:29</t>
+          <t>11:00:49</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Mademoiselle, votre lettre du 23 floréal; je suis fort sensible à la gratitude ..." à Salis, 1798-05-31, https://constance-de-salm.de/archiv/#/document/10394 #onthisday</t>
+          <t>»J’ai reçu, Mademoiselle, votre lettre du 23 floréal; je suis fort sensible à la gratitude ...« à Salis, 1798-05-31, https://constance-de-salm.de/archiv/#/document/10394 #onthisday</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1948,17 +1948,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-5-31</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17:37:48</t>
+          <t>12:12:02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Mademoiselle, votre lettre du 23 floréal; je suis fort sensible à la gratitude ..." à Salis, 1798-05-31, https://constance-de-salm.de/archiv/#/document/8522 #onthisday</t>
+          <t>»J’ai reçu, Mademoiselle, votre lettre du 23 floréal; je suis fort sensible à la gratitude ...« à Salis, 1798-05-31, https://constance-de-salm.de/archiv/#/document/8522 #onthisday</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1975,17 +1975,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-6-1</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13:15:47</t>
+          <t>12:19:31</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Votre lettre s’est croisée avec celle que je vous ai écrite, Monsieur et ami ..." à Raboteau, 1811-06-01, https://constance-de-salm.de/archiv/#/document/2219 #onthisday</t>
+          <t>»Votre lettre s’est croisée avec celle que je vous ai écrite, Monsieur et ami ...« à Raboteau, 1811-06-01, https://constance-de-salm.de/archiv/#/document/2219 #onthisday</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,17 +2002,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-6-1</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10:47:16</t>
+          <t>08:13:45</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Votre lettre s’est croisée avec celle que je vous ai écrite, Monsieur et ami ..." à Raboteau, 1811-06-01, https://constance-de-salm.de/archiv/#/document/3896 #onthisday</t>
+          <t>»Votre lettre s’est croisée avec celle que je vous ai écrite, Monsieur et ami ...« à Raboteau, 1811-06-01, https://constance-de-salm.de/archiv/#/document/3896 #onthisday</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2029,17 +2029,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-6-2</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>18:18:42</t>
+          <t>08:47:56</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Un mot, mon voisin ..." à Prous, 1820-06-02, https://constance-de-salm.de/archiv/#/document/10638 #onthisday</t>
+          <t>»Un mot, mon voisin ...« à Prous, 1820-06-02, https://constance-de-salm.de/archiv/#/document/10638 #onthisday</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,17 +2056,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-6-2</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>09:09:08</t>
+          <t>19:41:55</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, Monsieur, votre première lettre ..." à Mirault, 1823-06-02, https://constance-de-salm.de/archiv/#/document/67 #onthisday</t>
+          <t>»J'ai reçu hier, Monsieur, votre première lettre ...« à Mirault, 1823-06-02, https://constance-de-salm.de/archiv/#/document/67 #onthisday</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,17 +2083,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-6-3</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11:45:01</t>
+          <t>12:05:37</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"J'ai bien mauvaise grâce, Monsieur et ami, à avoir attendu pour répondre ..." à Raboteau, 1816-06-03, https://constance-de-salm.de/archiv/#/document/3930 #onthisday</t>
+          <t>»J'ai bien mauvaise grâce, Monsieur et ami, à avoir attendu pour répondre ...« à Raboteau, 1816-06-03, https://constance-de-salm.de/archiv/#/document/3930 #onthisday</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2110,17 +2110,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-6-3</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16:37:07</t>
+          <t>19:20:07</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"J'ai bien mauvaise grâce, Monsieur et ami, à avoir attendu pour répondre ..." à Raboteau, 1816-06-03, https://constance-de-salm.de/archiv/#/document/4312 #onthisday</t>
+          <t>»J'ai bien mauvaise grâce, Monsieur et ami, à avoir attendu pour répondre ...« à Raboteau, 1816-06-03, https://constance-de-salm.de/archiv/#/document/4312 #onthisday</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-6-4</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>15:17:20</t>
+          <t>16:37:01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Monsieur le baron, Madame la Princesse votre sœur se proposait de répondre elle-même à la lettre que vous lui avez écrite ..." à Théis, 1838-06-04, https://constance-de-salm.de/archiv/#/document/7916 #onthisday</t>
+          <t>»Monsieur le baron, Madame la Princesse votre sœur se proposait de répondre elle-même à la lettre que vous lui avez écrite ...« à Théis, 1838-06-04, https://constance-de-salm.de/archiv/#/document/7916 #onthisday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-6-5</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>14:17:41</t>
+          <t>09:15:50</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Je veux vous dire moi même, Monsieur et ami, ce que vous verrez sans doute dans les journaux à l'article Berlin: ..." à Barbier, 1816-06-05, https://constance-de-salm.de/archiv/#/document/4313 #onthisday</t>
+          <t>»Je veux vous dire moi même, Monsieur et ami, ce que vous verrez sans doute dans les journaux à l'article Berlin: ...« à Barbier, 1816-06-05, https://constance-de-salm.de/archiv/#/document/4313 #onthisday</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-6-5</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>13:45:46</t>
+          <t>12:37:23</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre bien bonne lettre, Monsieur et véritable ami ..." à Ponce, 1817-06-05, https://constance-de-salm.de/archiv/#/document/4363 #onthisday</t>
+          <t>»J'ai reçu hier votre bien bonne lettre, Monsieur et véritable ami ...« à Ponce, 1817-06-05, https://constance-de-salm.de/archiv/#/document/4363 #onthisday</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-6-6</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>19:37:32</t>
+          <t>14:35:53</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Je suis arrivée ici il y a deux jours, Monsieur, en assez bonne santé ..." à Raboteau, 1817-06-06, https://constance-de-salm.de/archiv/#/document/3935 #onthisday</t>
+          <t>»Je suis arrivée ici il y a deux jours, Monsieur, en assez bonne santé ...« à Raboteau, 1817-06-06, https://constance-de-salm.de/archiv/#/document/3935 #onthisday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-6-6</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10:58:23</t>
+          <t>10:49:58</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Je suis arrivée ici il y a deux jours, Monsieur, en assez bonne santé ..." à Raboteau, 1817-06-06, https://constance-de-salm.de/archiv/#/document/4364 #onthisday</t>
+          <t>»Je suis arrivée ici il y a deux jours, Monsieur, en assez bonne santé ...« à Raboteau, 1817-06-06, https://constance-de-salm.de/archiv/#/document/4364 #onthisday</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-6-7</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>19:02:48</t>
+          <t>13:36:16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Fils de Bellone et d’Apollon / Sur l’Album que je vous adresse / Inscrivez du moins votre nom ..." à Carrion de Nisas, 1809-06-07, https://constance-de-salm.de/archiv/#/document/2153 #onthisday</t>
+          <t>»Fils de Bellone et d’Apollon / Sur l’Album que je vous adresse / Inscrivez du moins votre nom ...« à Carrion de Nisas, 1809-06-07, https://constance-de-salm.de/archiv/#/document/2153 #onthisday</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2299,17 +2299,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-6-7</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14:31:25</t>
+          <t>08:44:46</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Tu n’auras que cette petite page aujourd’hui, ma chère Minette ..." à Francq, 1816-06-07, https://constance-de-salm.de/archiv/#/document/6287 #onthisday</t>
+          <t>»Tu n’auras que cette petite page aujourd’hui, ma chère Minette ...« à Francq, 1816-06-07, https://constance-de-salm.de/archiv/#/document/6287 #onthisday</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-6-8</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11:56:36</t>
+          <t>09:56:25</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Il y a déjà longtems, Monsieur, que j'ai reçu votre aimable lettre: elle m'a fait beaucoup de plaisir et par ce qu'elle dit, et par ce qu'elle prouve; ..." à Gudin de La Brenellerie, 1808-06-08, https://constance-de-salm.de/archiv/#/document/5625 #onthisday</t>
+          <t>»Il y a déjà longtems, Monsieur, que j'ai reçu votre aimable lettre: elle m'a fait beaucoup de plaisir et par ce qu'elle dit, et par ce qu'elle prouve; ...« à Gudin de La Brenellerie, 1808-06-08, https://constance-de-salm.de/archiv/#/document/5625 #onthisday</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2353,17 +2353,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-6-8</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>09:48:17</t>
+          <t>10:03:58</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Il y a déjà longtemps, Monsieur, que j'ai reçu votre lettre; elle m'a fait beaucoup de plaisir, et par ce qu'elle dit, et par ce qu'elle prouve: ..." à Gudin de La Brenellerie, 1808-06-08, https://constance-de-salm.de/archiv/#/document/2101 #onthisday</t>
+          <t>»Il y a déjà longtemps, Monsieur, que j'ai reçu votre lettre; elle m'a fait beaucoup de plaisir, et par ce qu'elle dit, et par ce qu'elle prouve: ...« à Gudin de La Brenellerie, 1808-06-08, https://constance-de-salm.de/archiv/#/document/2101 #onthisday</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2380,17 +2380,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-6-9</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>11:39:41</t>
+          <t>08:03:12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que j’ai reçu votre très aimable lettre, et je me reprocherais ..." à Raboteau, 1805-06-09, https://constance-de-salm.de/archiv/#/document/8660 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que j’ai reçu votre très aimable lettre, et je me reprocherais ...« à Raboteau, 1805-06-09, https://constance-de-salm.de/archiv/#/document/8660 #onthisday</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,17 +2407,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-6-10</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10:51:05</t>
+          <t>18:05:48</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Malade ou non, Monsieur, je compte sur vous – nous vous ferons préparer un lit au milieu du salon s’il le faut ..." à Prous, 1816-06-10, https://constance-de-salm.de/archiv/#/document/2793 #onthisday</t>
+          <t>»Malade ou non, Monsieur, je compte sur vous – nous vous ferons préparer un lit au milieu du salon s’il le faut ...« à Prous, 1816-06-10, https://constance-de-salm.de/archiv/#/document/2793 #onthisday</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-6-10</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>14:07:10</t>
+          <t>14:16:39</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Pourquoi me dire qu'un vain titre / De taire mes pensées ..." à Bernard de Rennes, 1831-06-10, https://constance-de-salm.de/archiv/#/document/6426 #onthisday</t>
+          <t>»Pourquoi me dire qu'un vain titre / De taire mes pensées ...« à Bernard de Rennes, 1831-06-10, https://constance-de-salm.de/archiv/#/document/6426 #onthisday</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-6-11</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12:25:09</t>
+          <t>14:24:05</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Lorsqu’entré dans son cabinet / On fait le plan de sa journée ..." à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/2104 #onthisday</t>
+          <t>»Lorsqu’entré dans son cabinet / On fait le plan de sa journée ...« à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/2104 #onthisday</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2488,17 +2488,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-6-11</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13:04:36</t>
+          <t>11:42:38</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Vous pensez donc, très aimable dame, que c’est par coquetterie que je vous ai écrit ..." à Fréville, 1808-06-11, https://constance-de-salm.de/archiv/#/document/2102 #onthisday</t>
+          <t>»Vous pensez donc, très aimable dame, que c’est par coquetterie que je vous ai écrit ...« à Fréville, 1808-06-11, https://constance-de-salm.de/archiv/#/document/2102 #onthisday</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2515,17 +2515,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-6-12</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>15:07:19</t>
+          <t>13:56:09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre bonne et aimable lettre, Monsieur et ami, et je vous en remercie infiniment ..." à Raboteau, 1809-06-12, https://constance-de-salm.de/archiv/#/document/8407 #onthisday</t>
+          <t>»J’ai reçu votre bonne et aimable lettre, Monsieur et ami, et je vous en remercie infiniment ...« à Raboteau, 1809-06-12, https://constance-de-salm.de/archiv/#/document/8407 #onthisday</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,17 +2542,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-6-12</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16:37:48</t>
+          <t>19:42:34</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre bonne et aimable lettre, Monsieur et ami, et je vous en remercie infiniment; ..." à Raboteau, 1809-06-12, https://constance-de-salm.de/archiv/#/document/3888 #onthisday</t>
+          <t>»J’ai reçu votre bonne et aimable lettre, Monsieur et ami, et je vous en remercie infiniment; ...« à Raboteau, 1809-06-12, https://constance-de-salm.de/archiv/#/document/3888 #onthisday</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2569,17 +2569,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-6-13</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>18:42:52</t>
+          <t>17:39:42</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Voulez-vous bien vous charger, Monsieur, de remettre de ma part ..." à Dumas, 1831-06-13, https://constance-de-salm.de/archiv/#/document/6443 #onthisday</t>
+          <t>»Voulez-vous bien vous charger, Monsieur, de remettre de ma part ...« à Dumas, 1831-06-13, https://constance-de-salm.de/archiv/#/document/6443 #onthisday</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2596,17 +2596,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-6-14</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>12:02:07</t>
+          <t>15:01:28</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur et ami, un petit mot pour Madame votre fille ..." à Raboteau, 1817-06-14, https://constance-de-salm.de/archiv/#/document/3975 #onthisday</t>
+          <t>»Voici, Monsieur et ami, un petit mot pour Madame votre fille ...« à Raboteau, 1817-06-14, https://constance-de-salm.de/archiv/#/document/3975 #onthisday</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2623,17 +2623,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-6-14</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>09:57:14</t>
+          <t>15:46:13</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur et ami, un petit mot pour Madame votre fille ..." à Raboteau, 1817-06-14, https://constance-de-salm.de/archiv/#/document/4366 #onthisday</t>
+          <t>»Voici, Monsieur et ami, un petit mot pour Madame votre fille ...« à Raboteau, 1817-06-14, https://constance-de-salm.de/archiv/#/document/4366 #onthisday</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-6-15</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>08:54:45</t>
+          <t>16:55:07</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Je ne veux pas laisser partir la lettre de mon mari sans remercier aussi notre très cher et aimable préfet de la grâce toute parfaite ..." à Ladoucette, 1811-06-15, https://constance-de-salm.de/archiv/#/document/2223 #onthisday</t>
+          <t>»Je ne veux pas laisser partir la lettre de mon mari sans remercier aussi notre très cher et aimable préfet de la grâce toute parfaite ...« à Ladoucette, 1811-06-15, https://constance-de-salm.de/archiv/#/document/2223 #onthisday</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2677,17 +2677,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-6-16</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>19:37:10</t>
+          <t>19:33:25</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Que de remerciements ne vous dois-je pas, Monsieur et si véritable ami! ..." à Barbier, 1821-06-16, https://constance-de-salm.de/archiv/#/document/8285 #onthisday</t>
+          <t>»Que de remerciements ne vous dois-je pas, Monsieur et si véritable ami! ...« à Barbier, 1821-06-16, https://constance-de-salm.de/archiv/#/document/8285 #onthisday</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-6-17</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11:53:11</t>
+          <t>13:00:49</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"J’ai lu, Monsieur, avec le plus vif intérêt votre lettre ..." à Nanteuil, 1797-06-17, https://constance-de-salm.de/archiv/#/document/8479 #onthisday</t>
+          <t>»J’ai lu, Monsieur, avec le plus vif intérêt votre lettre ...« à Nanteuil, 1797-06-17, https://constance-de-salm.de/archiv/#/document/8479 #onthisday</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-6-17</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>19:08:49</t>
+          <t>09:13:57</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Je vous écris un petit mot par une occasion, Monsieur et ami ..." à Raboteau, 1812-06-17, https://constance-de-salm.de/archiv/#/document/2269 #onthisday</t>
+          <t>»Je vous écris un petit mot par une occasion, Monsieur et ami ...« à Raboteau, 1812-06-17, https://constance-de-salm.de/archiv/#/document/2269 #onthisday</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-6-18</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12:27:22</t>
+          <t>14:51:30</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"A mon retour de Paris où j’ai eu une maladie qui m’a tellement accablée que j’ai à peine la force d’écrire ..." à Wied-Neuwied, 1826-06-18, https://constance-de-salm.de/archiv/#/document/8994 #onthisday</t>
+          <t>»A mon retour de Paris où j’ai eu une maladie qui m’a tellement accablée que j’ai à peine la force d’écrire ...« à Wied-Neuwied, 1826-06-18, https://constance-de-salm.de/archiv/#/document/8994 #onthisday</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-6-19</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>17:57:57</t>
+          <t>17:04:12</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas répondu encore, quoique votre lettre soit arrivée ici depuis 10 à 12 jours ..." à Lantier, 1807-06-19, https://constance-de-salm.de/archiv/#/document/2080 #onthisday</t>
+          <t>»Je ne vous ai pas répondu encore, quoique votre lettre soit arrivée ici depuis 10 à 12 jours ...« à Lantier, 1807-06-19, https://constance-de-salm.de/archiv/#/document/2080 #onthisday</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-6-20</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>19:18:08</t>
+          <t>16:01:34</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"J'ai aujourd'hui la famille Locquenghien; je serai bien charmée de vous avoir aussi, Monsieur ..." à Prous, 1816-06-20, https://constance-de-salm.de/archiv/#/document/4314 #onthisday</t>
+          <t>»J'ai aujourd'hui la famille Locquenghien; je serai bien charmée de vous avoir aussi, Monsieur ...« à Prous, 1816-06-20, https://constance-de-salm.de/archiv/#/document/4314 #onthisday</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2839,17 +2839,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-6-20</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>18:46:44</t>
+          <t>10:01:06</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"J'ai aujourd'hui la famille Locquenghien; je serai bien charmée de vous avoir aussi, Monsieur ..." à Prous, 1816-06-20, https://constance-de-salm.de/archiv/#/document/2795 #onthisday</t>
+          <t>»J'ai aujourd'hui la famille Locquenghien; je serai bien charmée de vous avoir aussi, Monsieur ...« à Prous, 1816-06-20, https://constance-de-salm.de/archiv/#/document/2795 #onthisday</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-6-21</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>18:23:53</t>
+          <t>12:39:35</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques semaines, Madame et ancienne amie, mais j'y suis arrivée malade ..." à N.N., 1840-06-21, https://constance-de-salm.de/archiv/#/document/8202 #onthisday</t>
+          <t>»Je suis ici depuis quelques semaines, Madame et ancienne amie, mais j'y suis arrivée malade ...« à N.N., 1840-06-21, https://constance-de-salm.de/archiv/#/document/8202 #onthisday</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2893,17 +2893,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-6-22</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16:25:22</t>
+          <t>17:55:41</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur et ami, et je ne trouve pas d’expression pour vous dire toute la peine qu’elle me cause ..." à Raboteau, 1813-06-22, https://constance-de-salm.de/archiv/#/document/2302 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur et ami, et je ne trouve pas d’expression pour vous dire toute la peine qu’elle me cause ...« à Raboteau, 1813-06-22, https://constance-de-salm.de/archiv/#/document/2302 #onthisday</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2920,17 +2920,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-6-22</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16:30:22</t>
+          <t>14:48:20</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur et ami, et je ne trouve pas d’expression pour vous dire toute la peine qu’elle me cause ..." à Raboteau, 1813-06-22, https://constance-de-salm.de/archiv/#/document/3911 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur et ami, et je ne trouve pas d’expression pour vous dire toute la peine qu’elle me cause ...« à Raboteau, 1813-06-22, https://constance-de-salm.de/archiv/#/document/3911 #onthisday</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2947,17 +2947,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-6-23</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>17:15:26</t>
+          <t>14:40:57</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, un petit billet que je vous prie de lire ..." à Prous, 1816-06-23, https://constance-de-salm.de/archiv/#/document/2796 #onthisday</t>
+          <t>»Voici, Monsieur, un petit billet que je vous prie de lire ...« à Prous, 1816-06-23, https://constance-de-salm.de/archiv/#/document/2796 #onthisday</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2974,17 +2974,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-6-23</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>08:30:27</t>
+          <t>08:12:27</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Voilà, Monsieur, un petit billet que je vous prie de lire ..." à Prous, 1816-06-23, https://constance-de-salm.de/archiv/#/document/4315 #onthisday</t>
+          <t>»Voilà, Monsieur, un petit billet que je vous prie de lire ...« à Prous, 1816-06-23, https://constance-de-salm.de/archiv/#/document/4315 #onthisday</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3001,17 +3001,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-6-24</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11:19:33</t>
+          <t>16:09:32</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Chacun connaît cet apologue: „Un peintre avait exposé un tableau..." ..." à N.N., 1795-06-24, https://constance-de-salm.de/archiv/#/document/8444 #onthisday</t>
+          <t>»Chacun connaît cet apologue: „Un peintre avait exposé un tableau..." ...« à N.N., 1795-06-24, https://constance-de-salm.de/archiv/#/document/8444 #onthisday</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3028,17 +3028,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-6-24</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>09:13:51</t>
+          <t>16:13:58</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Si votre situation vous le permet; si vous ne craignez pas, aimable amie, de vous affliger encore ..." à Salis, 1822-06-24, https://constance-de-salm.de/archiv/#/document/30 #onthisday</t>
+          <t>»Si votre situation vous le permet; si vous ne craignez pas, aimable amie, de vous affliger encore ...« à Salis, 1822-06-24, https://constance-de-salm.de/archiv/#/document/30 #onthisday</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-6-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16:24:52</t>
+          <t>19:48:32</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Je vous ai encore écrit une petite lettre qui s’est croisée avec la vôtre ..." à Raboteau, 1811-06-25, https://constance-de-salm.de/archiv/#/document/2221 #onthisday</t>
+          <t>»Je vous ai encore écrit une petite lettre qui s’est croisée avec la vôtre ...« à Raboteau, 1811-06-25, https://constance-de-salm.de/archiv/#/document/2221 #onthisday</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-6-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>14:28:10</t>
+          <t>10:02:39</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Je vous ai encore écrit une petite lettre qui s’est croisée avec la vôtre ..." à Raboteau, 1811-06-25, https://constance-de-salm.de/archiv/#/document/3897 #onthisday</t>
+          <t>»Je vous ai encore écrit une petite lettre qui s’est croisée avec la vôtre ...« à Raboteau, 1811-06-25, https://constance-de-salm.de/archiv/#/document/3897 #onthisday</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3109,17 +3109,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-6-26</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>15:02:53</t>
+          <t>10:52:08</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"J’avais commencé une lettre pour vous, Monsieur, en réponse à votre avant-dernière ..." à Jullien de Paris, 1826-06-26, https://constance-de-salm.de/archiv/#/document/9009 #onthisday</t>
+          <t>»J’avais commencé une lettre pour vous, Monsieur, en réponse à votre avant-dernière ...« à Jullien de Paris, 1826-06-26, https://constance-de-salm.de/archiv/#/document/9009 #onthisday</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3136,17 +3136,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-6-26</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08:40:52</t>
+          <t>13:11:04</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Ce n’est que d’aujourd’hui que je reprends mon train de vie ordinaire, Monsieur le Baron; j’ai rangé mon Cabinet ..." à Ladoucette, 1826-06-26, https://constance-de-salm.de/archiv/#/document/9018 #onthisday</t>
+          <t>»Ce n’est que d’aujourd’hui que je reprends mon train de vie ordinaire, Monsieur le Baron; j’ai rangé mon Cabinet ...« à Ladoucette, 1826-06-26, https://constance-de-salm.de/archiv/#/document/9018 #onthisday</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3163,17 +3163,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-6-27</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>19:57:52</t>
+          <t>14:06:22</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Je ne reçois pas de vos nouvelles depuis longtemps, Monsieur ..." à Barbier, 1817-06-27, https://constance-de-salm.de/archiv/#/document/4367 #onthisday</t>
+          <t>»Je ne reçois pas de vos nouvelles depuis longtemps, Monsieur ...« à Barbier, 1817-06-27, https://constance-de-salm.de/archiv/#/document/4367 #onthisday</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3190,17 +3190,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-6-27</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>13:07:36</t>
+          <t>08:56:32</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Je suis encore si peu remise de ma dernière crise, Monsieur et ami, qu’il m’est impossible ..." à Barbier, 1824-06-27, https://constance-de-salm.de/archiv/#/document/8912 #onthisday</t>
+          <t>»Je suis encore si peu remise de ma dernière crise, Monsieur et ami, qu’il m’est impossible ...« à Barbier, 1824-06-27, https://constance-de-salm.de/archiv/#/document/8912 #onthisday</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3217,17 +3217,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-6-28</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>11:41:28</t>
+          <t>17:26:08</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Citoyen aimable, je me reproche véritablement le long temps ..." à Thurot, 1794-06-28, https://constance-de-salm.de/archiv/#/document/8441 #onthisday</t>
+          <t>»Citoyen aimable, je me reproche véritablement le long temps ...« à Thurot, 1794-06-28, https://constance-de-salm.de/archiv/#/document/8441 #onthisday</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3244,17 +3244,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-6-28</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>18:31:08</t>
+          <t>19:46:20</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Je relis votre lettre, Monsieur et ami ..." à Raboteau, 1811-06-28, https://constance-de-salm.de/archiv/#/document/2227 #onthisday</t>
+          <t>»Je relis votre lettre, Monsieur et ami ...« à Raboteau, 1811-06-28, https://constance-de-salm.de/archiv/#/document/2227 #onthisday</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,17 +3271,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-6-29</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>13:35:51</t>
+          <t>10:07:32</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"J’ai reçu vos deux lettres, ma chère amie, et j’y aurais répondu plutôt (sic) ..." à Salis, 1800-06-29, https://constance-de-salm.de/archiv/#/document/8593 #onthisday</t>
+          <t>»J’ai reçu vos deux lettres, ma chère amie, et j’y aurais répondu plutôt (sic) ...« à Salis, 1800-06-29, https://constance-de-salm.de/archiv/#/document/8593 #onthisday</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3298,17 +3298,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-6-29</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>12:26:27</t>
+          <t>08:44:30</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"J’ai reçu vos deux lettres, ma chère amie, et j’y aurais répondu plutôt (sic) ..." à Salis, 1800-06-29, https://constance-de-salm.de/archiv/#/document/10421 #onthisday</t>
+          <t>»J’ai reçu vos deux lettres, ma chère amie, et j’y aurais répondu plutôt (sic) ...« à Salis, 1800-06-29, https://constance-de-salm.de/archiv/#/document/10421 #onthisday</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-6-30</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>17:50:20</t>
+          <t>13:10:00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"J’ai appris avec bien du plaisir, Monsieur, le succès de mon éloge de Lalande ..." à Feuillet, 1809-06-30, https://constance-de-salm.de/archiv/#/document/2128 #onthisday</t>
+          <t>»J’ai appris avec bien du plaisir, Monsieur, le succès de mon éloge de Lalande ...« à Feuillet, 1809-06-30, https://constance-de-salm.de/archiv/#/document/2128 #onthisday</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3352,17 +3352,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-6-30</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:24:07</t>
+          <t>11:31:21</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"J’ai lu avec le plus grand plaisir, Monsieur et ami, la lettre que vous m’avez écrite relativement à la lecture de mon éloge de Lalande ..." à Ponce, 1809-06-30, https://constance-de-salm.de/archiv/#/document/2127 #onthisday</t>
+          <t>»J’ai lu avec le plus grand plaisir, Monsieur et ami, la lettre que vous m’avez écrite relativement à la lecture de mon éloge de Lalande ...« à Ponce, 1809-06-30, https://constance-de-salm.de/archiv/#/document/2127 #onthisday</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3379,17 +3379,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-7-1</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>12:14:01</t>
+          <t>11:24:20</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Je ne sais, Madame et amie, de quelle expression me servir pour chercher à vous consoler de la perte sensible que vous venez de faire ..." à Salis, 1821-07-01, https://constance-de-salm.de/archiv/#/document/4658 #onthisday</t>
+          <t>»Je ne sais, Madame et amie, de quelle expression me servir pour chercher à vous consoler de la perte sensible que vous venez de faire ...« à Salis, 1821-07-01, https://constance-de-salm.de/archiv/#/document/4658 #onthisday</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-7-1</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16:24:43</t>
+          <t>17:05:52</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Je ne sais, Madame et amie, de quelle expression me servir pour chercher à vous consoler de la perte sensible que vous venez de faire ..." à Salis, 1821-07-01, https://constance-de-salm.de/archiv/#/document/8286 #onthisday</t>
+          <t>»Je ne sais, Madame et amie, de quelle expression me servir pour chercher à vous consoler de la perte sensible que vous venez de faire ...« à Salis, 1821-07-01, https://constance-de-salm.de/archiv/#/document/8286 #onthisday</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3433,17 +3433,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-7-2</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>11:08:51</t>
+          <t>18:50:31</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Votre dernière lettre, Monsieur, est arrivée pendant que nous étions à Aix-la-Chapelle ..." à Barbier, 1818-07-02, https://constance-de-salm.de/archiv/#/document/4442 #onthisday</t>
+          <t>»Votre dernière lettre, Monsieur, est arrivée pendant que nous étions à Aix-la-Chapelle ...« à Barbier, 1818-07-02, https://constance-de-salm.de/archiv/#/document/4442 #onthisday</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-7-2</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>08:56:49</t>
+          <t>15:09:10</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, Monsieur, les 2 exemplaires de votre traduction de Vida et je l’ai lue avec plaisir ..." à Valant, 1824-07-02, https://constance-de-salm.de/archiv/#/document/8914 #onthisday</t>
+          <t>»J’ai reçu hier, Monsieur, les 2 exemplaires de votre traduction de Vida et je l’ai lue avec plaisir ...« à Valant, 1824-07-02, https://constance-de-salm.de/archiv/#/document/8914 #onthisday</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3487,17 +3487,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-7-3</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>15:52:28</t>
+          <t>12:20:46</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Je viens de voir dans le Constitutionnel, mon cher voisin, que vous êtes un des trois candidats de votre arrondissement ..." à Ladoucette, 1831-07-03, https://constance-de-salm.de/archiv/#/document/9507 #onthisday</t>
+          <t>»Je viens de voir dans le Constitutionnel, mon cher voisin, que vous êtes un des trois candidats de votre arrondissement ...« à Ladoucette, 1831-07-03, https://constance-de-salm.de/archiv/#/document/9507 #onthisday</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-7-3</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>18:46:22</t>
+          <t>10:06:05</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm, qui a été hier faire visite à S[on] E[xcellence] Madame la baronne de Werther, regrette beaucoup de ne l’avoir pas trouvée chez elle ..." à Werther, 1831-07-03, https://constance-de-salm.de/archiv/#/document/11307 #onthisday</t>
+          <t>»La Princesse de Salm, qui a été hier faire visite à S[on] E[xcellence] Madame la baronne de Werther, regrette beaucoup de ne l’avoir pas trouvée chez elle ...« à Werther, 1831-07-03, https://constance-de-salm.de/archiv/#/document/11307 #onthisday</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-7-4</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>17:02:35</t>
+          <t>14:32:41</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Monsieur, et, presqu’en même temps le numéro du Constitutionnel qui contenait votre article; ..." à Montémont, 1829-07-04, https://constance-de-salm.de/archiv/#/document/9399 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Monsieur, et, presqu’en même temps le numéro du Constitutionnel qui contenait votre article; ...« à Montémont, 1829-07-04, https://constance-de-salm.de/archiv/#/document/9399 #onthisday</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3568,17 +3568,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-7-5</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10:13:46</t>
+          <t>09:04:47</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, ce que vous aurez pensé de mon long silence; je me le suis reproché bien souvent ..." à Berville, 1835-07-05, https://constance-de-salm.de/archiv/#/document/9624 #onthisday</t>
+          <t>»Je ne sais, Monsieur, ce que vous aurez pensé de mon long silence; je me le suis reproché bien souvent ...« à Berville, 1835-07-05, https://constance-de-salm.de/archiv/#/document/9624 #onthisday</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3595,17 +3595,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-7-6</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>19:36:40</t>
+          <t>19:49:37</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Je deviens fort vieille, Monsieur, je suis aussi fort souffrante cette année ..." à Villenave, 1837-07-06, https://constance-de-salm.de/archiv/#/document/7799 #onthisday</t>
+          <t>»Je deviens fort vieille, Monsieur, je suis aussi fort souffrante cette année ...« à Villenave, 1837-07-06, https://constance-de-salm.de/archiv/#/document/7799 #onthisday</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-7-7</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>17:25:53</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Monsieur le président, je n’aurais pas cru qu’il fût possible d’ajouter aux douleurs d’une mère qui a vu assassiner sa fille unique dans sa maison ..." à N.N., 1820-07-07, https://constance-de-salm.de/archiv/#/document/775 #onthisday</t>
+          <t>»Monsieur le président, je n’aurais pas cru qu’il fût possible d’ajouter aux douleurs d’une mère qui a vu assassiner sa fille unique dans sa maison ...« à N.N., 1820-07-07, https://constance-de-salm.de/archiv/#/document/775 #onthisday</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-7-8</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16:49:21</t>
+          <t>19:26:19</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre du …, mon ancien ami, et elle m’a fait grand plaisir: ..." à Raboteau, 1821-07-08, https://constance-de-salm.de/archiv/#/document/4659 #onthisday</t>
+          <t>»J’ai reçu votre lettre du …, mon ancien ami, et elle m’a fait grand plaisir: ...« à Raboteau, 1821-07-08, https://constance-de-salm.de/archiv/#/document/4659 #onthisday</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3676,17 +3676,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-7-8</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>08:27:49</t>
+          <t>11:23:41</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"J’ai voulu laisser passer les premiers jours de votre heureux retour dans vos foyers, mon cher voisin, et vous donner le temps ..." à Maison, 1829-07-08, https://constance-de-salm.de/archiv/#/document/9400 #onthisday</t>
+          <t>»J’ai voulu laisser passer les premiers jours de votre heureux retour dans vos foyers, mon cher voisin, et vous donner le temps ...« à Maison, 1829-07-08, https://constance-de-salm.de/archiv/#/document/9400 #onthisday</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,17 +3703,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-7-9</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>12:50:06</t>
+          <t>12:38:28</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Il y a bien longtems, Monsieur, que j’ai reçu votre très aimable lettre, et je me reprocherais beaucoup de ne pas y avoir encore répondu ..." à Raboteau, 1805-07-09, https://constance-de-salm.de/archiv/#/document/3871 #onthisday</t>
+          <t>»Il y a bien longtems, Monsieur, que j’ai reçu votre très aimable lettre, et je me reprocherais beaucoup de ne pas y avoir encore répondu ...« à Raboteau, 1805-07-09, https://constance-de-salm.de/archiv/#/document/3871 #onthisday</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-7-10</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>08:28:03</t>
+          <t>09:23:10</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"Je veux pendant que je suis encore ici, Monsieur, vous dire que j’ai lu votre notion historique ..." à Berville, 1833-07-10, https://constance-de-salm.de/archiv/#/document/9530 #onthisday</t>
+          <t>»Je veux pendant que je suis encore ici, Monsieur, vous dire que j’ai lu votre notion historique ...« à Berville, 1833-07-10, https://constance-de-salm.de/archiv/#/document/9530 #onthisday</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-7-11</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16:44:12</t>
+          <t>14:25:53</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre bonne lettre, Monsieur, et ..." à Barbier, 1822-07-11, https://constance-de-salm.de/archiv/#/document/32 #onthisday</t>
+          <t>»J'ai reçu hier votre bonne lettre, Monsieur, et ...« à Barbier, 1822-07-11, https://constance-de-salm.de/archiv/#/document/32 #onthisday</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-7-11</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16:00:36</t>
+          <t>10:36:37</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre bonne lettre, Monsieur, et ..." à Barbier, 1822-07-11, https://constance-de-salm.de/archiv/#/document/4071 #onthisday</t>
+          <t>»J'ai reçu hier votre bonne lettre, Monsieur, et ...« à Barbier, 1822-07-11, https://constance-de-salm.de/archiv/#/document/4071 #onthisday</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3811,17 +3811,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-7-12</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>09:17:05</t>
+          <t>15:28:55</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Je ne vous écris qu’un mot aujourd’hui, parce que je n'ai pas le temps ..." à Raboteau, 1807-07-12, https://constance-de-salm.de/archiv/#/document/8698 #onthisday</t>
+          <t>»Je ne vous écris qu’un mot aujourd’hui, parce que je n'ai pas le temps ...« à Raboteau, 1807-07-12, https://constance-de-salm.de/archiv/#/document/8698 #onthisday</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3838,17 +3838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-7-12</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>12:04:29</t>
+          <t>15:13:05</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Recevez, Monsieur, mon compliment sur l’heureuse délivrance de Madame votre épouse ..." à Laya, 1808-07-12, https://constance-de-salm.de/archiv/#/document/2105 #onthisday</t>
+          <t>»Recevez, Monsieur, mon compliment sur l’heureuse délivrance de Madame votre épouse ...« à Laya, 1808-07-12, https://constance-de-salm.de/archiv/#/document/2105 #onthisday</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3865,17 +3865,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-7-13</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>15:55:02</t>
+          <t>10:28:42</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm est si fatiguée de son petit voyage ..." à Villenave, 1831-07-13, https://constance-de-salm.de/archiv/#/document/11032 #onthisday</t>
+          <t>»La Princesse de Salm est si fatiguée de son petit voyage ...« à Villenave, 1831-07-13, https://constance-de-salm.de/archiv/#/document/11032 #onthisday</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,17 +3892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-7-14</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>13:44:36</t>
+          <t>16:01:42</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Je m’empresse de faire passer à Monsieur Alexandre Duval une lettre que je viens de recevoir pour lui, et je profite avec plaisir de cette occasion ..." à Duval, 1827-07-14, https://constance-de-salm.de/archiv/#/document/9081 #onthisday</t>
+          <t>»Je m’empresse de faire passer à Monsieur Alexandre Duval une lettre que je viens de recevoir pour lui, et je profite avec plaisir de cette occasion ...« à Duval, 1827-07-14, https://constance-de-salm.de/archiv/#/document/9081 #onthisday</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3919,17 +3919,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-7-15</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>10:29:22</t>
+          <t>10:44:01</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"J'ai failli mourir cet hiver, je le croyais, je le voulais ..." à Thurot, 1821-07-15, https://constance-de-salm.de/archiv/#/document/4661 #onthisday</t>
+          <t>»J'ai failli mourir cet hiver, je le croyais, je le voulais ...« à Thurot, 1821-07-15, https://constance-de-salm.de/archiv/#/document/4661 #onthisday</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-7-15</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>13:38:02</t>
+          <t>19:27:06</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"J'ai failli mourir cet hiver, je le croyais, je le voulais ..." à Thurot, 1821-07-15, https://constance-de-salm.de/archiv/#/document/8290 #onthisday</t>
+          <t>»J'ai failli mourir cet hiver, je le croyais, je le voulais ...« à Thurot, 1821-07-15, https://constance-de-salm.de/archiv/#/document/8290 #onthisday</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3973,17 +3973,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-7-16</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>09:15:54</t>
+          <t>09:57:45</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Je veux joindre un mot pour toi, ma chère amie, à la lettre que j’écris à ton père ..." à Théis, 1832-07-16, https://constance-de-salm.de/archiv/#/document/10818 #onthisday</t>
+          <t>»Je veux joindre un mot pour toi, ma chère amie, à la lettre que j’écris à ton père ...« à Théis, 1832-07-16, https://constance-de-salm.de/archiv/#/document/10818 #onthisday</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-7-17</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>11:31:26</t>
+          <t>11:52:26</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur, que vous êtes malade, dans votre lit, et j’en suis très peinée, je vous l’assure ..." à Prous, 1816-07-17, https://constance-de-salm.de/archiv/#/document/8852 #onthisday</t>
+          <t>»On me dit, Monsieur, que vous êtes malade, dans votre lit, et j’en suis très peinée, je vous l’assure ...« à Prous, 1816-07-17, https://constance-de-salm.de/archiv/#/document/8852 #onthisday</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4027,17 +4027,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-7-18</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>19:02:21</t>
+          <t>15:50:55</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"C’est avec une véritable douleur, Monsieur, que j’ai appris par votre lettre le malheur ..." à N.N., 1829-07-18, https://constance-de-salm.de/archiv/#/document/9434 #onthisday</t>
+          <t>»C’est avec une véritable douleur, Monsieur, que j’ai appris par votre lettre le malheur ...« à N.N., 1829-07-18, https://constance-de-salm.de/archiv/#/document/9434 #onthisday</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-7-18</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16:44:46</t>
+          <t>17:16:41</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"Il faut, Monsieur, que je jase un instant avec vous; que je vous donne de mes nouvelles ..." à Gohier, 1829-07-18, https://constance-de-salm.de/archiv/#/document/9433 #onthisday</t>
+          <t>»Il faut, Monsieur, que je jase un instant avec vous; que je vous donne de mes nouvelles ...« à Gohier, 1829-07-18, https://constance-de-salm.de/archiv/#/document/9433 #onthisday</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4081,17 +4081,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-7-19</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>15:58:30</t>
+          <t>09:08:13</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"Je ne suis guère plus gaie que vous, mon cher voisin, et je suis encore attristée par le mal de Madame Kopp ..." à Prous, 1817-07-19, https://constance-de-salm.de/archiv/#/document/4371 #onthisday</t>
+          <t>»Je ne suis guère plus gaie que vous, mon cher voisin, et je suis encore attristée par le mal de Madame Kopp ...« à Prous, 1817-07-19, https://constance-de-salm.de/archiv/#/document/4371 #onthisday</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4108,17 +4108,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-7-20</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>19:50:51</t>
+          <t>16:15:50</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Enfin, ma chère Minette, me voilà rendue dans mon grand château. J'ai écrit hier à ton oncle ce qui m'est arrivé avant que d'arriver ..." à Francq, 1814-07-20, https://constance-de-salm.de/archiv/#/document/6193 #onthisday</t>
+          <t>»Enfin, ma chère Minette, me voilà rendue dans mon grand château. J'ai écrit hier à ton oncle ce qui m'est arrivé avant que d'arriver ...« à Francq, 1814-07-20, https://constance-de-salm.de/archiv/#/document/6193 #onthisday</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4135,17 +4135,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-7-20</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>14:58:05</t>
+          <t>18:15:11</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre bonne lettre, mon ancien ami, et je ne veux pas tarder davantage à vous écrire ..." à Raboteau, 1819-07-20, https://constance-de-salm.de/archiv/#/document/3979 #onthisday</t>
+          <t>»J'ai reçu hier votre bonne lettre, mon ancien ami, et je ne veux pas tarder davantage à vous écrire ...« à Raboteau, 1819-07-20, https://constance-de-salm.de/archiv/#/document/3979 #onthisday</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4162,17 +4162,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-7-21</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>15:09:34</t>
+          <t>19:35:02</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Je veux vous faire rire, Monsieur le baron; j’ai reçu les copies que vous avez eu la complaisance de me faire faire; ..." à Ladoucette, 1829-07-21, https://constance-de-salm.de/archiv/#/document/9436 #onthisday</t>
+          <t>»Je veux vous faire rire, Monsieur le baron; j’ai reçu les copies que vous avez eu la complaisance de me faire faire; ...« à Ladoucette, 1829-07-21, https://constance-de-salm.de/archiv/#/document/9436 #onthisday</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4189,17 +4189,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-7-22</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>08:07:24</t>
+          <t>10:05:57</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"Vous avez bien raison, Monsieur, de vous plaindre de mon silence ..." à Mirault, 1827-07-22, https://constance-de-salm.de/archiv/#/document/9084 #onthisday</t>
+          <t>»Vous avez bien raison, Monsieur, de vous plaindre de mon silence ...« à Mirault, 1827-07-22, https://constance-de-salm.de/archiv/#/document/9084 #onthisday</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4216,17 +4216,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-7-22</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>18:07:16</t>
+          <t>11:07:17</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, Monsieur, vous croyez peut-être que je vous oublie; ..." à Marron, 1830-07-22, https://constance-de-salm.de/archiv/#/document/5177 #onthisday</t>
+          <t>»Je n'entends point parler de vous, Monsieur, vous croyez peut-être que je vous oublie; ...« à Marron, 1830-07-22, https://constance-de-salm.de/archiv/#/document/5177 #onthisday</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-7-23</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>13:39:12</t>
+          <t>13:41:27</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir votre lettre, Mademoiselle, et faisant à l’instant même partir un paquet de petits billets ..." à Sobry, 1828-07-23, https://constance-de-salm.de/archiv/#/document/9212 #onthisday</t>
+          <t>»Je viens de recevoir votre lettre, Mademoiselle, et faisant à l’instant même partir un paquet de petits billets ...« à Sobry, 1828-07-23, https://constance-de-salm.de/archiv/#/document/9212 #onthisday</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4270,17 +4270,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-7-23</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10:10:22</t>
+          <t>18:31:40</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a écrit, Monsieur, qu’il vous avait rencontré et que vous vous proposiez de m’écrire ..." à Boucharlat, 1829-07-23, https://constance-de-salm.de/archiv/#/document/9437 #onthisday</t>
+          <t>»Monsieur Drais m’a écrit, Monsieur, qu’il vous avait rencontré et que vous vous proposiez de m’écrire ...« à Boucharlat, 1829-07-23, https://constance-de-salm.de/archiv/#/document/9437 #onthisday</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4297,17 +4297,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-7-24</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16:00:31</t>
+          <t>19:23:30</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Si ce petit billet vous parvient, Monsieur et ami, vous saurez au moins que je me porte bien ..." à Raboteau, 1814-07-24, https://constance-de-salm.de/archiv/#/document/2323 #onthisday</t>
+          <t>»Si ce petit billet vous parvient, Monsieur et ami, vous saurez au moins que je me porte bien ...« à Raboteau, 1814-07-24, https://constance-de-salm.de/archiv/#/document/2323 #onthisday</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4324,17 +4324,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-7-25</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16:25:50</t>
+          <t>16:51:17</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"J’ai depuis quelque temps un mal de gorge, une ébullition et mille petits maux ..." à Gudin de La Brenellerie, 1811-07-25, https://constance-de-salm.de/archiv/#/document/5628 #onthisday</t>
+          <t>»J’ai depuis quelque temps un mal de gorge, une ébullition et mille petits maux ...« à Gudin de La Brenellerie, 1811-07-25, https://constance-de-salm.de/archiv/#/document/5628 #onthisday</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4351,17 +4351,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-7-26</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>09:24:32</t>
+          <t>08:00:09</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"J'avais pressenti votre jugement sur les fragments de l'ouvrage de ..." à Prous, 1821-07-26, https://constance-de-salm.de/archiv/#/document/4561 #onthisday</t>
+          <t>»J'avais pressenti votre jugement sur les fragments de l'ouvrage de ...« à Prous, 1821-07-26, https://constance-de-salm.de/archiv/#/document/4561 #onthisday</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4378,17 +4378,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-7-26</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08:47:45</t>
+          <t>17:46:11</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"J’avais pressenti votre jugement sur les fragments de l’ouvrage ..." à Prous, 1821-07-26, https://constance-de-salm.de/archiv/#/document/2852 #onthisday</t>
+          <t>»J’avais pressenti votre jugement sur les fragments de l’ouvrage ...« à Prous, 1821-07-26, https://constance-de-salm.de/archiv/#/document/2852 #onthisday</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4405,17 +4405,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-7-27</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>14:21:05</t>
+          <t>18:47:47</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Je suis arrivée ici, Monsieur, en assés bon état quoiqu’excédée de fatigue : ..." à Raboteau, 1810-07-27, https://constance-de-salm.de/archiv/#/document/2161 #onthisday</t>
+          <t>»Je suis arrivée ici, Monsieur, en assés bon état quoiqu’excédée de fatigue : ...« à Raboteau, 1810-07-27, https://constance-de-salm.de/archiv/#/document/2161 #onthisday</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4432,17 +4432,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-7-28</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>19:46:06</t>
+          <t>15:36:32</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"J’apprends à l’instant par une lettre de Monsieur Drais, Madame et amie, qu’il vient de recevoir pour nous le billet de faire part ..." à Laya, 1835-07-28, https://constance-de-salm.de/archiv/#/document/9631 #onthisday</t>
+          <t>»J’apprends à l’instant par une lettre de Monsieur Drais, Madame et amie, qu’il vient de recevoir pour nous le billet de faire part ...« à Laya, 1835-07-28, https://constance-de-salm.de/archiv/#/document/9631 #onthisday</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4459,17 +4459,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-7-29</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12:53:37</t>
+          <t>17:00:11</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Me voilà enfin à peu près rétablie, mon cher Duval, et mon premier soin est de vous remercier de la toute aimable surprise ..." à Duval, 1828-07-29, https://constance-de-salm.de/archiv/#/document/10323 #onthisday</t>
+          <t>»Me voilà enfin à peu près rétablie, mon cher Duval, et mon premier soin est de vous remercier de la toute aimable surprise ...« à Duval, 1828-07-29, https://constance-de-salm.de/archiv/#/document/10323 #onthisday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4486,17 +4486,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-7-29</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>19:15:18</t>
+          <t>11:56:49</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Ton ouvrage m’est arrivé, cher frère, Drais l’avait, par mégarde, adressé à Aix ..." à Théis, 1828-07-29, https://constance-de-salm.de/archiv/#/document/10727 #onthisday</t>
+          <t>»Ton ouvrage m’est arrivé, cher frère, Drais l’avait, par mégarde, adressé à Aix ...« à Théis, 1828-07-29, https://constance-de-salm.de/archiv/#/document/10727 #onthisday</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4513,17 +4513,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-7-30</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12:14:21</t>
+          <t>12:24:28</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"J’apprends à l’instant, mon ancien ami, la justice qui vient de vous être rendue, et j’empresse de vous en féliciter ..." à Ponce, 1827-07-30, https://constance-de-salm.de/archiv/#/document/9085 #onthisday</t>
+          <t>»J’apprends à l’instant, mon ancien ami, la justice qui vient de vous être rendue, et j’empresse de vous en féliciter ...« à Ponce, 1827-07-30, https://constance-de-salm.de/archiv/#/document/9085 #onthisday</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4540,17 +4540,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-7-31</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>14:17:26</t>
+          <t>16:41:04</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Votre lettre s’est croisée avec la mienne, Monsieur, j’ai été d’autant plus charmée de la recevoir ..." à Boucharlat, 1829-07-31, https://constance-de-salm.de/archiv/#/document/9444 #onthisday</t>
+          <t>»Votre lettre s’est croisée avec la mienne, Monsieur, j’ai été d’autant plus charmée de la recevoir ...« à Boucharlat, 1829-07-31, https://constance-de-salm.de/archiv/#/document/9444 #onthisday</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4567,17 +4567,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-8-1</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>10:02:34</t>
+          <t>11:33:03</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur et ami, que vous êtes malade ..." à Raboteau, 1812-08-01, https://constance-de-salm.de/archiv/#/document/3906 #onthisday</t>
+          <t>»On me dit, Monsieur et ami, que vous êtes malade ...« à Raboteau, 1812-08-01, https://constance-de-salm.de/archiv/#/document/3906 #onthisday</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4594,17 +4594,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-8-2</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>09:36:12</t>
+          <t>13:21:18</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"J’apprends à l’instant par une lettre de Madame Sobry, Monsieur, que c’est de vous que je tiens votre excellent ouvrage ..." à Viennet, 1824-08-02, https://constance-de-salm.de/archiv/#/document/8918 #onthisday</t>
+          <t>»J’apprends à l’instant par une lettre de Madame Sobry, Monsieur, que c’est de vous que je tiens votre excellent ouvrage ...« à Viennet, 1824-08-02, https://constance-de-salm.de/archiv/#/document/8918 #onthisday</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4621,17 +4621,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-8-2</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>10:40:56</t>
+          <t>08:15:05</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Chère Princesse, j'ai voulu laisser passer les premiers moments de votre douleur avant de vous dire à quel point ma vive amitié y a pris part ..." à Thurn und Taxis, 1827-08-02, https://constance-de-salm.de/archiv/#/document/249 #onthisday</t>
+          <t>»Chère Princesse, j'ai voulu laisser passer les premiers moments de votre douleur avant de vous dire à quel point ma vive amitié y a pris part ...« à Thurn und Taxis, 1827-08-02, https://constance-de-salm.de/archiv/#/document/249 #onthisday</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-8-3</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>08:05:15</t>
+          <t>09:04:50</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"En vérité, ma chère amie, je ne sais comment m’y prendre pour vous dire ..." à Salis, 1800-08-03, https://constance-de-salm.de/archiv/#/document/10423 #onthisday</t>
+          <t>»En vérité, ma chère amie, je ne sais comment m’y prendre pour vous dire ...« à Salis, 1800-08-03, https://constance-de-salm.de/archiv/#/document/10423 #onthisday</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4675,17 +4675,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-8-3</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>08:50:32</t>
+          <t>11:13:29</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"En vérité, ma chère amie, je ne sais comment m’y prendre pour vous dire ..." à Salis, 1800-08-03, https://constance-de-salm.de/archiv/#/document/8596 #onthisday</t>
+          <t>»En vérité, ma chère amie, je ne sais comment m’y prendre pour vous dire ...« à Salis, 1800-08-03, https://constance-de-salm.de/archiv/#/document/8596 #onthisday</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4702,17 +4702,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-8-4</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>12:46:53</t>
+          <t>16:25:43</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Je n’ai pas eu de tes lettres hier ni avant-hier, ma chère Minette ..." à Francq, 1815-08-04, https://constance-de-salm.de/archiv/#/document/6226 #onthisday</t>
+          <t>»Je n’ai pas eu de tes lettres hier ni avant-hier, ma chère Minette ...« à Francq, 1815-08-04, https://constance-de-salm.de/archiv/#/document/6226 #onthisday</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4729,17 +4729,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-8-4</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>11:08:48</t>
+          <t>13:52:41</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"Je viens enfin de me décider, Monsieur, à faire paraître dans la „Revue“ quelques chapitres tirés de mon ouvrage sur l’Allemagne ..." à Jullien de Paris, 1825-08-04, https://constance-de-salm.de/archiv/#/document/8960 #onthisday</t>
+          <t>»Je viens enfin de me décider, Monsieur, à faire paraître dans la „Revue“ quelques chapitres tirés de mon ouvrage sur l’Allemagne ...« à Jullien de Paris, 1825-08-04, https://constance-de-salm.de/archiv/#/document/8960 #onthisday</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4756,17 +4756,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-8-5</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>13:43:56</t>
+          <t>13:29:23</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Que je vous écrive un mot, Monsieur et ami, pour vous assurer que nous pensons souvent à vous ..." à Raboteau, 1808-08-05, https://constance-de-salm.de/archiv/#/document/8723 #onthisday</t>
+          <t>»Que je vous écrive un mot, Monsieur et ami, pour vous assurer que nous pensons souvent à vous ...« à Raboteau, 1808-08-05, https://constance-de-salm.de/archiv/#/document/8723 #onthisday</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4783,17 +4783,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-8-5</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>17:13:52</t>
+          <t>12:35:55</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"Voici le livre que j’avais oublié… ..." à Prous, 1812-08-05, https://constance-de-salm.de/archiv/#/document/2776 #onthisday</t>
+          <t>»Voici le livre que j’avais oublié… ...« à Prous, 1812-08-05, https://constance-de-salm.de/archiv/#/document/2776 #onthisday</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4810,17 +4810,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-8-6</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16:20:37</t>
+          <t>11:48:54</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"Voici donc mon affaire terminée, Monsieur et ami, à vous en dire le vrai ..." à Barbier, 1817-08-06, https://constance-de-salm.de/archiv/#/document/4377 #onthisday</t>
+          <t>»Voici donc mon affaire terminée, Monsieur et ami, à vous en dire le vrai ...« à Barbier, 1817-08-06, https://constance-de-salm.de/archiv/#/document/4377 #onthisday</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-8-7</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>12:08:35</t>
+          <t>10:49:32</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>"Que pensez-vous de mon long silence, chère Princesse, ne me croyiez-vous pas morte? ..." à Thurn und Taxis, 1826-08-07, https://constance-de-salm.de/archiv/#/document/240 #onthisday</t>
+          <t>»Que pensez-vous de mon long silence, chère Princesse, ne me croyiez-vous pas morte? ...« à Thurn und Taxis, 1826-08-07, https://constance-de-salm.de/archiv/#/document/240 #onthisday</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4864,17 +4864,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-8-8</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>09:50:11</t>
+          <t>14:25:16</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>"Je reviens d’une petite course et je trouve ici, mon ancien ami, votre lettre venue par la poste ..." à Ponce, 1825-08-08, https://constance-de-salm.de/archiv/#/document/8961 #onthisday</t>
+          <t>»Je reviens d’une petite course et je trouve ici, mon ancien ami, votre lettre venue par la poste ...« à Ponce, 1825-08-08, https://constance-de-salm.de/archiv/#/document/8961 #onthisday</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4891,17 +4891,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-8-8</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>08:20:46</t>
+          <t>14:02:36</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>"C'est avec peine, Madame, que j'apprends que vous ne pouvez venir nous voir dans ce moment; ..." à Vaulgrenand, 1830-08-08, https://constance-de-salm.de/archiv/#/document/5182 #onthisday</t>
+          <t>»C'est avec peine, Madame, que j'apprends que vous ne pouvez venir nous voir dans ce moment; ...« à Vaulgrenand, 1830-08-08, https://constance-de-salm.de/archiv/#/document/5182 #onthisday</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4918,17 +4918,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-8-9</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>18:33:15</t>
+          <t>17:36:07</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>"Ce n'a pas été sans une grande émotion que j'ai lu la lettre où vous m'annoncez ..." à Barbier, 1821-08-09, https://constance-de-salm.de/archiv/#/document/8291 #onthisday</t>
+          <t>»Ce n'a pas été sans une grande émotion que j'ai lu la lettre où vous m'annoncez ...« à Barbier, 1821-08-09, https://constance-de-salm.de/archiv/#/document/8291 #onthisday</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4945,17 +4945,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-8-9</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>12:15:47</t>
+          <t>12:27:51</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>"C’est avec le plus grand plaisir, Monsieur, le commandeur, que j’ai appris que votre santé se rétablissait ..." à Césarini, 1829-08-09, https://constance-de-salm.de/archiv/#/document/9447 #onthisday</t>
+          <t>»C’est avec le plus grand plaisir, Monsieur, le commandeur, que j’ai appris que votre santé se rétablissait ...« à Césarini, 1829-08-09, https://constance-de-salm.de/archiv/#/document/9447 #onthisday</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4972,17 +4972,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-8-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10:53:56</t>
+          <t>19:50:46</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>"Je vous renvoie les schales, Monsieur, avec mille remerciments ..." à Prous, 1816-08-10, https://constance-de-salm.de/archiv/#/document/4324 #onthisday</t>
+          <t>»Je vous renvoie les schales, Monsieur, avec mille remerciments ...« à Prous, 1816-08-10, https://constance-de-salm.de/archiv/#/document/4324 #onthisday</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4999,17 +4999,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-8-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>18:01:13</t>
+          <t>17:56:27</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>"Je vous renvoye les schals, Monsieur, avec mille remerciments ..." à Prous, 1816-08-10, https://constance-de-salm.de/archiv/#/document/2797 #onthisday</t>
+          <t>»Je vous renvoye les schals, Monsieur, avec mille remerciments ...« à Prous, 1816-08-10, https://constance-de-salm.de/archiv/#/document/2797 #onthisday</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5026,17 +5026,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-8-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>08:58:18</t>
+          <t>13:27:47</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>"Ayant eu par Monsieur Funke des nouvelles de Madame votre mère et de Mademoiselle votre sœur, Monsieur, et sachant que vous ..." à Maison, 1828-08-11, https://constance-de-salm.de/archiv/#/document/9219 #onthisday</t>
+          <t>»Ayant eu par Monsieur Funke des nouvelles de Madame votre mère et de Mademoiselle votre sœur, Monsieur, et sachant que vous ...« à Maison, 1828-08-11, https://constance-de-salm.de/archiv/#/document/9219 #onthisday</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5053,17 +5053,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-8-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>15:08:14</t>
+          <t>18:54:16</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"Il faut que je sois dans une ville pour avoir le temps d'écrire, Monsieur ..." à Raboteau, 1818-08-12, https://constance-de-salm.de/archiv/#/document/4445 #onthisday</t>
+          <t>»Il faut que je sois dans une ville pour avoir le temps d'écrire, Monsieur ...« à Raboteau, 1818-08-12, https://constance-de-salm.de/archiv/#/document/4445 #onthisday</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5080,17 +5080,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-8-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16:53:27</t>
+          <t>08:42:09</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"Je profite de votre exprès pour vous dire, mon voisin, que nous avons ..." à Prous, 1816-08-13, https://constance-de-salm.de/archiv/#/document/2799 #onthisday</t>
+          <t>»Je profite de votre exprès pour vous dire, mon voisin, que nous avons ...« à Prous, 1816-08-13, https://constance-de-salm.de/archiv/#/document/2799 #onthisday</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5107,17 +5107,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-8-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>10:36:02</t>
+          <t>11:04:33</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre aimable lettre, ma chère élève, et je suis bien sensible aux assurances d'amitié que vous me donnez ..." à Salis, 1800-08-14, https://constance-de-salm.de/archiv/#/document/5139 #onthisday</t>
+          <t>»J'ai reçu hier votre aimable lettre, ma chère élève, et je suis bien sensible aux assurances d'amitié que vous me donnez ...« à Salis, 1800-08-14, https://constance-de-salm.de/archiv/#/document/5139 #onthisday</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5134,17 +5134,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-8-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>08:33:17</t>
+          <t>08:57:54</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>"Que vous dire de mon long silence, mon ancien ami ? La vérité et dans le moins de mots possible ..." à Raboteau, 1823-08-15, https://constance-de-salm.de/archiv/#/document/3999 #onthisday</t>
+          <t>»Que vous dire de mon long silence, mon ancien ami ? La vérité et dans le moins de mots possible ...« à Raboteau, 1823-08-15, https://constance-de-salm.de/archiv/#/document/3999 #onthisday</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5161,17 +5161,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-8-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>18:10:46</t>
+          <t>19:00:25</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>"Que vous dire de mon long silence, mon ancien ami ? La vérite, et dans le moins de mots possible ..." à Raboteau, 1823-08-15, https://constance-de-salm.de/archiv/#/document/4865 #onthisday</t>
+          <t>»Que vous dire de mon long silence, mon ancien ami ? La vérite, et dans le moins de mots possible ...« à Raboteau, 1823-08-15, https://constance-de-salm.de/archiv/#/document/4865 #onthisday</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5188,17 +5188,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-8-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10:15:44</t>
+          <t>18:40:17</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier au soir, Monsieur, votre numéro 4 et écrivant aujourd’hui à Monsieur Drais, je me hâte de profiter de cette occasion ..." à Jullien de Paris, 1829-08-16, https://constance-de-salm.de/archiv/#/document/9457 #onthisday</t>
+          <t>»J’ai reçu hier au soir, Monsieur, votre numéro 4 et écrivant aujourd’hui à Monsieur Drais, je me hâte de profiter de cette occasion ...« à Jullien de Paris, 1829-08-16, https://constance-de-salm.de/archiv/#/document/9457 #onthisday</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5215,17 +5215,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-8-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>12:22:58</t>
+          <t>09:09:16</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>"Je suis de retour ici depuis deux jours, Monsieur et ami, j'y ai trouvé votre lettre ..." à Raboteau, 1818-08-17, https://constance-de-salm.de/archiv/#/document/3948 #onthisday</t>
+          <t>»Je suis de retour ici depuis deux jours, Monsieur et ami, j'y ai trouvé votre lettre ...« à Raboteau, 1818-08-17, https://constance-de-salm.de/archiv/#/document/3948 #onthisday</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5242,17 +5242,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-8-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>18:46:11</t>
+          <t>12:29:27</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"Je suis de retour ici depuis deux jours, Monsieur et ami, j'y ai trouvé votre lettre ..." à Raboteau, 1818-08-17, https://constance-de-salm.de/archiv/#/document/4446 #onthisday</t>
+          <t>»Je suis de retour ici depuis deux jours, Monsieur et ami, j'y ai trouvé votre lettre ...« à Raboteau, 1818-08-17, https://constance-de-salm.de/archiv/#/document/4446 #onthisday</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5269,17 +5269,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-8-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10:32:16</t>
+          <t>14:25:51</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>"Nous avons été bien fâchés, Monsieur, de ne pas vous avoir vu avant, pendant ni après notre fête du 15 ..." à Théremin, 1807-08-18, https://constance-de-salm.de/archiv/#/document/8725 #onthisday</t>
+          <t>»Nous avons été bien fâchés, Monsieur, de ne pas vous avoir vu avant, pendant ni après notre fête du 15 ...« à Théremin, 1807-08-18, https://constance-de-salm.de/archiv/#/document/8725 #onthisday</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5296,17 +5296,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-8-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>08:39:11</t>
+          <t>19:52:37</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>"Mille compliments à Monsieur Prous et à son aimable hôtesse s'il l'a encore ..." à Prous, 1816-08-19, https://constance-de-salm.de/archiv/#/document/4326 #onthisday</t>
+          <t>»Mille compliments à Monsieur Prous et à son aimable hôtesse s'il l'a encore ...« à Prous, 1816-08-19, https://constance-de-salm.de/archiv/#/document/4326 #onthisday</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5323,17 +5323,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-8-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16:29:40</t>
+          <t>14:25:04</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>"On m’a renvoyé votre lettre ici, Monsieur, je l’ai lue avec beaucoup d’attention ..." à Pailliet, 1827-08-19, https://constance-de-salm.de/archiv/#/document/11371 #onthisday</t>
+          <t>»On m’a renvoyé votre lettre ici, Monsieur, je l’ai lue avec beaucoup d’attention ...« à Pailliet, 1827-08-19, https://constance-de-salm.de/archiv/#/document/11371 #onthisday</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5350,17 +5350,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-8-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>14:21:08</t>
+          <t>13:36:08</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>"Quoique j'aie chargé Monsieur Drais d'aller chez vous, Monsieur et ancien ami ..." à Duval, 1831-08-20, https://constance-de-salm.de/archiv/#/document/6553 #onthisday</t>
+          <t>»Quoique j'aie chargé Monsieur Drais d'aller chez vous, Monsieur et ancien ami ...« à Duval, 1831-08-20, https://constance-de-salm.de/archiv/#/document/6553 #onthisday</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5377,17 +5377,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-8-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16:20:07</t>
+          <t>08:29:19</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>"C'est avec une bien grande douleur, Madame et amie, que j'ai appris la perte cruelle ..." à Hémery, 1831-08-20, https://constance-de-salm.de/archiv/#/document/6552 #onthisday</t>
+          <t>»C'est avec une bien grande douleur, Madame et amie, que j'ai appris la perte cruelle ...« à Hémery, 1831-08-20, https://constance-de-salm.de/archiv/#/document/6552 #onthisday</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5404,17 +5404,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-8-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>11:49:32</t>
+          <t>08:06:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>"Monsieur Drais a dû vous dire de ma part, Monsieur, que j'étais arrivée ici en assez bonne santé ..." à Mirault, 1831-08-21, https://constance-de-salm.de/archiv/#/document/6558 #onthisday</t>
+          <t>»Monsieur Drais a dû vous dire de ma part, Monsieur, que j'étais arrivée ici en assez bonne santé ...« à Mirault, 1831-08-21, https://constance-de-salm.de/archiv/#/document/6558 #onthisday</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-8-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>18:14:29</t>
+          <t>16:54:58</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>"Je ne veux point tarder à vous répondre, Madame et bien chère amie ..." à Salis, 1832-08-21, https://constance-de-salm.de/archiv/#/document/5391 #onthisday</t>
+          <t>»Je ne veux point tarder à vous répondre, Madame et bien chère amie ...« à Salis, 1832-08-21, https://constance-de-salm.de/archiv/#/document/5391 #onthisday</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5458,17 +5458,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-8-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>17:55:52</t>
+          <t>19:20:35</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, mon cher général, que nous n'avons entendu parler l'un de l'autre ..." à Saint-Mars, 1832-08-22, https://constance-de-salm.de/archiv/#/document/5422 #onthisday</t>
+          <t>»Il y a bien longtemps, mon cher général, que nous n'avons entendu parler l'un de l'autre ...« à Saint-Mars, 1832-08-22, https://constance-de-salm.de/archiv/#/document/5422 #onthisday</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5485,17 +5485,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-8-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>12:46:58</t>
+          <t>08:18:08</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, vous écrire un mot pour vous dire, moi-même, que je suis arrivée en assez bonne santé ..." à Boucharlat, 1831-08-23, https://constance-de-salm.de/archiv/#/document/9509 #onthisday</t>
+          <t>»Je veux, Monsieur, vous écrire un mot pour vous dire, moi-même, que je suis arrivée en assez bonne santé ...« à Boucharlat, 1831-08-23, https://constance-de-salm.de/archiv/#/document/9509 #onthisday</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5512,17 +5512,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-8-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>13:53:56</t>
+          <t>16:45:04</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que je vous dois une réponse ..." à Pougens, 1833-08-24, https://constance-de-salm.de/archiv/#/document/5252 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que je vous dois une réponse ...« à Pougens, 1833-08-24, https://constance-de-salm.de/archiv/#/document/5252 #onthisday</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5539,17 +5539,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-8-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>15:09:35</t>
+          <t>12:02:04</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>"Je veux vous annoncer, Monsieur et ami, mon heureuse arrivée ..." à Raboteau, 1815-08-25, https://constance-de-salm.de/archiv/#/document/3917 #onthisday</t>
+          <t>»Je veux vous annoncer, Monsieur et ami, mon heureuse arrivée ...« à Raboteau, 1815-08-25, https://constance-de-salm.de/archiv/#/document/3917 #onthisday</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5566,17 +5566,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-8-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>11:25:51</t>
+          <t>13:41:19</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>"J'ai reçu bien exactement votre lettre (N° 1), Monsieur; je regrette fort de ne pas ..." à Jullien de Paris, 1831-08-26, https://constance-de-salm.de/archiv/#/document/6561 #onthisday</t>
+          <t>»J'ai reçu bien exactement votre lettre (N° 1), Monsieur; je regrette fort de ne pas ...« à Jullien de Paris, 1831-08-26, https://constance-de-salm.de/archiv/#/document/6561 #onthisday</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5593,17 +5593,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-8-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:50:26</t>
+          <t>15:08:34</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>"Vous êtes bien aimable, Monsieur le baron, de m'avoir écrit une seconde lettre quoique je ne vous aie pas répondu ..." à Ladoucette, 1833-08-27, https://constance-de-salm.de/archiv/#/document/5253 #onthisday</t>
+          <t>»Vous êtes bien aimable, Monsieur le baron, de m'avoir écrit une seconde lettre quoique je ne vous aie pas répondu ...« à Ladoucette, 1833-08-27, https://constance-de-salm.de/archiv/#/document/5253 #onthisday</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5620,17 +5620,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-8-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>11:55:40</t>
+          <t>08:55:41</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>"Toutes mes affaires sont finies; je suis donc tranquille; ..." à Prous, 1821-08-28, https://constance-de-salm.de/archiv/#/document/4562 #onthisday</t>
+          <t>»Toutes mes affaires sont finies; je suis donc tranquille; ...« à Prous, 1821-08-28, https://constance-de-salm.de/archiv/#/document/4562 #onthisday</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5647,17 +5647,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-8-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>13:04:39</t>
+          <t>08:09:09</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>"Je vous trouve heureux Monsieur, d'être le chaperon ..." à Prous, 1816-08-29, https://constance-de-salm.de/archiv/#/document/10603 #onthisday</t>
+          <t>»Je vous trouve heureux Monsieur, d'être le chaperon ...« à Prous, 1816-08-29, https://constance-de-salm.de/archiv/#/document/10603 #onthisday</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5674,17 +5674,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-8-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>10:18:57</t>
+          <t>18:33:53</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>"Je vous trouve heureux, Monsieur, d'être le chaperon de deux jeunes demoiselles ..." à Prous, 1816-08-29, https://constance-de-salm.de/archiv/#/document/4327 #onthisday</t>
+          <t>»Je vous trouve heureux, Monsieur, d'être le chaperon de deux jeunes demoiselles ...« à Prous, 1816-08-29, https://constance-de-salm.de/archiv/#/document/4327 #onthisday</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5701,17 +5701,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-8-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>08:53:23</t>
+          <t>18:21:33</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>"Enfin je viens à vous, Monsieur et cher voisin ..." à Prous, 1819-08-30, https://constance-de-salm.de/archiv/#/document/4480 #onthisday</t>
+          <t>»Enfin je viens à vous, Monsieur et cher voisin ...« à Prous, 1819-08-30, https://constance-de-salm.de/archiv/#/document/4480 #onthisday</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5728,17 +5728,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-8-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>13:08:12</t>
+          <t>09:17:22</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>"Enfin je viens à vous, Monsieur et cher voisin ..." à Prous, 1819-08-30, https://constance-de-salm.de/archiv/#/document/2822 #onthisday</t>
+          <t>»Enfin je viens à vous, Monsieur et cher voisin ...« à Prous, 1819-08-30, https://constance-de-salm.de/archiv/#/document/2822 #onthisday</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5755,17 +5755,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-8-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>17:30:36</t>
+          <t>12:30:29</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, j'ai reçu hier le journal qui m'annonçait le dénouement de mon affaire: ..." à Barbier, 1817-08-31, https://constance-de-salm.de/archiv/#/document/4380 #onthisday</t>
+          <t>»Enfin, Monsieur, j'ai reçu hier le journal qui m'annonçait le dénouement de mon affaire: ...« à Barbier, 1817-08-31, https://constance-de-salm.de/archiv/#/document/4380 #onthisday</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5782,17 +5782,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-9-1</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>19:03:24</t>
+          <t>09:32:09</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>"Votre lettre a renouvellé [sic] en moi le sentiment de bien des douleurs ..." à Salis, 1822-09-01, https://constance-de-salm.de/archiv/#/document/34 #onthisday</t>
+          <t>»Votre lettre a renouvellé [sic] en moi le sentiment de bien des douleurs ...« à Salis, 1822-09-01, https://constance-de-salm.de/archiv/#/document/34 #onthisday</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5809,17 +5809,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-9-2</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>19:22:22</t>
+          <t>13:06:47</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>"C'est encore moi, Monsieur. Quoique j'eusse résolu de ne plus ..." à Barbier, 1817-09-02, https://constance-de-salm.de/archiv/#/document/4381 #onthisday</t>
+          <t>»C'est encore moi, Monsieur. Quoique j'eusse résolu de ne plus ...« à Barbier, 1817-09-02, https://constance-de-salm.de/archiv/#/document/4381 #onthisday</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-9-2</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>18:11:41</t>
+          <t>15:20:06</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>"Un mot, mon voisin ..." à Prous, 1820-09-02, https://constance-de-salm.de/archiv/#/document/2836 #onthisday</t>
+          <t>»Un mot, mon voisin ...« à Prous, 1820-09-02, https://constance-de-salm.de/archiv/#/document/2836 #onthisday</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5863,17 +5863,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-9-3</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>08:39:22</t>
+          <t>15:37:38</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>"J'espère que vous accompagnerez aujourd'hui ..." à Prous, 1817-09-03, https://constance-de-salm.de/archiv/#/document/2815 #onthisday</t>
+          <t>»J'espère que vous accompagnerez aujourd'hui ...« à Prous, 1817-09-03, https://constance-de-salm.de/archiv/#/document/2815 #onthisday</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5890,17 +5890,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-9-4</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>12:01:01</t>
+          <t>15:55:36</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis 15 jours, Monsieur, votre bonne lettre est la première que j’y aie reçue ..." à Jullien de Paris, 1841-09-04, https://constance-de-salm.de/archiv/#/document/11249 #onthisday</t>
+          <t>»Je suis ici depuis 15 jours, Monsieur, votre bonne lettre est la première que j’y aie reçue ...« à Jullien de Paris, 1841-09-04, https://constance-de-salm.de/archiv/#/document/11249 #onthisday</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5917,17 +5917,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-9-5</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>15:56:33</t>
+          <t>18:48:02</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>"C’est bien à mon tour, Monsieur, à vous remercier de votre aimable et longue lettre ..." à Raboteau, 1811-09-05, https://constance-de-salm.de/archiv/#/document/3900 #onthisday</t>
+          <t>»C’est bien à mon tour, Monsieur, à vous remercier de votre aimable et longue lettre ...« à Raboteau, 1811-09-05, https://constance-de-salm.de/archiv/#/document/3900 #onthisday</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5944,17 +5944,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-9-6</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>09:16:43</t>
+          <t>18:06:29</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>"Je ne veux pas tarder plus longtemps, ma chère élève, à vous envoyer la légère marque d’amitié ..." à Salis, 1799-09-06, https://constance-de-salm.de/archiv/#/document/8574 #onthisday</t>
+          <t>»Je ne veux pas tarder plus longtemps, ma chère élève, à vous envoyer la légère marque d’amitié ...« à Salis, 1799-09-06, https://constance-de-salm.de/archiv/#/document/8574 #onthisday</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5971,17 +5971,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-9-7</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>12:52:52</t>
+          <t>11:14:49</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>"Au moment où cette lettre allait partir, cher frère, je recois la tienne ..." à Théis, 1825-09-07, https://constance-de-salm.de/archiv/#/document/10628 #onthisday</t>
+          <t>»Au moment où cette lettre allait partir, cher frère, je recois la tienne ...« à Théis, 1825-09-07, https://constance-de-salm.de/archiv/#/document/10628 #onthisday</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5998,17 +5998,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-9-8</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16:16:47</t>
+          <t>15:39:02</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>"Air: On n'est pas perdu pour ça (bis) ..." à Raboteau, 1818-09-08, https://constance-de-salm.de/archiv/#/document/4449 #onthisday</t>
+          <t>»Air: On n'est pas perdu pour ça (bis) ...« à Raboteau, 1818-09-08, https://constance-de-salm.de/archiv/#/document/4449 #onthisday</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6025,17 +6025,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-9-9</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>14:03:38</t>
+          <t>17:33:48</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>"En recevant votre lettre, je me réjouissais, Monsieur, d’avoir de vos nouvelles, de celles de Paris, de nos sociétés littéraires; ..." à Boucharlat, 1836-09-09, https://constance-de-salm.de/archiv/#/document/9839 #onthisday</t>
+          <t>»En recevant votre lettre, je me réjouissais, Monsieur, d’avoir de vos nouvelles, de celles de Paris, de nos sociétés littéraires; ...« à Boucharlat, 1836-09-09, https://constance-de-salm.de/archiv/#/document/9839 #onthisday</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6052,17 +6052,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-9-10</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>15:02:42</t>
+          <t>13:47:52</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>"Ma réponse a croisé votre lettre, mon ancien ami, et je vous écris ce petit mot ..." à Mentelle, 1814-09-10, https://constance-de-salm.de/archiv/#/document/3292 #onthisday</t>
+          <t>»Ma réponse a croisé votre lettre, mon ancien ami, et je vous écris ce petit mot ...« à Mentelle, 1814-09-10, https://constance-de-salm.de/archiv/#/document/3292 #onthisday</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6079,17 +6079,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-9-10</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>15:00:50</t>
+          <t>09:38:53</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>"Ma réponse a croisé votre lettre, mon ancien ami, et je vous écris ce petit mot ..." à Mentelle, 1814-09-10, https://constance-de-salm.de/archiv/#/document/2327 #onthisday</t>
+          <t>»Ma réponse a croisé votre lettre, mon ancien ami, et je vous écris ce petit mot ...« à Mentelle, 1814-09-10, https://constance-de-salm.de/archiv/#/document/2327 #onthisday</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6106,17 +6106,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-9-12</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>15:20:20</t>
+          <t>15:02:37</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a quelque temps, Monsieur, une nouvelle significative que je joins à cette lettre ..." à Pailliet, 1828-09-12, https://constance-de-salm.de/archiv/#/document/11126 #onthisday</t>
+          <t>»J’ai reçu il y a quelque temps, Monsieur, une nouvelle significative que je joins à cette lettre ...« à Pailliet, 1828-09-12, https://constance-de-salm.de/archiv/#/document/11126 #onthisday</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6133,17 +6133,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-9-13</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>15:31:36</t>
+          <t>14:48:43</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>"J'ai fait partir ce matin une lettre pour vous, Monsieur ..." à Pailliet, 1825-09-13, https://constance-de-salm.de/archiv/#/document/11344 #onthisday</t>
+          <t>»J'ai fait partir ce matin une lettre pour vous, Monsieur ...« à Pailliet, 1825-09-13, https://constance-de-salm.de/archiv/#/document/11344 #onthisday</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6160,17 +6160,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-9-14</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>17:08:58</t>
+          <t>11:45:32</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>"Je vous écris, Monsieur, d’un petit château où je suis depuis quelques jours ..." à Gudin de La Brenellerie, 1808-09-14, https://constance-de-salm.de/archiv/#/document/8726 #onthisday</t>
+          <t>»Je vous écris, Monsieur, d’un petit château où je suis depuis quelques jours ...« à Gudin de La Brenellerie, 1808-09-14, https://constance-de-salm.de/archiv/#/document/8726 #onthisday</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6187,17 +6187,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-9-14</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>12:18:38</t>
+          <t>09:51:37</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>"Connaissez-vous ce triste état / Où l’on n’est tout à fait bien portant ni malade ..." à Gudin de La Brenellerie, 1810-09-14, https://constance-de-salm.de/archiv/#/document/5627 #onthisday</t>
+          <t>»Connaissez-vous ce triste état / Où l’on n’est tout à fait bien portant ni malade ...« à Gudin de La Brenellerie, 1810-09-14, https://constance-de-salm.de/archiv/#/document/5627 #onthisday</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6214,17 +6214,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-9-15</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>09:19:42</t>
+          <t>08:35:37</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>"Il fait une chaleur si épouvantable, ma chère Minette ..." à Francq, 1815-09-15, https://constance-de-salm.de/archiv/#/document/6240 #onthisday</t>
+          <t>»Il fait une chaleur si épouvantable, ma chère Minette ...« à Francq, 1815-09-15, https://constance-de-salm.de/archiv/#/document/6240 #onthisday</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6241,17 +6241,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-9-15</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>11:10:27</t>
+          <t>18:34:32</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>"Il fait si beau, Monsieur, que je pense que madame Kopp, votre Louise et le grand fils pouviés venir à pied ou en voiture pour la journée avec vous : ..." à Prous, 1816-09-15, https://constance-de-salm.de/archiv/#/document/2802 #onthisday</t>
+          <t>»Il fait si beau, Monsieur, que je pense que madame Kopp, votre Louise et le grand fils pouviés venir à pied ou en voiture pour la journée avec vous : ...« à Prous, 1816-09-15, https://constance-de-salm.de/archiv/#/document/2802 #onthisday</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6268,17 +6268,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-9-16</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>19:45:09</t>
+          <t>17:21:41</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant votre lettre, Monsieur, et je suis si confuse de ne pas avoir répondu à votre dernière ..." à Césarini, 1828-09-16, https://constance-de-salm.de/archiv/#/document/9221 #onthisday</t>
+          <t>»Je reçois à l’instant votre lettre, Monsieur, et je suis si confuse de ne pas avoir répondu à votre dernière ...« à Césarini, 1828-09-16, https://constance-de-salm.de/archiv/#/document/9221 #onthisday</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6295,17 +6295,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-9-17</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>12:10:12</t>
+          <t>08:20:21</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>"Un rhume considérable qui me tourmente aujourd’hui, Monsieur, ne me permettra pas de vous envoyer un paquet de lettres ..." à Drais, 1815-09-17, https://constance-de-salm.de/archiv/#/document/6251 #onthisday</t>
+          <t>»Un rhume considérable qui me tourmente aujourd’hui, Monsieur, ne me permettra pas de vous envoyer un paquet de lettres ...« à Drais, 1815-09-17, https://constance-de-salm.de/archiv/#/document/6251 #onthisday</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6322,17 +6322,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-9-17</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>12:20:06</t>
+          <t>18:44:20</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>"Que vous dire, mon véritable ami? ..." à Thurot, 1820-09-17, https://constance-de-salm.de/archiv/#/document/6762 #onthisday</t>
+          <t>»Que vous dire, mon véritable ami? ...« à Thurot, 1820-09-17, https://constance-de-salm.de/archiv/#/document/6762 #onthisday</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6349,17 +6349,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-9-18</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>12:35:30</t>
+          <t>15:43:10</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>"Seriez-vous assez bon, Monsieur, pour remettre à la chère Louise le morceau de gros de Naples ..." à Prous, 1816-09-18, https://constance-de-salm.de/archiv/#/document/2803 #onthisday</t>
+          <t>»Seriez-vous assez bon, Monsieur, pour remettre à la chère Louise le morceau de gros de Naples ...« à Prous, 1816-09-18, https://constance-de-salm.de/archiv/#/document/2803 #onthisday</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6376,17 +6376,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-9-18</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10:43:40</t>
+          <t>10:48:33</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier soir votre lettre de Compiègne, Monsieur et ami, et, le matin, je vous avais écrit ..." à Barbier, 1817-09-18, https://constance-de-salm.de/archiv/#/document/4387 #onthisday</t>
+          <t>»J'ai reçu hier soir votre lettre de Compiègne, Monsieur et ami, et, le matin, je vous avais écrit ...« à Barbier, 1817-09-18, https://constance-de-salm.de/archiv/#/document/4387 #onthisday</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6403,17 +6403,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-9-19</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>11:19:25</t>
+          <t>13:23:50</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>"J'envoie à M. Drais une foule de petits billets, Monsieur, et je veux qu'il y en ait un pour vous ..." à Villenave, 1834-09-19, https://constance-de-salm.de/archiv/#/document/5596 #onthisday</t>
+          <t>»J'envoie à M. Drais une foule de petits billets, Monsieur, et je veux qu'il y en ait un pour vous ...« à Villenave, 1834-09-19, https://constance-de-salm.de/archiv/#/document/5596 #onthisday</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-9-20</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>11:09:55</t>
+          <t>08:36:40</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>"Mille remerciements des bulletins ..." à Prous, 1818-09-20, https://constance-de-salm.de/archiv/#/document/2820 #onthisday</t>
+          <t>»Mille remerciements des bulletins ...« à Prous, 1818-09-20, https://constance-de-salm.de/archiv/#/document/2820 #onthisday</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6457,17 +6457,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-9-21</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>08:18:16</t>
+          <t>14:26:05</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, Madame, et je ne puis m’accoutumer à n’avoir pendant six mois aucunes nouvelles ..." à Waldor, 1828-09-21, https://constance-de-salm.de/archiv/#/document/9228 #onthisday</t>
+          <t>»Je n’entends point parler de vous, Madame, et je ne puis m’accoutumer à n’avoir pendant six mois aucunes nouvelles ...« à Waldor, 1828-09-21, https://constance-de-salm.de/archiv/#/document/9228 #onthisday</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-9-22</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>15:18:49</t>
+          <t>13:52:36</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre, Monsieur le baron, et je me hâte d'y répondre ..." à Ladoucette, 1832-09-22, https://constance-de-salm.de/archiv/#/document/5426 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre, Monsieur le baron, et je me hâte d'y répondre ...« à Ladoucette, 1832-09-22, https://constance-de-salm.de/archiv/#/document/5426 #onthisday</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6511,17 +6511,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-9-22</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>13:01:44</t>
+          <t>19:05:02</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que vous n'avez entendu parler de moi, et même que je vous dois une réponse ..." à Depping, 1832-09-22, https://constance-de-salm.de/archiv/#/document/5427 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que vous n'avez entendu parler de moi, et même que je vous dois une réponse ...« à Depping, 1832-09-22, https://constance-de-salm.de/archiv/#/document/5427 #onthisday</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6538,17 +6538,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-9-23</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16:26:26</t>
+          <t>13:24:15</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>"Je veux vous dire, Monsieur, que Blaikie est ici ..." à Prous, 1819-09-23, https://constance-de-salm.de/archiv/#/document/2823 #onthisday</t>
+          <t>»Je veux vous dire, Monsieur, que Blaikie est ici ...« à Prous, 1819-09-23, https://constance-de-salm.de/archiv/#/document/2823 #onthisday</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6565,17 +6565,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-9-23</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>09:46:57</t>
+          <t>15:39:31</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>"Je veux vous dire, Monsieur, que Blaki [sic] est ici; si par hasard ..." à Prous, 1819-09-23, https://constance-de-salm.de/archiv/#/document/4482 #onthisday</t>
+          <t>»Je veux vous dire, Monsieur, que Blaki [sic] est ici; si par hasard ...« à Prous, 1819-09-23, https://constance-de-salm.de/archiv/#/document/4482 #onthisday</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6592,17 +6592,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-9-24</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:32:46</t>
+          <t>19:08:25</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, ma chère amie, et je ne puis m'habituer à ce long silence ..." à Vanhove, 1833-09-24, https://constance-de-salm.de/archiv/#/document/5262 #onthisday</t>
+          <t>»Je n'entends point parler de vous, ma chère amie, et je ne puis m'habituer à ce long silence ...« à Vanhove, 1833-09-24, https://constance-de-salm.de/archiv/#/document/5262 #onthisday</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-9-25</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>09:39:27</t>
+          <t>13:15:12</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit, Monsieur, peu de jours après mon arrivée ici, il y a près d'un mois ..." à Pougens, 1833-09-25, https://constance-de-salm.de/archiv/#/document/5256 #onthisday</t>
+          <t>»Je vous ai écrit, Monsieur, peu de jours après mon arrivée ici, il y a près d'un mois ...« à Pougens, 1833-09-25, https://constance-de-salm.de/archiv/#/document/5256 #onthisday</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6646,17 +6646,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-9-26</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>15:18:07</t>
+          <t>11:49:51</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit un mot d’Aix-la-Chapelle, Monsieur, pour vous dire que j’avais reçu votre seconde lettre ..." à Villenave, 1827-09-26, https://constance-de-salm.de/archiv/#/document/9090 #onthisday</t>
+          <t>»Je vous ai écrit un mot d’Aix-la-Chapelle, Monsieur, pour vous dire que j’avais reçu votre seconde lettre ...« à Villenave, 1827-09-26, https://constance-de-salm.de/archiv/#/document/9090 #onthisday</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6673,17 +6673,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-9-27</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>18:18:02</t>
+          <t>19:47:12</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>"Je reçois votre dernière lettre, Monsieur, et je me hâte d’y répondre ..." à Châtelain, 1836-09-27, https://constance-de-salm.de/archiv/#/document/9848 #onthisday</t>
+          <t>»Je reçois votre dernière lettre, Monsieur, et je me hâte d’y répondre ...« à Châtelain, 1836-09-27, https://constance-de-salm.de/archiv/#/document/9848 #onthisday</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6700,17 +6700,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-9-28</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>14:18:31</t>
+          <t>11:26:24</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>"J'ai prié Monsieur Drais d'aller chez vous, Monsieur; de vous dire que j'avais reçu ..." à Jullien de Paris, 1839-09-28, https://constance-de-salm.de/archiv/#/document/8143 #onthisday</t>
+          <t>»J'ai prié Monsieur Drais d'aller chez vous, Monsieur; de vous dire que j'avais reçu ...« à Jullien de Paris, 1839-09-28, https://constance-de-salm.de/archiv/#/document/8143 #onthisday</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6727,17 +6727,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-9-29</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>10:15:04</t>
+          <t>08:50:18</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre de la campagne ..." à Pailliet, 1825-09-29, https://constance-de-salm.de/archiv/#/document/11345 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre de la campagne ...« à Pailliet, 1825-09-29, https://constance-de-salm.de/archiv/#/document/11345 #onthisday</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6754,17 +6754,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-9-30</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>14:33:18</t>
+          <t>17:10:15</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>"Je suis confuse de mon long silence, Monsieur et véritable ami ..." à Raboteau, 1817-09-30, https://constance-de-salm.de/archiv/#/document/3938 #onthisday</t>
+          <t>»Je suis confuse de mon long silence, Monsieur et véritable ami ...« à Raboteau, 1817-09-30, https://constance-de-salm.de/archiv/#/document/3938 #onthisday</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6781,17 +6781,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-9-30</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>10:43:00</t>
+          <t>08:21:55</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, l'épreuve que vous avez eu la complaisance de m'envoyer ..." à Barbier, 1817-09-30, https://constance-de-salm.de/archiv/#/document/4393 #onthisday</t>
+          <t>»Voici, Monsieur, l'épreuve que vous avez eu la complaisance de m'envoyer ...« à Barbier, 1817-09-30, https://constance-de-salm.de/archiv/#/document/4393 #onthisday</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6808,17 +6808,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-10-1</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>19:09:33</t>
+          <t>13:33:28</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>"Je m’empresse de répondre à la lettre que j’ai reçu de vous hier, ma chère sœur, car je sens la nécessité de ne pas vous tenir dans l’incertitude ..." à Gumppenberg, 1826-10-01, https://constance-de-salm.de/archiv/#/document/9045 #onthisday</t>
+          <t>»Je m’empresse de répondre à la lettre que j’ai reçu de vous hier, ma chère sœur, car je sens la nécessité de ne pas vous tenir dans l’incertitude ...« à Gumppenberg, 1826-10-01, https://constance-de-salm.de/archiv/#/document/9045 #onthisday</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6835,17 +6835,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-10-2</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>15:51:06</t>
+          <t>13:13:32</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a déjà quelque temps, Monsieur le baron ..." à Ladoucette, 1833-10-02, https://constance-de-salm.de/archiv/#/document/5258 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a déjà quelque temps, Monsieur le baron ...« à Ladoucette, 1833-10-02, https://constance-de-salm.de/archiv/#/document/5258 #onthisday</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6862,17 +6862,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-10-3</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>13:32:37</t>
+          <t>14:35:50</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>"Je suis revenue au bercail, Monsieur, à travers des océans de boue ..." à Prous, 1816-10-03, https://constance-de-salm.de/archiv/#/document/4331 #onthisday</t>
+          <t>»Je suis revenue au bercail, Monsieur, à travers des océans de boue ...« à Prous, 1816-10-03, https://constance-de-salm.de/archiv/#/document/4331 #onthisday</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6889,17 +6889,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-10-4</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>08:18:00</t>
+          <t>17:26:22</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>"Savez-vous pourquoi je vous écris peu depuis longtemps, mon ancien ami ..." à Raboteau, 1819-10-04, https://constance-de-salm.de/archiv/#/document/4483 #onthisday</t>
+          <t>»Savez-vous pourquoi je vous écris peu depuis longtemps, mon ancien ami ...« à Raboteau, 1819-10-04, https://constance-de-salm.de/archiv/#/document/4483 #onthisday</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6916,17 +6916,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-10-5</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>11:05:07</t>
+          <t>17:39:01</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir votre lettre, Monsieur, je l’ai lue avec la plus grande attention et je me hâte de vous répondre ..." à Mirault, 1826-10-05, https://constance-de-salm.de/archiv/#/document/9047 #onthisday</t>
+          <t>»Je viens de recevoir votre lettre, Monsieur, je l’ai lue avec la plus grande attention et je me hâte de vous répondre ...« à Mirault, 1826-10-05, https://constance-de-salm.de/archiv/#/document/9047 #onthisday</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6943,17 +6943,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-10-6</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>17:53:19</t>
+          <t>16:15:19</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>"Vous vous rappelez sans doute, Monsieur, que je me proposais de charger Monsieur Masselin, gérant de la tutelle de mes enfants ..." à Pailliet, 1828-10-06, https://constance-de-salm.de/archiv/#/document/10326 #onthisday</t>
+          <t>»Vous vous rappelez sans doute, Monsieur, que je me proposais de charger Monsieur Masselin, gérant de la tutelle de mes enfants ...« à Pailliet, 1828-10-06, https://constance-de-salm.de/archiv/#/document/10326 #onthisday</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6970,17 +6970,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-10-7</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>14:20:53</t>
+          <t>12:12:50</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>" libre ce moi-ci, je vous engage donc à venir passer avec nous les quinze jours ..." à Schepeler, 1841-10-07, https://constance-de-salm.de/archiv/#/document/7543 #onthisday</t>
+          <t>» libre ce moi-ci, je vous engage donc à venir passer avec nous les quinze jours ...« à Schepeler, 1841-10-07, https://constance-de-salm.de/archiv/#/document/7543 #onthisday</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6997,17 +6997,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-10-8</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>10:31:49</t>
+          <t>16:58:15</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>"Madame la baronne, j’ai l’honneur de vous dire, par ordre de Son Excellence, Madame la comtesse, qu’Elle va beaucoup mieux ..." à Francq, 1815-10-08, https://constance-de-salm.de/archiv/#/document/6235 #onthisday</t>
+          <t>»Madame la baronne, j’ai l’honneur de vous dire, par ordre de Son Excellence, Madame la comtesse, qu’Elle va beaucoup mieux ...« à Francq, 1815-10-08, https://constance-de-salm.de/archiv/#/document/6235 #onthisday</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7024,17 +7024,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-10-8</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>17:50:25</t>
+          <t>15:23:44</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>"Mon frère et sa famille sont partis, Monsieur et véritable ami, et je crois sentir de nouveau tous les coups qui m'ont frappée ..." à Barbier, 1820-10-08, https://constance-de-salm.de/archiv/#/document/6932 #onthisday</t>
+          <t>»Mon frère et sa famille sont partis, Monsieur et véritable ami, et je crois sentir de nouveau tous les coups qui m'ont frappée ...« à Barbier, 1820-10-08, https://constance-de-salm.de/archiv/#/document/6932 #onthisday</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7051,17 +7051,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-10-9</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>17:19:35</t>
+          <t>09:17:54</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>"Je ne veux pourtant pas, Monsieur et ami ..." à Barbier, 1821-10-09, https://constance-de-salm.de/archiv/#/document/8300 #onthisday</t>
+          <t>»Je ne veux pourtant pas, Monsieur et ami ...« à Barbier, 1821-10-09, https://constance-de-salm.de/archiv/#/document/8300 #onthisday</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>12:45:50</t>
+          <t>15:55:26</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>"Je viens d’écrire à Monsieur Boucharlat, Monsieur, pour le remercier du service qu’il m’a rendu en empêchant Monsieur P. de faire ..." à Mirault, 1828-10-10, https://constance-de-salm.de/archiv/#/document/9252 #onthisday</t>
+          <t>»Je viens d’écrire à Monsieur Boucharlat, Monsieur, pour le remercier du service qu’il m’a rendu en empêchant Monsieur P. de faire ...« à Mirault, 1828-10-10, https://constance-de-salm.de/archiv/#/document/9252 #onthisday</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>11:44:29</t>
+          <t>12:39:55</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit, il y a quelques jours, une lettre sans doute fort triste, Monsieur et ami ..." à Barbier, 1820-10-12, https://constance-de-salm.de/archiv/#/document/8265 #onthisday</t>
+          <t>»Je vous ai écrit, il y a quelques jours, une lettre sans doute fort triste, Monsieur et ami ...« à Barbier, 1820-10-12, https://constance-de-salm.de/archiv/#/document/8265 #onthisday</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7137,12 +7137,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>12:44:13</t>
+          <t>11:04:45</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>"Voici ma notice ou la vôtre, Monsieur le baron, j’en suis charmée ..." à Ladoucette, 1824-10-12, https://constance-de-salm.de/archiv/#/document/8923 #onthisday</t>
+          <t>»Voici ma notice ou la vôtre, Monsieur le baron, j’en suis charmée ...« à Ladoucette, 1824-10-12, https://constance-de-salm.de/archiv/#/document/8923 #onthisday</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>16:50:00</t>
+          <t>12:58:26</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>"Voici, cher frère, la copie d’un passage d’une lettre de Monsieur Paillet par laquelle tu verras ..." à Théis, 1828-10-13, https://constance-de-salm.de/archiv/#/document/10733 #onthisday</t>
+          <t>»Voici, cher frère, la copie d’un passage d’une lettre de Monsieur Paillet par laquelle tu verras ...« à Théis, 1828-10-13, https://constance-de-salm.de/archiv/#/document/10733 #onthisday</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>17:45:25</t>
+          <t>15:26:27</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>"Je me proposais, ma bien chère voisine, d'aller enfin vous voir aujourd'hui ..." à Locquenghien, 1832-10-13, https://constance-de-salm.de/archiv/#/document/5434 #onthisday</t>
+          <t>»Je me proposais, ma bien chère voisine, d'aller enfin vous voir aujourd'hui ...« à Locquenghien, 1832-10-13, https://constance-de-salm.de/archiv/#/document/5434 #onthisday</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7218,12 +7218,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>09:13:47</t>
+          <t>19:23:42</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>"Je ne veux pas, Monsieur, vous avoir écrit si souvent quand j'avais besoin de vous ..." à Barbier, 1817-10-14, https://constance-de-salm.de/archiv/#/document/4394 #onthisday</t>
+          <t>»Je ne veux pas, Monsieur, vous avoir écrit si souvent quand j'avais besoin de vous ...« à Barbier, 1817-10-14, https://constance-de-salm.de/archiv/#/document/4394 #onthisday</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>14:01:13</t>
+          <t>13:32:55</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>"J’ai vu hier Jullien à qui j’ai parlé, Monsieur le Baron, pour mettre un article dans sa Revue ..." à Ladoucette, 1824-10-15, https://constance-de-salm.de/archiv/#/document/8924 #onthisday</t>
+          <t>»J’ai vu hier Jullien à qui j’ai parlé, Monsieur le Baron, pour mettre un article dans sa Revue ...« à Ladoucette, 1824-10-15, https://constance-de-salm.de/archiv/#/document/8924 #onthisday</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7272,12 +7272,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>11:23:50</t>
+          <t>09:41:12</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>"Je n’ai pu vous écrire plus tôt, Monsieur et ami, ayant eu une grande quantité d’hôtes ..." à Raboteau, 1813-10-16, https://constance-de-salm.de/archiv/#/document/3914 #onthisday</t>
+          <t>»Je n’ai pu vous écrire plus tôt, Monsieur et ami, ayant eu une grande quantité d’hôtes ...« à Raboteau, 1813-10-16, https://constance-de-salm.de/archiv/#/document/3914 #onthisday</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7299,12 +7299,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>14:22:32</t>
+          <t>19:19:25</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>"Je vous ai promis une nouvelle petite lettre, Monsieur et ami ..." à Raboteau, 1817-10-16, https://constance-de-salm.de/archiv/#/document/3939 #onthisday</t>
+          <t>»Je vous ai promis une nouvelle petite lettre, Monsieur et ami ...« à Raboteau, 1817-10-16, https://constance-de-salm.de/archiv/#/document/3939 #onthisday</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7326,12 +7326,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>19:13:17</t>
+          <t>15:21:17</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>"On m’a signifié ces jours-ci, Monsieur, à la requête de Monsieur de Vrignel le jugement qui a été rendu à Orléans ..." à Pailliet, 1827-10-17, https://constance-de-salm.de/archiv/#/document/9091 #onthisday</t>
+          <t>»On m’a signifié ces jours-ci, Monsieur, à la requête de Monsieur de Vrignel le jugement qui a été rendu à Orléans ...« à Pailliet, 1827-10-17, https://constance-de-salm.de/archiv/#/document/9091 #onthisday</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7353,12 +7353,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>11:47:21</t>
+          <t>16:11:46</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>"Sire, je viens de lire dans les journaux l’ordre de cabinet par lequel Votre Majesté, témoignant son juste mécontentement de ce que des jeunes gens des provinces rhénanes ..." à Friedrich Wilhelm III., 1827-10-17, https://constance-de-salm.de/archiv/#/document/9094 #onthisday</t>
+          <t>»Sire, je viens de lire dans les journaux l’ordre de cabinet par lequel Votre Majesté, témoignant son juste mécontentement de ce que des jeunes gens des provinces rhénanes ...« à Friedrich Wilhelm III., 1827-10-17, https://constance-de-salm.de/archiv/#/document/9094 #onthisday</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7380,12 +7380,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:28:37</t>
+          <t>18:30:43</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>"Je vais retourner à Paris dans 15 jours, Monsieur ..." à Raboteau, 1805-10-18, https://constance-de-salm.de/archiv/#/document/3879 #onthisday</t>
+          <t>»Je vais retourner à Paris dans 15 jours, Monsieur ...« à Raboteau, 1805-10-18, https://constance-de-salm.de/archiv/#/document/3879 #onthisday</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7407,12 +7407,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>08:52:17</t>
+          <t>11:38:51</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>"Votre lettre m'a attristée, ma chère amie, vous avez craint d'avouer une maladie ..." à Vanhove, 1833-10-19, https://constance-de-salm.de/archiv/#/document/5275 #onthisday</t>
+          <t>»Votre lettre m'a attristée, ma chère amie, vous avez craint d'avouer une maladie ...« à Vanhove, 1833-10-19, https://constance-de-salm.de/archiv/#/document/5275 #onthisday</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7434,12 +7434,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>09:14:03</t>
+          <t>10:08:09</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant, Monsieur, une lettre de Monsieur Heinsberg qui m’apprend la perte que nous venons de faire de Madame de Lomessen ..." à Ritz, 1828-10-20, https://constance-de-salm.de/archiv/#/document/9255 #onthisday</t>
+          <t>»Je reçois à l’instant, Monsieur, une lettre de Monsieur Heinsberg qui m’apprend la perte que nous venons de faire de Madame de Lomessen ...« à Ritz, 1828-10-20, https://constance-de-salm.de/archiv/#/document/9255 #onthisday</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7461,12 +7461,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>19:39:09</t>
+          <t>08:18:19</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>"Depuis que j'ai reçu votre toute aimable lettre, Monsieur, je me suis proposé [sic] chaque jour de vous écrire ..." à Sanson de Pongerville, 1833-10-20, https://constance-de-salm.de/archiv/#/document/5276 #onthisday</t>
+          <t>»Depuis que j'ai reçu votre toute aimable lettre, Monsieur, je me suis proposé [sic] chaque jour de vous écrire ...« à Sanson de Pongerville, 1833-10-20, https://constance-de-salm.de/archiv/#/document/5276 #onthisday</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7488,12 +7488,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>19:52:04</t>
+          <t>12:42:46</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelques jours, ma chère amie, votre dernière lettre, j'ai d'abord été effrayée de l'état de Madame votre mère ..." à Salis, 1800-10-21, https://constance-de-salm.de/archiv/#/document/8599 #onthisday</t>
+          <t>»J'ai reçu il y a quelques jours, ma chère amie, votre dernière lettre, j'ai d'abord été effrayée de l'état de Madame votre mère ...« à Salis, 1800-10-21, https://constance-de-salm.de/archiv/#/document/8599 #onthisday</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7515,12 +7515,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>14:03:37</t>
+          <t>15:35:23</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>"J’ai reçu ici votre lettre, Monsieur et ancien ami, et je veux vous annoncer moi-même ma prochaine arrivée ..." à Duval, 1829-10-22, https://constance-de-salm.de/archiv/#/document/9464 #onthisday</t>
+          <t>»J’ai reçu ici votre lettre, Monsieur et ancien ami, et je veux vous annoncer moi-même ma prochaine arrivée ...« à Duval, 1829-10-22, https://constance-de-salm.de/archiv/#/document/9464 #onthisday</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7542,12 +7542,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>10:00:53</t>
+          <t>14:19:45</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>"Je serais à Aix depuis 8 jours, Monsieur, si un gros rhume, qui me fait extrêmement souffrir ..." à Richard, 1830-10-22, https://constance-de-salm.de/archiv/#/document/5193 #onthisday</t>
+          <t>»Je serais à Aix depuis 8 jours, Monsieur, si un gros rhume, qui me fait extrêmement souffrir ...« à Richard, 1830-10-22, https://constance-de-salm.de/archiv/#/document/5193 #onthisday</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>17:19:37</t>
+          <t>09:20:13</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>"Air „J‘ai perdu mon âne“ ..." à Raboteau, 1806-10-23, https://constance-de-salm.de/archiv/#/document/8685 #onthisday</t>
+          <t>»Air „J‘ai perdu mon âne“ ...« à Raboteau, 1806-10-23, https://constance-de-salm.de/archiv/#/document/8685 #onthisday</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>15:30:28</t>
+          <t>17:16:10</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>"Depuis que j’ai reçu votre dernière lettre, Monsieur, le désir d’y réponde avec quelque étendue ..." à Raboteau, 1814-10-23, https://constance-de-salm.de/archiv/#/document/2328 #onthisday</t>
+          <t>»Depuis que j’ai reçu votre dernière lettre, Monsieur, le désir d’y réponde avec quelque étendue ...« à Raboteau, 1814-10-23, https://constance-de-salm.de/archiv/#/document/2328 #onthisday</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>12:03:37</t>
+          <t>16:50:05</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>"Un événement inattendu et que je vous conterai au coin du feu sous le secret, Monsieur et ami, vient de rompre, pour notre bonheur, l’espèce d’engagement que nous avions pris ici ..." à Raboteau, 1812-10-24, https://constance-de-salm.de/archiv/#/document/3908 #onthisday</t>
+          <t>»Un événement inattendu et que je vous conterai au coin du feu sous le secret, Monsieur et ami, vient de rompre, pour notre bonheur, l’espèce d’engagement que nous avions pris ici ...« à Raboteau, 1812-10-24, https://constance-de-salm.de/archiv/#/document/3908 #onthisday</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7650,12 +7650,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>14:03:48</t>
+          <t>11:32:55</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>"Voici votre article dans le Courrier des Théâtres, Monsieur le Baron ..." à Ladoucette, 1824-10-25, https://constance-de-salm.de/archiv/#/document/8925 #onthisday</t>
+          <t>»Voici votre article dans le Courrier des Théâtres, Monsieur le Baron ...« à Ladoucette, 1824-10-25, https://constance-de-salm.de/archiv/#/document/8925 #onthisday</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7677,12 +7677,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>15:23:42</t>
+          <t>15:00:54</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>"Je n'entends plus parler de vous, Monsieur, et j'en suis surprise; ..." à Jullien de Paris, 1830-10-25, https://constance-de-salm.de/archiv/#/document/5195 #onthisday</t>
+          <t>»Je n'entends plus parler de vous, Monsieur, et j'en suis surprise; ...« à Jullien de Paris, 1830-10-25, https://constance-de-salm.de/archiv/#/document/5195 #onthisday</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7704,12 +7704,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>15:13:01</t>
+          <t>15:56:49</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>"Vous avez bien raison de vous plaindre de mon silence, Monsieur et ami ..." à Barbier, 1823-10-26, https://constance-de-salm.de/archiv/#/document/79 #onthisday</t>
+          <t>»Vous avez bien raison de vous plaindre de mon silence, Monsieur et ami ...« à Barbier, 1823-10-26, https://constance-de-salm.de/archiv/#/document/79 #onthisday</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>17:17:23</t>
+          <t>11:16:20</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>"Je reçois ici, Monsieur, votre numéro 7, et je m’empresse de vous l’écrire, et de vous rassurer sur votre numéro 6 ..." à Jullien de Paris, 1829-10-26, https://constance-de-salm.de/archiv/#/document/9465 #onthisday</t>
+          <t>»Je reçois ici, Monsieur, votre numéro 7, et je m’empresse de vous l’écrire, et de vous rassurer sur votre numéro 6 ...« à Jullien de Paris, 1829-10-26, https://constance-de-salm.de/archiv/#/document/9465 #onthisday</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7758,12 +7758,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>09:58:17</t>
+          <t>16:52:57</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>"Dans une âme agitée chaque jour, chaque instant amène une nouvelle résolution, une nouvelle crainte ..." à Barbier, 1820-10-27, https://constance-de-salm.de/archiv/#/document/4647 #onthisday</t>
+          <t>»Dans une âme agitée chaque jour, chaque instant amène une nouvelle résolution, une nouvelle crainte ...« à Barbier, 1820-10-27, https://constance-de-salm.de/archiv/#/document/4647 #onthisday</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7785,12 +7785,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>09:16:38</t>
+          <t>11:17:53</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>"Permettez, mon ancien ami, que je n'écrive pas cette lettre toute entière de ma main ..." à Ponce, 1822-10-28, https://constance-de-salm.de/archiv/#/document/4799 #onthisday</t>
+          <t>»Permettez, mon ancien ami, que je n'écrive pas cette lettre toute entière de ma main ...« à Ponce, 1822-10-28, https://constance-de-salm.de/archiv/#/document/4799 #onthisday</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7812,12 +7812,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16:03:40</t>
+          <t>18:30:23</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>"Vous voulez donc savoir ce que je fais, dans quel pays je m'amuse ou m'ennuie ..." à Lantier, 1819-10-29, https://constance-de-salm.de/archiv/#/document/4485 #onthisday</t>
+          <t>»Vous voulez donc savoir ce que je fais, dans quel pays je m'amuse ou m'ennuie ...« à Lantier, 1819-10-29, https://constance-de-salm.de/archiv/#/document/4485 #onthisday</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>19:05:05</t>
+          <t>18:45:26</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>"Je suis à Aix depuis deux jours, cher frère, et on m’y envoye de Dyck la lettre ..." à Théis, 1828-10-29, https://constance-de-salm.de/archiv/#/document/10741 #onthisday</t>
+          <t>»Je suis à Aix depuis deux jours, cher frère, et on m’y envoye de Dyck la lettre ...« à Théis, 1828-10-29, https://constance-de-salm.de/archiv/#/document/10741 #onthisday</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7866,12 +7866,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>08:45:09</t>
+          <t>10:31:45</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>"C’est à vous que j‘écris aujourd’hui, mon cher gendre ..." à Francq, 1815-10-30, https://constance-de-salm.de/archiv/#/document/6244 #onthisday</t>
+          <t>»C’est à vous que j‘écris aujourd’hui, mon cher gendre ...« à Francq, 1815-10-30, https://constance-de-salm.de/archiv/#/document/6244 #onthisday</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7893,12 +7893,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>13:10:17</t>
+          <t>08:05:44</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>"Je ne veux pas, Monsieur, que vous alliez penser que j'oublie dans le plaisir ..." à Prous, 1816-10-30, https://constance-de-salm.de/archiv/#/document/4334 #onthisday</t>
+          <t>»Je ne veux pas, Monsieur, que vous alliez penser que j'oublie dans le plaisir ...« à Prous, 1816-10-30, https://constance-de-salm.de/archiv/#/document/4334 #onthisday</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7920,12 +7920,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>13:10:04</t>
+          <t>09:47:05</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre réponse, Monsieur et ami, et je m’empresse de vous récrire ..." à Barbier, 1820-10-31, https://constance-de-salm.de/archiv/#/document/6935 #onthisday</t>
+          <t>»J’ai reçu hier votre réponse, Monsieur et ami, et je m’empresse de vous récrire ...« à Barbier, 1820-10-31, https://constance-de-salm.de/archiv/#/document/6935 #onthisday</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7942,17 +7942,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025-11-1</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>14:33:51</t>
+          <t>19:16:34</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, votre bonne et longue lettre; elle m'a fait, sous tous les rapports, le plus grand plaisir ..." à Audiffret, 1834-11-01, https://constance-de-salm.de/archiv/#/document/5604 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, votre bonne et longue lettre; elle m'a fait, sous tous les rapports, le plus grand plaisir ...« à Audiffret, 1834-11-01, https://constance-de-salm.de/archiv/#/document/5604 #onthisday</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7969,17 +7969,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025-11-2</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>17:42:02</t>
+          <t>16:01:34</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que j’ai reçu votre lettre qui s’est croisée avec celle ..." à Depping, 1831-11-02, https://constance-de-salm.de/archiv/#/document/9511 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que j’ai reçu votre lettre qui s’est croisée avec celle ...« à Depping, 1831-11-02, https://constance-de-salm.de/archiv/#/document/9511 #onthisday</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7996,17 +7996,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025-11-3</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>17:34:13</t>
+          <t>16:51:26</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, au moment où je me dispose à partir pour Paris ..." à Méchin, 1832-11-03, https://constance-de-salm.de/archiv/#/document/9516 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, au moment où je me dispose à partir pour Paris ...« à Méchin, 1832-11-03, https://constance-de-salm.de/archiv/#/document/9516 #onthisday</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8023,17 +8023,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2025-11-4</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>10:43:31</t>
+          <t>15:13:41</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>"Mille remerciments de votre écritoire, mon cher voisin ..." à Prous, 1821-11-04, https://constance-de-salm.de/archiv/#/document/8301 #onthisday</t>
+          <t>»Mille remerciments de votre écritoire, mon cher voisin ...« à Prous, 1821-11-04, https://constance-de-salm.de/archiv/#/document/8301 #onthisday</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8050,17 +8050,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2025-11-5</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>15:58:53</t>
+          <t>17:48:07</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>"Monsieur Drais a dû aller chez vous, Monsieur, pour vous dire que j'avais reçu votre lettre ..." à Mirault, 1833-11-05, https://constance-de-salm.de/archiv/#/document/5287 #onthisday</t>
+          <t>»Monsieur Drais a dû aller chez vous, Monsieur, pour vous dire que j'avais reçu votre lettre ...« à Mirault, 1833-11-05, https://constance-de-salm.de/archiv/#/document/5287 #onthisday</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8077,17 +8077,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2025-11-6</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>19:10:44</t>
+          <t>16:20:25</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelques jours, Monsieur le comte, que j'ai reçu votre lettre ..." à Vaulgrenand, 1832-11-06, https://constance-de-salm.de/archiv/#/document/5438 #onthisday</t>
+          <t>»Il y a déjà quelques jours, Monsieur le comte, que j'ai reçu votre lettre ...« à Vaulgrenand, 1832-11-06, https://constance-de-salm.de/archiv/#/document/5438 #onthisday</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8104,17 +8104,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2025-11-7</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>09:23:46</t>
+          <t>15:47:44</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>"Il y bien longtemps, Monsieur, que je n'ai reçu de vos nouvelles, et que je désire en avoir ..." à Pailliet, 1837-11-07, https://constance-de-salm.de/archiv/#/document/7857 #onthisday</t>
+          <t>»Il y bien longtemps, Monsieur, que je n'ai reçu de vos nouvelles, et que je désire en avoir ...« à Pailliet, 1837-11-07, https://constance-de-salm.de/archiv/#/document/7857 #onthisday</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8131,17 +8131,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2025-11-8</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>18:52:33</t>
+          <t>16:01:11</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>"J’ai 48 ans depuis hier, ma chère Minette ..." à Francq, 1815-11-08, https://constance-de-salm.de/archiv/#/document/6247 #onthisday</t>
+          <t>»J’ai 48 ans depuis hier, ma chère Minette ...« à Francq, 1815-11-08, https://constance-de-salm.de/archiv/#/document/6247 #onthisday</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8158,17 +8158,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2025-11-8</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>11:26:42</t>
+          <t>11:39:49</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>"Je veux pourtant vous écrire, mon ancien ami, malgré l'oubli où vous paraissez me mettre dans votre souvenir ..." à Thurot, 1819-11-08, https://constance-de-salm.de/archiv/#/document/4487 #onthisday</t>
+          <t>»Je veux pourtant vous écrire, mon ancien ami, malgré l'oubli où vous paraissez me mettre dans votre souvenir ...« à Thurot, 1819-11-08, https://constance-de-salm.de/archiv/#/document/4487 #onthisday</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8185,17 +8185,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2025-11-9</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>11:41:12</t>
+          <t>13:02:33</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que nous n’avons entendu parler l’un de l’autre ..." à Pailliet, 1842-11-09, https://constance-de-salm.de/archiv/#/document/11262 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que nous n’avons entendu parler l’un de l’autre ...« à Pailliet, 1842-11-09, https://constance-de-salm.de/archiv/#/document/11262 #onthisday</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8217,12 +8217,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>12:40:54</t>
+          <t>16:34:40</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>"Je voulais t’écrire hier, ma chère Minette ; mais la poste part de si bonne heure actuellement ..." à Francq, 1815-11-10, https://constance-de-salm.de/archiv/#/document/6246 #onthisday</t>
+          <t>»Je voulais t’écrire hier, ma chère Minette ; mais la poste part de si bonne heure actuellement ...« à Francq, 1815-11-10, https://constance-de-salm.de/archiv/#/document/6246 #onthisday</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8244,12 +8244,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>12:15:56</t>
+          <t>13:02:53</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>"Seriez-vous assez complaisant, Monsieur, pour vous donner la peine de passer chez moi un matin ..." à Constant, 1824-11-10, https://constance-de-salm.de/archiv/#/document/8921 #onthisday</t>
+          <t>»Seriez-vous assez complaisant, Monsieur, pour vous donner la peine de passer chez moi un matin ...« à Constant, 1824-11-10, https://constance-de-salm.de/archiv/#/document/8921 #onthisday</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8271,12 +8271,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>17:45:11</t>
+          <t>19:13:56</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>"Je joins ce billet, Monsieur, à une lettre que j'écris à Monsieur de Ladoucette pour vous annoncer ..." à Pougens, 1833-11-11, https://constance-de-salm.de/archiv/#/document/5294 #onthisday</t>
+          <t>»Je joins ce billet, Monsieur, à une lettre que j'écris à Monsieur de Ladoucette pour vous annoncer ...« à Pougens, 1833-11-11, https://constance-de-salm.de/archiv/#/document/5294 #onthisday</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8298,12 +8298,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16:54:20</t>
+          <t>12:30:43</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>"Votre aimable et fine critique / Qui dit tout agréablement / A la phrase philosophique ..." à Gudin de La Brenellerie, 1810-11-12, https://constance-de-salm.de/archiv/#/document/2175 #onthisday</t>
+          <t>»Votre aimable et fine critique / Qui dit tout agréablement / A la phrase philosophique ...« à Gudin de La Brenellerie, 1810-11-12, https://constance-de-salm.de/archiv/#/document/2175 #onthisday</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8325,12 +8325,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>15:08:08</t>
+          <t>17:41:25</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>"Votre aimable et fine critique / Qui dit tout agréablement / A la phrase philosophique ..." à Gudin de La Brenellerie, 1810-11-12, https://constance-de-salm.de/archiv/#/document/10449 #onthisday</t>
+          <t>»Votre aimable et fine critique / Qui dit tout agréablement / A la phrase philosophique ...« à Gudin de La Brenellerie, 1810-11-12, https://constance-de-salm.de/archiv/#/document/10449 #onthisday</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8352,12 +8352,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>18:25:25</t>
+          <t>10:47:14</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>"Vous avez eu bien raison, Monsieur, quand vous avez pensé qu'après avoir lu votre lettre ..." à Bignan, 1837-11-13, https://constance-de-salm.de/archiv/#/document/7864 #onthisday</t>
+          <t>»Vous avez eu bien raison, Monsieur, quand vous avez pensé qu'après avoir lu votre lettre ...« à Bignan, 1837-11-13, https://constance-de-salm.de/archiv/#/document/7864 #onthisday</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>18:48:40</t>
+          <t>17:03:22</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>"Votre lettre que j'ai reçue hier, Madame, s'est croisée avec celle que je vous ai écrite ..." à Vien, 1833-11-14, https://constance-de-salm.de/archiv/#/document/5295 #onthisday</t>
+          <t>»Votre lettre que j'ai reçue hier, Madame, s'est croisée avec celle que je vous ai écrite ...« à Vien, 1833-11-14, https://constance-de-salm.de/archiv/#/document/5295 #onthisday</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8406,12 +8406,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>16:28:37</t>
+          <t>14:26:51</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre lettre, Monsieur, elle s'est croisée comme vous l'avez vu ..." à Mirault, 1831-11-15, https://constance-de-salm.de/archiv/#/document/6630 #onthisday</t>
+          <t>»Je reçois ici votre lettre, Monsieur, elle s'est croisée comme vous l'avez vu ...« à Mirault, 1831-11-15, https://constance-de-salm.de/archiv/#/document/6630 #onthisday</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8433,12 +8433,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>16:46:15</t>
+          <t>08:55:52</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>"Je suis sûre, mon ancien ami, que vous ne comprenez rien à mon silence ..." à Raboteau, 1824-11-16, https://constance-de-salm.de/archiv/#/document/4003 #onthisday</t>
+          <t>»Je suis sûre, mon ancien ami, que vous ne comprenez rien à mon silence ...« à Raboteau, 1824-11-16, https://constance-de-salm.de/archiv/#/document/4003 #onthisday</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8460,12 +8460,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>14:04:56</t>
+          <t>17:19:16</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>"Je suis sûre, mon ancien ami, que vous ne comprenez rien à mon silence ..." à Raboteau, 1824-11-16, https://constance-de-salm.de/archiv/#/document/4868 #onthisday</t>
+          <t>»Je suis sûre, mon ancien ami, que vous ne comprenez rien à mon silence ...« à Raboteau, 1824-11-16, https://constance-de-salm.de/archiv/#/document/4868 #onthisday</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8487,12 +8487,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>14:03:17</t>
+          <t>13:05:55</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>"J’ai reçu ici votre lettre, Madame et véritable amie, et je me reprocherais beaucoup de n’y avoir pas répondu plutôt ..." à Salis, 1829-11-17, https://constance-de-salm.de/archiv/#/document/10348 #onthisday</t>
+          <t>»J’ai reçu ici votre lettre, Madame et véritable amie, et je me reprocherais beaucoup de n’y avoir pas répondu plutôt ...« à Salis, 1829-11-17, https://constance-de-salm.de/archiv/#/document/10348 #onthisday</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8514,12 +8514,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>19:17:29</t>
+          <t>09:10:25</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>"Mon homme d'affaires de Paris m'écrit, Monsieur, qu'au retour d'un voyage ..." à Sanson de Pongerville, 1831-11-18, https://constance-de-salm.de/archiv/#/document/6633 #onthisday</t>
+          <t>»Mon homme d'affaires de Paris m'écrit, Monsieur, qu'au retour d'un voyage ...« à Sanson de Pongerville, 1831-11-18, https://constance-de-salm.de/archiv/#/document/6633 #onthisday</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8541,12 +8541,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>14:36:13</t>
+          <t>14:09:19</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>"Je suis enfin à Paris, Monsieur le baron, et il me semble, je ne sais pourquoi, que vous ne devez pas tarder à y arriver aussi; ..." à Ladoucette, 1832-11-19, https://constance-de-salm.de/archiv/#/document/5439 #onthisday</t>
+          <t>»Je suis enfin à Paris, Monsieur le baron, et il me semble, je ne sais pourquoi, que vous ne devez pas tarder à y arriver aussi; ...« à Ladoucette, 1832-11-19, https://constance-de-salm.de/archiv/#/document/5439 #onthisday</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>17:52:03</t>
+          <t>12:53:26</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre à Aix, Monsieur, et je crois devoir y répondre un mot ..." à Pailliet, 1827-11-20, https://constance-de-salm.de/archiv/#/document/11322 #onthisday</t>
+          <t>»Je reçois votre lettre à Aix, Monsieur, et je crois devoir y répondre un mot ...« à Pailliet, 1827-11-20, https://constance-de-salm.de/archiv/#/document/11322 #onthisday</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8595,12 +8595,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>09:44:54</t>
+          <t>16:40:48</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>"Quoique j'aie bien de la peine à écrire de ma main, Monsieur et ancien ami ..." à Duval, 1837-11-21, https://constance-de-salm.de/archiv/#/document/7872 #onthisday</t>
+          <t>»Quoique j'aie bien de la peine à écrire de ma main, Monsieur et ancien ami ...« à Duval, 1837-11-21, https://constance-de-salm.de/archiv/#/document/7872 #onthisday</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>10:40:20</t>
+          <t>11:09:50</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>"Nous voici enfin de retour, Monsieur, grâce au jury ..." à Prous, 1816-11-22, https://constance-de-salm.de/archiv/#/document/4335 #onthisday</t>
+          <t>»Nous voici enfin de retour, Monsieur, grâce au jury ...« à Prous, 1816-11-22, https://constance-de-salm.de/archiv/#/document/4335 #onthisday</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8649,12 +8649,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>19:56:09</t>
+          <t>19:48:25</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>"Votre lettre m'arrive, Madame, au milieu d'une foule d'embarras de départ; ..." à Sainte-Luce-Oudaille, 1833-11-23, https://constance-de-salm.de/archiv/#/document/5095 #onthisday</t>
+          <t>»Votre lettre m'arrive, Madame, au milieu d'une foule d'embarras de départ; ...« à Sainte-Luce-Oudaille, 1833-11-23, https://constance-de-salm.de/archiv/#/document/5095 #onthisday</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>18:04:01</t>
+          <t>12:13:35</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>"Votre lettre m'arrive, Madame, au milieu d'une foule d'embarras de départ ..." à Franchet d'Esperey, 1833-11-23, https://constance-de-salm.de/archiv/#/document/5302 #onthisday</t>
+          <t>»Votre lettre m'arrive, Madame, au milieu d'une foule d'embarras de départ ...« à Franchet d'Esperey, 1833-11-23, https://constance-de-salm.de/archiv/#/document/5302 #onthisday</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>17:55:00</t>
+          <t>19:15:20</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur et véritable ami, le terrible récit que je vous ai promis, pour l'ouvrage de Monsieur Lesur ..." à Barbier, 1820-11-24, https://constance-de-salm.de/archiv/#/document/6936 #onthisday</t>
+          <t>»Voici, Monsieur et véritable ami, le terrible récit que je vous ai promis, pour l'ouvrage de Monsieur Lesur ...« à Barbier, 1820-11-24, https://constance-de-salm.de/archiv/#/document/6936 #onthisday</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8730,12 +8730,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>08:46:28</t>
+          <t>17:33:43</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>"Je vois ici, Monsieur, une réponse à M. Chambert ..." à Pailliet, 1825-11-25, https://constance-de-salm.de/archiv/#/document/11348 #onthisday</t>
+          <t>»Je vois ici, Monsieur, une réponse à M. Chambert ...« à Pailliet, 1825-11-25, https://constance-de-salm.de/archiv/#/document/11348 #onthisday</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>12:25:49</t>
+          <t>09:25:38</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>"C'est le soir, et dans un de ces moments où on sent si bien le plaisir ..." à Duval, 1819-11-26, https://constance-de-salm.de/archiv/#/document/4488 #onthisday</t>
+          <t>»C'est le soir, et dans un de ces moments où on sent si bien le plaisir ...« à Duval, 1819-11-26, https://constance-de-salm.de/archiv/#/document/4488 #onthisday</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8784,12 +8784,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>12:10:41</t>
+          <t>18:40:19</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>"Je reçois ta lettre, cher frère, et je suis bien fâchée de t’en avoir envoyé une hier par Drais ..." à Théis, 1825-11-27, https://constance-de-salm.de/archiv/#/document/10643 #onthisday</t>
+          <t>»Je reçois ta lettre, cher frère, et je suis bien fâchée de t’en avoir envoyé une hier par Drais ...« à Théis, 1825-11-27, https://constance-de-salm.de/archiv/#/document/10643 #onthisday</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8811,12 +8811,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>10:19:07</t>
+          <t>10:13:18</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>"J'ai reçu, ma bien chère voisine, votre dernière lettre, je remettais de jour en jour à vous écrire de nouveau ..." à Hompesch, 1834-11-27, https://constance-de-salm.de/archiv/#/document/5610 #onthisday</t>
+          <t>»J'ai reçu, ma bien chère voisine, votre dernière lettre, je remettais de jour en jour à vous écrire de nouveau ...« à Hompesch, 1834-11-27, https://constance-de-salm.de/archiv/#/document/5610 #onthisday</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8838,12 +8838,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>12:41:58</t>
+          <t>15:06:01</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta lettre, cher frère, et j’y aurais déjà répondu si je n’avais voulu attendre le moment de mon départ ..." à Théis, 1833-11-28, https://constance-de-salm.de/archiv/#/document/10840 #onthisday</t>
+          <t>»J’ai reçu ta lettre, cher frère, et j’y aurais déjà répondu si je n’avais voulu attendre le moment de mon départ ...« à Théis, 1833-11-28, https://constance-de-salm.de/archiv/#/document/10840 #onthisday</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8865,12 +8865,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>19:07:37</t>
+          <t>13:06:05</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>"Il y a quelques jours que j’ai reçu votre excellente lettre, mon ancienne amie, je l’ai lue ..." à Salis, 1837-11-29, https://constance-de-salm.de/archiv/#/document/10441 #onthisday</t>
+          <t>»Il y a quelques jours que j’ai reçu votre excellente lettre, mon ancienne amie, je l’ai lue ...« à Salis, 1837-11-29, https://constance-de-salm.de/archiv/#/document/10441 #onthisday</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8892,12 +8892,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>17:21:57</t>
+          <t>12:27:02</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, et j'y réponds à l'instant, Monsieur et ami ..." à Barbier, 1819-11-30, https://constance-de-salm.de/archiv/#/document/4490 #onthisday</t>
+          <t>»Je reçois votre lettre, et j'y réponds à l'instant, Monsieur et ami ...« à Barbier, 1819-11-30, https://constance-de-salm.de/archiv/#/document/4490 #onthisday</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8919,12 +8919,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>19:06:25</t>
+          <t>14:36:54</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>"Dites-moi donc ce que vous devenez, mon cher voisin, êtes-vous malade? ..." à Prous, 1821-11-30, https://constance-de-salm.de/archiv/#/document/2851 #onthisday</t>
+          <t>»Dites-moi donc ce que vous devenez, mon cher voisin, êtes-vous malade? ...« à Prous, 1821-11-30, https://constance-de-salm.de/archiv/#/document/2851 #onthisday</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8941,17 +8941,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2025-12-1</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>11:21:58</t>
+          <t>11:56:05</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>"En vérité, Monsieur et véritable ami, vous devez être fâché contre moi ..." à Raboteau, 1817-12-01, https://constance-de-salm.de/archiv/#/document/4405 #onthisday</t>
+          <t>»En vérité, Monsieur et véritable ami, vous devez être fâché contre moi ...« à Raboteau, 1817-12-01, https://constance-de-salm.de/archiv/#/document/4405 #onthisday</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8968,17 +8968,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2025-12-2</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>13:58:08</t>
+          <t>19:13:50</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>"Je ne puis voir arriver cette fatale date, cher frère, sans penser à notre digne mère, et sans éprouver le besoin ..." à Théis, 1831-12-02, https://constance-de-salm.de/archiv/#/document/10806 #onthisday</t>
+          <t>»Je ne puis voir arriver cette fatale date, cher frère, sans penser à notre digne mère, et sans éprouver le besoin ...« à Théis, 1831-12-02, https://constance-de-salm.de/archiv/#/document/10806 #onthisday</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8995,17 +8995,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2025-12-3</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>08:40:51</t>
+          <t>09:32:49</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>"Voilà un bien long silence, Monsieur, je me le suis reproché vingt fois ..." à Raboteau, 1816-12-03, https://constance-de-salm.de/archiv/#/document/4337 #onthisday</t>
+          <t>»Voilà un bien long silence, Monsieur, je me le suis reproché vingt fois ...« à Raboteau, 1816-12-03, https://constance-de-salm.de/archiv/#/document/4337 #onthisday</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9022,17 +9022,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2025-12-4</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>11:12:44</t>
+          <t>08:23:00</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Mademoiselle, la lettre et le portefeuille que vous m’avez envoyés ..." à Salis, 1798-12-04, https://constance-de-salm.de/archiv/#/document/8562 #onthisday</t>
+          <t>»J’ai reçu, Mademoiselle, la lettre et le portefeuille que vous m’avez envoyés ...« à Salis, 1798-12-04, https://constance-de-salm.de/archiv/#/document/8562 #onthisday</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9049,17 +9049,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2025-12-5</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>09:42:08</t>
+          <t>18:42:28</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>"J’ai reçu vos deux lettres, Monsieur, je les ai lues avec le plus vif intérêt, et je vous aurais répondu ..." à Boucharlat, 1829-12-05, https://constance-de-salm.de/archiv/#/document/9472 #onthisday</t>
+          <t>»J’ai reçu vos deux lettres, Monsieur, je les ai lues avec le plus vif intérêt, et je vous aurais répondu ...« à Boucharlat, 1829-12-05, https://constance-de-salm.de/archiv/#/document/9472 #onthisday</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9076,17 +9076,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2025-12-6</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>12:18:33</t>
+          <t>12:19:30</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>"Il me semble que mon ancien „Chevalier de l’Épingle“ ne porte plus celle que je lui avais donnée ..." à Ponce, 1816-12-06, https://constance-de-salm.de/archiv/#/document/9048 #onthisday</t>
+          <t>»Il me semble que mon ancien „Chevalier de l’Épingle“ ne porte plus celle que je lui avais donnée ...« à Ponce, 1816-12-06, https://constance-de-salm.de/archiv/#/document/9048 #onthisday</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9103,17 +9103,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2025-12-6</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>19:41:19</t>
+          <t>14:57:41</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>"J'écris à plusieurs de nos amis communs, mon ancien ami, pour leur demander de leurs nouvelles ..." à Breguet, 1817-12-06, https://constance-de-salm.de/archiv/#/document/4408 #onthisday</t>
+          <t>»J'écris à plusieurs de nos amis communs, mon ancien ami, pour leur demander de leurs nouvelles ...« à Breguet, 1817-12-06, https://constance-de-salm.de/archiv/#/document/4408 #onthisday</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9130,17 +9130,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2025-12-7</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>17:27:14</t>
+          <t>15:56:36</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>"Je serais honteuse, ma chère Élève, d’avoir mis tant de temps à vous répondre ..." à Salis, 1798-12-07, https://constance-de-salm.de/archiv/#/document/10409 #onthisday</t>
+          <t>»Je serais honteuse, ma chère Élève, d’avoir mis tant de temps à vous répondre ...« à Salis, 1798-12-07, https://constance-de-salm.de/archiv/#/document/10409 #onthisday</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9157,17 +9157,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2025-12-8</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>16:19:09</t>
+          <t>16:11:35</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur et véritable ami, que je n'ai reçu de vos nouvelles; mais je ne vous ai pas écrit ..." à Barbier, 1821-12-08, https://constance-de-salm.de/archiv/#/document/8302 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur et véritable ami, que je n'ai reçu de vos nouvelles; mais je ne vous ai pas écrit ...« à Barbier, 1821-12-08, https://constance-de-salm.de/archiv/#/document/8302 #onthisday</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9184,17 +9184,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2025-12-9</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>18:46:23</t>
+          <t>14:24:14</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>"Vous devez bien vous moquer de moi à l'heure qu'il est, Monsieur et ami ..." à Raboteau, 1815-12-09, https://constance-de-salm.de/archiv/#/document/3925 #onthisday</t>
+          <t>»Vous devez bien vous moquer de moi à l'heure qu'il est, Monsieur et ami ...« à Raboteau, 1815-12-09, https://constance-de-salm.de/archiv/#/document/3925 #onthisday</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>13:29:42</t>
+          <t>18:13:58</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>"Je ne vous écris qu'un mot, ma bien chère élève ..." à Salis, 1822-12-10, https://constance-de-salm.de/archiv/#/document/45 #onthisday</t>
+          <t>»Je ne vous écris qu'un mot, ma bien chère élève ...« à Salis, 1822-12-10, https://constance-de-salm.de/archiv/#/document/45 #onthisday</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>10:13:15</t>
+          <t>08:00:58</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>"Mon départ a été retardé, mon cher voisin, par une foule de petites circonstances ..." à Ladoucette, 1840-12-11, https://constance-de-salm.de/archiv/#/document/6284 #onthisday</t>
+          <t>»Mon départ a été retardé, mon cher voisin, par une foule de petites circonstances ...« à Ladoucette, 1840-12-11, https://constance-de-salm.de/archiv/#/document/6284 #onthisday</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9270,12 +9270,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>09:36:51</t>
+          <t>18:10:23</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>"Air: Ce mouchoir, belle Raimonde ..." à Amalric, 1817-12-12, https://constance-de-salm.de/archiv/#/document/4411 #onthisday</t>
+          <t>»Air: Ce mouchoir, belle Raimonde ...« à Amalric, 1817-12-12, https://constance-de-salm.de/archiv/#/document/4411 #onthisday</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9297,12 +9297,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>10:18:02</t>
+          <t>09:28:58</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>"J'envoye savoir de vos nouvelles, Monsieur ..." à Prous, 1816-12-13, https://constance-de-salm.de/archiv/#/document/4340 #onthisday</t>
+          <t>»J'envoye savoir de vos nouvelles, Monsieur ...« à Prous, 1816-12-13, https://constance-de-salm.de/archiv/#/document/4340 #onthisday</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>19:43:24</t>
+          <t>12:43:40</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>"Vos vers sont charmants, Madame, la grâce, le talent, le sentiment, rien n’y manque; ..." à Montigny, 1828-12-14, https://constance-de-salm.de/archiv/#/document/9298 #onthisday</t>
+          <t>»Vos vers sont charmants, Madame, la grâce, le talent, le sentiment, rien n’y manque; ...« à Montigny, 1828-12-14, https://constance-de-salm.de/archiv/#/document/9298 #onthisday</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9351,12 +9351,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>17:36:47</t>
+          <t>10:24:57</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>"Je pars, Monsieur et ami; mon mari me rejoindra dans 15 jours ..." à Raboteau, 1818-12-15, https://constance-de-salm.de/archiv/#/document/4460 #onthisday</t>
+          <t>»Je pars, Monsieur et ami; mon mari me rejoindra dans 15 jours ...« à Raboteau, 1818-12-15, https://constance-de-salm.de/archiv/#/document/4460 #onthisday</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9378,12 +9378,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>18:09:58</t>
+          <t>11:34:34</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, mon ancienne amie, cela m'inquiète ..." à Salis, 1833-12-16, https://constance-de-salm.de/archiv/#/document/10355 #onthisday</t>
+          <t>»Je n'entends point parler de vous, mon ancienne amie, cela m'inquiète ...« à Salis, 1833-12-16, https://constance-de-salm.de/archiv/#/document/10355 #onthisday</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9405,12 +9405,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>17:07:06</t>
+          <t>18:35:35</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>"Un mal de reins, de jambes, de dos, de partout ..." à Prous, 1816-12-17, https://constance-de-salm.de/archiv/#/document/2810 #onthisday</t>
+          <t>»Un mal de reins, de jambes, de dos, de partout ...« à Prous, 1816-12-17, https://constance-de-salm.de/archiv/#/document/2810 #onthisday</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>10:52:58</t>
+          <t>10:42:03</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>"Je pars, Monsieur et ami: mon mari me rejoindra dans 15 jours ..." à Raboteau, 1818-12-18, https://constance-de-salm.de/archiv/#/document/8858 #onthisday</t>
+          <t>»Je pars, Monsieur et ami: mon mari me rejoindra dans 15 jours ...« à Raboteau, 1818-12-18, https://constance-de-salm.de/archiv/#/document/8858 #onthisday</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>12:13:03</t>
+          <t>15:51:19</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>"Je ne sais, Madame et amie, ce que vous pensez de mon long silence ..." à Salis, 1830-12-19, https://constance-de-salm.de/archiv/#/document/10350 #onthisday</t>
+          <t>»Je ne sais, Madame et amie, ce que vous pensez de mon long silence ...« à Salis, 1830-12-19, https://constance-de-salm.de/archiv/#/document/10350 #onthisday</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9486,12 +9486,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>17:51:27</t>
+          <t>16:16:00</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>"Vous aurez été bien surpris, Monsieur, de ne plus entendre parler de moi après la lettre que je vous avais écrite ..." à Jullien de Paris, 1825-12-20, https://constance-de-salm.de/archiv/#/document/8984 #onthisday</t>
+          <t>»Vous aurez été bien surpris, Monsieur, de ne plus entendre parler de moi après la lettre que je vous avais écrite ...« à Jullien de Paris, 1825-12-20, https://constance-de-salm.de/archiv/#/document/8984 #onthisday</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>12:11:22</t>
+          <t>09:30:21</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre dernière lettre, Monsieur et ami, et je me fais un plaisir ..." à Raboteau, 1817-12-21, https://constance-de-salm.de/archiv/#/document/4416 #onthisday</t>
+          <t>»J'ai reçu hier votre dernière lettre, Monsieur et ami, et je me fais un plaisir ...« à Raboteau, 1817-12-21, https://constance-de-salm.de/archiv/#/document/4416 #onthisday</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>19:10:27</t>
+          <t>12:46:23</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>"C'est à vous que j'écris cette fois, Madame, je ne veux pas déranger Monsieur Laya ..." à Laya, 1817-12-22, https://constance-de-salm.de/archiv/#/document/4417 #onthisday</t>
+          <t>»C'est à vous que j'écris cette fois, Madame, je ne veux pas déranger Monsieur Laya ...« à Laya, 1817-12-22, https://constance-de-salm.de/archiv/#/document/4417 #onthisday</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>18:15:42</t>
+          <t>19:37:02</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>"Je suis charmée, Monsieur, d’avoir eu de vos nouvelles ..." à Prous, 1815-12-24, https://constance-de-salm.de/archiv/#/document/2778 #onthisday</t>
+          <t>»Je suis charmée, Monsieur, d’avoir eu de vos nouvelles ...« à Prous, 1815-12-24, https://constance-de-salm.de/archiv/#/document/2778 #onthisday</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9594,12 +9594,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>14:46:08</t>
+          <t>15:54:07</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>"Depuis bien longtemps, je remets de jour en jour à vous donner de mes nouvelles, mon ancien ami ..." à Raboteau, 1822-12-25, https://constance-de-salm.de/archiv/#/document/3996 #onthisday</t>
+          <t>»Depuis bien longtemps, je remets de jour en jour à vous donner de mes nouvelles, mon ancien ami ...« à Raboteau, 1822-12-25, https://constance-de-salm.de/archiv/#/document/3996 #onthisday</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9621,12 +9621,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>11:20:13</t>
+          <t>16:03:54</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>"Voilà bien longtemps que je ne vous ai donné de mes nouvelles ..." à Salis, 1800-12-26, https://constance-de-salm.de/archiv/#/document/8610 #onthisday</t>
+          <t>»Voilà bien longtemps que je ne vous ai donné de mes nouvelles ...« à Salis, 1800-12-26, https://constance-de-salm.de/archiv/#/document/8610 #onthisday</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9648,12 +9648,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>15:54:42</t>
+          <t>15:18:32</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>"Excusez mon long silence, Monsieur et ami; ..." à Raboteau, 1814-12-27, https://constance-de-salm.de/archiv/#/document/3920 #onthisday</t>
+          <t>»Excusez mon long silence, Monsieur et ami; ...« à Raboteau, 1814-12-27, https://constance-de-salm.de/archiv/#/document/3920 #onthisday</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9675,12 +9675,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>19:35:15</t>
+          <t>16:28:11</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>"Sire, la précipitation avec laquelle j’ai fait la note que j’ai envoyée de Bruxelles à V[otre] M[ajesté] m’a fait oublier quelques observations essentielles ..." à Friedrich Wilhelm III., 1827-12-28, https://constance-de-salm.de/archiv/#/document/9104 #onthisday</t>
+          <t>»Sire, la précipitation avec laquelle j’ai fait la note que j’ai envoyée de Bruxelles à V[otre] M[ajesté] m’a fait oublier quelques observations essentielles ...« à Friedrich Wilhelm III., 1827-12-28, https://constance-de-salm.de/archiv/#/document/9104 #onthisday</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>10:26:46</t>
+          <t>14:08:20</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>"Je suis charmée, Monsieur, d'avoir eu de vos nouvelles aujourd'hui ..." à Prous, 1815-12-29, https://constance-de-salm.de/archiv/#/document/4283 #onthisday</t>
+          <t>»Je suis charmée, Monsieur, d'avoir eu de vos nouvelles aujourd'hui ...« à Prous, 1815-12-29, https://constance-de-salm.de/archiv/#/document/4283 #onthisday</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9729,12 +9729,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>18:04:27</t>
+          <t>08:21:03</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>"Je venais de terminer, Monsieur, l’immense lettre que je joins à celle-ci ..." à Pailliet, 1826-12-29, https://constance-de-salm.de/archiv/#/document/11362 #onthisday</t>
+          <t>»Je venais de terminer, Monsieur, l’immense lettre que je joins à celle-ci ...« à Pailliet, 1826-12-29, https://constance-de-salm.de/archiv/#/document/11362 #onthisday</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9756,12 +9756,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>18:05:38</t>
+          <t>12:25:36</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>"Vous êtes parti si vite la dernière fois que vous êtes venu nous voir, Monsieur le aron, qu’il m’a été impossible ..." à Ladoucette, 1827-12-30, https://constance-de-salm.de/archiv/#/document/9107 #onthisday</t>
+          <t>»Vous êtes parti si vite la dernière fois que vous êtes venu nous voir, Monsieur le aron, qu’il m’a été impossible ...« à Ladoucette, 1827-12-30, https://constance-de-salm.de/archiv/#/document/9107 #onthisday</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>08:48:06</t>
+          <t>12:57:03</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>"Vous êtes sans doute surprise, Madame, de ne pas entendre parler de moi, et je le sens [sic] moi-même de n’avoir pas encore répondu ..." à Dauriat, 1826-12-31, https://constance-de-salm.de/archiv/#/document/9052 #onthisday</t>
+          <t>»Vous êtes sans doute surprise, Madame, de ne pas entendre parler de moi, et je le sens [sic] moi-même de n’avoir pas encore répondu ...« à Dauriat, 1826-12-31, https://constance-de-salm.de/archiv/#/document/9052 #onthisday</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9805,17 +9805,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2026-1-1</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>14:52:52</t>
+          <t>12:48:11</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>"La première lettre que j‘écris, dans ce pays, depuis ma maladie, est adressée à mes bons voisins ..." à Prous, 1820-01-01, https://constance-de-salm.de/archiv/#/document/2826 #onthisday</t>
+          <t>»La première lettre que j‘écris, dans ce pays, depuis ma maladie, est adressée à mes bons voisins ...« à Prous, 1820-01-01, https://constance-de-salm.de/archiv/#/document/2826 #onthisday</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9832,17 +9832,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2026-1-1</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>17:58:58</t>
+          <t>08:03:08</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>"J'ai ce matin, par l'usage entraînée / Voulu vous faire aussi mon compliment; ..." à Thurn und Taxis, 1820-01-01, https://constance-de-salm.de/archiv/#/document/4493 #onthisday</t>
+          <t>»J'ai ce matin, par l'usage entraînée / Voulu vous faire aussi mon compliment; ...« à Thurn und Taxis, 1820-01-01, https://constance-de-salm.de/archiv/#/document/4493 #onthisday</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9859,17 +9859,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2026-1-2</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>08:26:16</t>
+          <t>09:08:26</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>"Puisqu’il faut s’étrenner, en ce moment joyeux, / voici du sable d’or, d’excellent pain d‘épices ..." à Prous, 1818-01-02, https://constance-de-salm.de/archiv/#/document/10635 #onthisday</t>
+          <t>»Puisqu’il faut s’étrenner, en ce moment joyeux, / voici du sable d’or, d’excellent pain d‘épices ...« à Prous, 1818-01-02, https://constance-de-salm.de/archiv/#/document/10635 #onthisday</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9886,17 +9886,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2026-1-2</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>12:48:07</t>
+          <t>19:20:38</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>"C'est un véritable besoin pour moi, Monsieur, de vous dire ..." à Ritz, 1822-01-02, https://constance-de-salm.de/archiv/#/document/21 #onthisday</t>
+          <t>»C'est un véritable besoin pour moi, Monsieur, de vous dire ...« à Ritz, 1822-01-02, https://constance-de-salm.de/archiv/#/document/21 #onthisday</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9913,17 +9913,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2026-1-3</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>14:26:20</t>
+          <t>10:13:13</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>"La bonne année est un agréable moment ..." à Raboteau, 1818-01-03, https://constance-de-salm.de/archiv/#/document/4422 #onthisday</t>
+          <t>»La bonne année est un agréable moment ...« à Raboteau, 1818-01-03, https://constance-de-salm.de/archiv/#/document/4422 #onthisday</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9940,17 +9940,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2026-1-4</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>09:46:52</t>
+          <t>16:10:18</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>"Je ne vous dirai plus, je ne puis vous écrire ..." à Raboteau, 1820-01-04, https://constance-de-salm.de/archiv/#/document/4494 #onthisday</t>
+          <t>»Je ne vous dirai plus, je ne puis vous écrire ...« à Raboteau, 1820-01-04, https://constance-de-salm.de/archiv/#/document/4494 #onthisday</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9967,17 +9967,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2026-1-5</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>13:30:04</t>
+          <t>18:00:11</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>"Depuis que je suis ici, ma bien chère voisine et amie, j’ai projeté vingt fois de vous écrire; ..." à Hompesch, 1836-01-05, https://constance-de-salm.de/archiv/#/document/9686 #onthisday</t>
+          <t>»Depuis que je suis ici, ma bien chère voisine et amie, j’ai projeté vingt fois de vous écrire; ...« à Hompesch, 1836-01-05, https://constance-de-salm.de/archiv/#/document/9686 #onthisday</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9994,17 +9994,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2026-1-7</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>09:53:25</t>
+          <t>11:45:22</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>"Il faut pourtant, Monsieur et ami, que je vous dise une réflexion que j'ai faite à votre sujet ..." à Raboteau, 1819-01-07, https://constance-de-salm.de/archiv/#/document/4464 #onthisday</t>
+          <t>»Il faut pourtant, Monsieur et ami, que je vous dise une réflexion que j'ai faite à votre sujet ...« à Raboteau, 1819-01-07, https://constance-de-salm.de/archiv/#/document/4464 #onthisday</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10021,17 +10021,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2026-1-8</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>14:31:28</t>
+          <t>14:37:29</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>"Je veux jaser un instant avec vous, ma bien chère voisine, pour me délasser de nombreux embarras ..." à Hompesch, 1835-01-08, https://constance-de-salm.de/archiv/#/document/9557 #onthisday</t>
+          <t>»Je veux jaser un instant avec vous, ma bien chère voisine, pour me délasser de nombreux embarras ...« à Hompesch, 1835-01-08, https://constance-de-salm.de/archiv/#/document/9557 #onthisday</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10048,17 +10048,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2026-1-9</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>19:11:04</t>
+          <t>09:26:17</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>"J’ai trouvé ici à mon arrivée, Monsieur, la lettre que vous m’avez écrite; je l’ai lue avec un vif intérêt ..." à Saint-Cricq, 1828-01-09, https://constance-de-salm.de/archiv/#/document/9127 #onthisday</t>
+          <t>»J’ai trouvé ici à mon arrivée, Monsieur, la lettre que vous m’avez écrite; je l’ai lue avec un vif intérêt ...« à Saint-Cricq, 1828-01-09, https://constance-de-salm.de/archiv/#/document/9127 #onthisday</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10075,17 +10075,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2026-1-10</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>08:41:17</t>
+          <t>09:01:35</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>"Je ne doute pas, Madame, de la sincérité des sentiments que vous me faites l’amitié de m’exprimer ..." à Salis, 1810-01-10, https://constance-de-salm.de/archiv/#/document/2140 #onthisday</t>
+          <t>»Je ne doute pas, Madame, de la sincérité des sentiments que vous me faites l’amitié de m’exprimer ...« à Salis, 1810-01-10, https://constance-de-salm.de/archiv/#/document/2140 #onthisday</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10102,17 +10102,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2026-1-12</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>14:50:31</t>
+          <t>11:02:47</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant votre lettre, Monsieur, et je dicte aussi à l’instant un mot pour vous ..." à Mirault, 1829-01-12, https://constance-de-salm.de/archiv/#/document/9308 #onthisday</t>
+          <t>»Je reçois à l’instant votre lettre, Monsieur, et je dicte aussi à l’instant un mot pour vous ...« à Mirault, 1829-01-12, https://constance-de-salm.de/archiv/#/document/9308 #onthisday</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10129,17 +10129,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2026-1-13</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>16:08:58</t>
+          <t>12:48:23</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>"Je pense tout à coup que, comme on a omis des invitations ..." à Villenave, 1828-01-13, https://constance-de-salm.de/archiv/#/document/10997 #onthisday</t>
+          <t>»Je pense tout à coup que, comme on a omis des invitations ...« à Villenave, 1828-01-13, https://constance-de-salm.de/archiv/#/document/10997 #onthisday</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10156,17 +10156,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2026-1-14</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>12:47:48</t>
+          <t>15:56:44</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>"Lorsque j'ai recu votre lettre, Monsieur, j'allais envoyer chez vous pour vous faire demander la Gazette de Liège ..." à Prous, 1816-01-14, https://constance-de-salm.de/archiv/#/document/8848 #onthisday</t>
+          <t>»Lorsque j'ai recu votre lettre, Monsieur, j'allais envoyer chez vous pour vous faire demander la Gazette de Liège ...« à Prous, 1816-01-14, https://constance-de-salm.de/archiv/#/document/8848 #onthisday</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10183,17 +10183,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2026-1-14</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>09:53:37</t>
+          <t>16:28:04</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>"Lorsque j'ai reçu votre lettre, Monsieur, j'allais envoyer chez vous ..." à Prous, 1816-01-14, https://constance-de-salm.de/archiv/#/document/4286 #onthisday</t>
+          <t>»Lorsque j'ai reçu votre lettre, Monsieur, j'allais envoyer chez vous ...« à Prous, 1816-01-14, https://constance-de-salm.de/archiv/#/document/4286 #onthisday</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10210,17 +10210,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2026-1-15</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>14:44:08</t>
+          <t>08:54:02</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>"Si vous vouliez, mon voisin, m’apporter vous-même vos fables ..." à Ladoucette, 1827-01-15, https://constance-de-salm.de/archiv/#/document/9053 #onthisday</t>
+          <t>»Si vous vouliez, mon voisin, m’apporter vous-même vos fables ...« à Ladoucette, 1827-01-15, https://constance-de-salm.de/archiv/#/document/9053 #onthisday</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10237,17 +10237,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2026-1-15</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>13:55:27</t>
+          <t>09:09:53</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>"J'ai lu avec beaucoup d'intérêt, Monsieur, les lettres que vous m'avez adressées ..." à N.N., 1832-01-15, https://constance-de-salm.de/archiv/#/document/5396 #onthisday</t>
+          <t>»J'ai lu avec beaucoup d'intérêt, Monsieur, les lettres que vous m'avez adressées ...« à N.N., 1832-01-15, https://constance-de-salm.de/archiv/#/document/5396 #onthisday</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10264,17 +10264,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2026-1-16</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>10:32:42</t>
+          <t>19:32:53</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>"Voilà, Monsieur et cher voisin, un roman d'Auguste Lafontaine ..." à Prous, 1821-01-16, https://constance-de-salm.de/archiv/#/document/2838 #onthisday</t>
+          <t>»Voilà, Monsieur et cher voisin, un roman d'Auguste Lafontaine ...« à Prous, 1821-01-16, https://constance-de-salm.de/archiv/#/document/2838 #onthisday</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10291,17 +10291,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2026-1-16</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>08:44:01</t>
+          <t>14:57:03</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>"Voilà, Monsieur et cher voisin, un roman d'Auguste Lafontaine ..." à Prous, 1821-01-16, https://constance-de-salm.de/archiv/#/document/4552 #onthisday</t>
+          <t>»Voilà, Monsieur et cher voisin, un roman d'Auguste Lafontaine ...« à Prous, 1821-01-16, https://constance-de-salm.de/archiv/#/document/4552 #onthisday</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10318,17 +10318,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2026-1-17</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>14:44:23</t>
+          <t>15:38:33</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, mon cher cousin, et je m'empresse de vous dire combien je suis affligée ..." à Novakowsky, 1840-01-17, https://constance-de-salm.de/archiv/#/document/8147 #onthisday</t>
+          <t>»Je reçois votre lettre, mon cher cousin, et je m'empresse de vous dire combien je suis affligée ...« à Novakowsky, 1840-01-17, https://constance-de-salm.de/archiv/#/document/8147 #onthisday</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10345,17 +10345,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2026-1-18</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>08:57:19</t>
+          <t>13:42:37</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>"Cette date du 18 me semble, Monsieur, une sorte d'accusation contre moi ..." à Raboteau, 1816-01-18, https://constance-de-salm.de/archiv/#/document/3926 #onthisday</t>
+          <t>»Cette date du 18 me semble, Monsieur, une sorte d'accusation contre moi ...« à Raboteau, 1816-01-18, https://constance-de-salm.de/archiv/#/document/3926 #onthisday</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10372,17 +10372,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2026-1-19</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>17:03:12</t>
+          <t>09:13:11</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>"Quand vous aurez un moment de loisir, mon cher voisin, pourriez vous me faire le plaisir ..." à Ladoucette, 1839-01-19, https://constance-de-salm.de/archiv/#/document/7988 #onthisday</t>
+          <t>»Quand vous aurez un moment de loisir, mon cher voisin, pourriez vous me faire le plaisir ...« à Ladoucette, 1839-01-19, https://constance-de-salm.de/archiv/#/document/7988 #onthisday</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10399,17 +10399,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2026-1-21</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>19:32:03</t>
+          <t>12:44:47</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je n'ai entendu parler de vous, mon cher Anténor; j'ai lu seulement votre nom dans quelques journaux ..." à Lantier, 1822-01-21, https://constance-de-salm.de/archiv/#/document/4881 #onthisday</t>
+          <t>»Il y a bien longtemps que je n'ai entendu parler de vous, mon cher Anténor; j'ai lu seulement votre nom dans quelques journaux ...« à Lantier, 1822-01-21, https://constance-de-salm.de/archiv/#/document/4881 #onthisday</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10426,17 +10426,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2026-1-21</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>19:53:01</t>
+          <t>15:46:07</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je n'ai entendu parler de vous, mon cher Anténor; j'ai lu seulement votre nom dans quelques journaux ..." à Lantier, 1822-01-21, https://constance-de-salm.de/archiv/#/document/24 #onthisday</t>
+          <t>»Il y a bien longtemps que je n'ai entendu parler de vous, mon cher Anténor; j'ai lu seulement votre nom dans quelques journaux ...« à Lantier, 1822-01-21, https://constance-de-salm.de/archiv/#/document/24 #onthisday</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10453,17 +10453,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2026-1-23</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>17:26:57</t>
+          <t>14:24:22</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>"J'ai appris avec beaucoup de satisfaction, Monsieur, que la Société d'émulation et d'agriculture de l'Ain m'a admise ..." à Gauthier (= Lacroix Gauthier?), 1812-01-23, https://constance-de-salm.de/archiv/#/document/4135 #onthisday</t>
+          <t>»J'ai appris avec beaucoup de satisfaction, Monsieur, que la Société d'émulation et d'agriculture de l'Ain m'a admise ...« à Gauthier (= Lacroix Gauthier?), 1812-01-23, https://constance-de-salm.de/archiv/#/document/4135 #onthisday</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10480,17 +10480,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2026-1-24</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>12:36:51</t>
+          <t>15:41:19</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>"Je veux vous dire, Monsieur, qu’ayant pensé tout à coup qu’il n’y a que quelques années ..." à Sanson de Pongerville, 1836-01-24, https://constance-de-salm.de/archiv/#/document/9693 #onthisday</t>
+          <t>»Je veux vous dire, Monsieur, qu’ayant pensé tout à coup qu’il n’y a que quelques années ...« à Sanson de Pongerville, 1836-01-24, https://constance-de-salm.de/archiv/#/document/9693 #onthisday</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10507,17 +10507,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2026-1-25</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>08:44:03</t>
+          <t>09:40:23</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>"Depuis 15 jours je me propose de vous écrire, Prince, mais j’en ai été empêchée ..." à Hatzfeldt, 1819-01-25, https://constance-de-salm.de/archiv/#/document/756 #onthisday</t>
+          <t>»Depuis 15 jours je me propose de vous écrire, Prince, mais j’en ai été empêchée ...« à Hatzfeldt, 1819-01-25, https://constance-de-salm.de/archiv/#/document/756 #onthisday</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10534,17 +10534,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2026-1-26</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>10:50:40</t>
+          <t>11:30:52</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>"J’ai besoin de vous dire, Monsieur, que vous ne vous tourmentiez pas de ce que peut vous avoir dit hier Monsieur de L[adoucette] ..." à Boucharlat, 1836-01-26, https://constance-de-salm.de/archiv/#/document/9696 #onthisday</t>
+          <t>»J’ai besoin de vous dire, Monsieur, que vous ne vous tourmentiez pas de ce que peut vous avoir dit hier Monsieur de L[adoucette] ...« à Boucharlat, 1836-01-26, https://constance-de-salm.de/archiv/#/document/9696 #onthisday</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10561,17 +10561,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2026-1-27</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>14:40:20</t>
+          <t>15:48:34</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir, Monsieur, le jugement rendu pour la vente des biens de Coucy ..." à Pailliet, 1827-01-27, https://constance-de-salm.de/archiv/#/document/11363 #onthisday</t>
+          <t>»Je viens de recevoir, Monsieur, le jugement rendu pour la vente des biens de Coucy ...« à Pailliet, 1827-01-27, https://constance-de-salm.de/archiv/#/document/11363 #onthisday</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10588,17 +10588,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2026-1-28</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>14:20:40</t>
+          <t>09:38:01</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur, que vous allez nous quitter ..." à Prous, 1817-01-28, https://constance-de-salm.de/archiv/#/document/2811 #onthisday</t>
+          <t>»On me dit, Monsieur, que vous allez nous quitter ...« à Prous, 1817-01-28, https://constance-de-salm.de/archiv/#/document/2811 #onthisday</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10615,17 +10615,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2026-1-29</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>18:24:30</t>
+          <t>18:29:18</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>"J’ai reçu ce matin la lettre de cet avocat que tu m’as envoyée, mon cher Constant ..." à Francq, 1834-01-29, https://constance-de-salm.de/archiv/#/document/8816 #onthisday</t>
+          <t>»J’ai reçu ce matin la lettre de cet avocat que tu m’as envoyée, mon cher Constant ...« à Francq, 1834-01-29, https://constance-de-salm.de/archiv/#/document/8816 #onthisday</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10642,17 +10642,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2026-1-30</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>13:32:31</t>
+          <t>12:42:29</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>"J’éprouve dans ce moment un chagrin plus fort que je ne puis le supporter ..." à Saint-Mars, 1835-01-30, https://constance-de-salm.de/archiv/#/document/9562 #onthisday</t>
+          <t>»J’éprouve dans ce moment un chagrin plus fort que je ne puis le supporter ...« à Saint-Mars, 1835-01-30, https://constance-de-salm.de/archiv/#/document/9562 #onthisday</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10669,17 +10669,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2026-1-31</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>17:58:03</t>
+          <t>11:11:09</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>"Je ne serai jamais embarrassée, Monsieur, quand il faudra dire du bien de vous ..." à Lefrançois de Lalande, 1807-01-31, https://constance-de-salm.de/archiv/#/document/4848 #onthisday</t>
+          <t>»Je ne serai jamais embarrassée, Monsieur, quand il faudra dire du bien de vous ...« à Lefrançois de Lalande, 1807-01-31, https://constance-de-salm.de/archiv/#/document/4848 #onthisday</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10696,17 +10696,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2026-2-1</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>17:33:46</t>
+          <t>17:46:58</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta dernière lettre, cher frère, deux jours après t’avoir écrit; ..." à Théis, 1840-02-01, https://constance-de-salm.de/archiv/#/document/10938 #onthisday</t>
+          <t>»J’ai reçu ta dernière lettre, cher frère, deux jours après t’avoir écrit; ...« à Théis, 1840-02-01, https://constance-de-salm.de/archiv/#/document/10938 #onthisday</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10723,17 +10723,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2026-2-2</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>12:09:58</t>
+          <t>08:30:21</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur, que vous devez être surpris de ne pas entendre parler de moi ..." à Villenave, 1832-02-02, https://constance-de-salm.de/archiv/#/document/5397 #onthisday</t>
+          <t>»Il me semble, Monsieur, que vous devez être surpris de ne pas entendre parler de moi ...« à Villenave, 1832-02-02, https://constance-de-salm.de/archiv/#/document/5397 #onthisday</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10750,17 +10750,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2026-2-3</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>09:42:17</t>
+          <t>10:04:25</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier ta lettre par laquelle tu m’apprends que tu as été malade, ma chère Minette ..." à Francq, 1816-02-03, https://constance-de-salm.de/archiv/#/document/6277 #onthisday</t>
+          <t>»J’ai reçu hier ta lettre par laquelle tu m’apprends que tu as été malade, ma chère Minette ...« à Francq, 1816-02-03, https://constance-de-salm.de/archiv/#/document/6277 #onthisday</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10777,17 +10777,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2026-2-4</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>17:47:17</t>
+          <t>12:32:49</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>"Quoique je n’aie guères de temps à moi, Monsieur, et que j’ai beaucoup de peine à écrire, je me hâte de répondre à votre lettre d’hier, et de vous rassurer ..." à Villenave, 1830-02-04, https://constance-de-salm.de/archiv/#/document/9487 #onthisday</t>
+          <t>»Quoique je n’aie guères de temps à moi, Monsieur, et que j’ai beaucoup de peine à écrire, je me hâte de répondre à votre lettre d’hier, et de vous rassurer ...« à Villenave, 1830-02-04, https://constance-de-salm.de/archiv/#/document/9487 #onthisday</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10804,17 +10804,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2026-2-5</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>19:03:14</t>
+          <t>17:36:56</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>"Quoique chez moi l’on ait vu le jeudi / du vendredi prendre la place ..." à Gudin de La Brenellerie, 1812-02-05, https://constance-de-salm.de/archiv/#/document/5630 #onthisday</t>
+          <t>»Quoique chez moi l’on ait vu le jeudi / du vendredi prendre la place ...« à Gudin de La Brenellerie, 1812-02-05, https://constance-de-salm.de/archiv/#/document/5630 #onthisday</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10831,17 +10831,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2026-2-5</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>10:22:22</t>
+          <t>18:08:15</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>"Quoique mes forces, qui ne reviennent que lentement, me permettent à peine d'écrire ..." à N.N., 1821-02-05, https://constance-de-salm.de/archiv/#/document/6940 #onthisday</t>
+          <t>»Quoique mes forces, qui ne reviennent que lentement, me permettent à peine d'écrire ...« à N.N., 1821-02-05, https://constance-de-salm.de/archiv/#/document/6940 #onthisday</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10858,17 +10858,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2026-2-6</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>14:40:12</t>
+          <t>15:34:20</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>"C'est enfin moi, Monsieur et bien véritable ami, je puis vous écrire combien j'ai été sensible au vif intérêt que vous avez pris à ma situation ..." à Barbier, 1821-02-06, https://constance-de-salm.de/archiv/#/document/6939 #onthisday</t>
+          <t>»C'est enfin moi, Monsieur et bien véritable ami, je puis vous écrire combien j'ai été sensible au vif intérêt que vous avez pris à ma situation ...« à Barbier, 1821-02-06, https://constance-de-salm.de/archiv/#/document/6939 #onthisday</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10885,17 +10885,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2026-2-7</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>08:00:56</t>
+          <t>08:11:41</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre nouveau billet, Monsieur, et quoique vous m’engagiez à n’y point répondre, il m’est impossible ..." à Villenave, 1830-02-07, https://constance-de-salm.de/archiv/#/document/9489 #onthisday</t>
+          <t>»J’ai reçu votre nouveau billet, Monsieur, et quoique vous m’engagiez à n’y point répondre, il m’est impossible ...« à Villenave, 1830-02-07, https://constance-de-salm.de/archiv/#/document/9489 #onthisday</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10912,17 +10912,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2026-2-8</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>14:01:09</t>
+          <t>16:37:51</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>"Enfin, mon ancien ami, je puis reprendre notre correspondance après 6 mois d’un désespoir qui approchait du délire ..." à Raboteau, 1821-02-08, https://constance-de-salm.de/archiv/#/document/3989 #onthisday</t>
+          <t>»Enfin, mon ancien ami, je puis reprendre notre correspondance après 6 mois d’un désespoir qui approchait du délire ...« à Raboteau, 1821-02-08, https://constance-de-salm.de/archiv/#/document/3989 #onthisday</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10939,17 +10939,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2026-2-8</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>19:55:48</t>
+          <t>13:35:52</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>"J’apprends avec le plus grand plaisir que la santé de Monsieur Lethiers [sic] se rétablit, et je ne saurais assez le remercier du cadeau qu’il m’a fait ..." à Guillon Lethière, 1828-02-08, https://constance-de-salm.de/archiv/#/document/9130 #onthisday</t>
+          <t>»J’apprends avec le plus grand plaisir que la santé de Monsieur Lethiers [sic] se rétablit, et je ne saurais assez le remercier du cadeau qu’il m’a fait ...« à Guillon Lethière, 1828-02-08, https://constance-de-salm.de/archiv/#/document/9130 #onthisday</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10966,17 +10966,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2026-2-11</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>09:33:46</t>
+          <t>12:37:36</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>"Nous étions à raisonner sur les grandes circonstances des Blucher et compagnie ..." à Prous, 1818-02-11, https://constance-de-salm.de/archiv/#/document/2817 #onthisday</t>
+          <t>»Nous étions à raisonner sur les grandes circonstances des Blucher et compagnie ...« à Prous, 1818-02-11, https://constance-de-salm.de/archiv/#/document/2817 #onthisday</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10993,17 +10993,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2026-2-11</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>09:43:54</t>
+          <t>15:21:11</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>" ..." à Hatzfeldt, 1819-02-11, https://constance-de-salm.de/archiv/#/document/754 #onthisday</t>
+          <t>» ...« à Hatzfeldt, 1819-02-11, https://constance-de-salm.de/archiv/#/document/754 #onthisday</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11020,17 +11020,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2026-2-12</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>13:27:05</t>
+          <t>10:37:12</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>"J’ai reçu une aimable lettre de vous il y a quelque temps, ma chère amie; ..." à Salis, 1804-02-12, https://constance-de-salm.de/archiv/#/document/8656 #onthisday</t>
+          <t>»J’ai reçu une aimable lettre de vous il y a quelque temps, ma chère amie; ...« à Salis, 1804-02-12, https://constance-de-salm.de/archiv/#/document/8656 #onthisday</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11047,17 +11047,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2026-2-13</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>19:13:31</t>
+          <t>15:10:10</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>"Il me semble que j’ai plusieurs choses à dire et à demander à mon voisin ..." à Ladoucette, 1830-02-13, https://constance-de-salm.de/archiv/#/document/9490 #onthisday</t>
+          <t>»Il me semble que j’ai plusieurs choses à dire et à demander à mon voisin ...« à Ladoucette, 1830-02-13, https://constance-de-salm.de/archiv/#/document/9490 #onthisday</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11074,17 +11074,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2026-2-14</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>15:33:19</t>
+          <t>10:53:19</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>"Je viens de répondre à Monsieur de Montferrant, Monsieur; je lui ai dit, comme nous en étions convenus ..." à Sanson de Pongerville, 1836-02-14, https://constance-de-salm.de/archiv/#/document/9701 #onthisday</t>
+          <t>»Je viens de répondre à Monsieur de Montferrant, Monsieur; je lui ai dit, comme nous en étions convenus ...« à Sanson de Pongerville, 1836-02-14, https://constance-de-salm.de/archiv/#/document/9701 #onthisday</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11101,17 +11101,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2026-2-15</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>11:35:20</t>
+          <t>18:53:47</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>"Vous m’en voulez, j’en suis certaine. / Lorsque je dis: Vous m’en voulez. / Que de cette phrase ..." à Amalric, 1825-02-15, https://constance-de-salm.de/archiv/#/document/8932 #onthisday</t>
+          <t>»Vous m’en voulez, j’en suis certaine. / Lorsque je dis: Vous m’en voulez. / Que de cette phrase ...« à Amalric, 1825-02-15, https://constance-de-salm.de/archiv/#/document/8932 #onthisday</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11128,17 +11128,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2026-2-15</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>13:46:12</t>
+          <t>16:29:45</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre, Monsieur, et je m'empresse de vous envoyer celle que je viens de recevoir ..." à Simon, 1830-02-15, https://constance-de-salm.de/archiv/#/document/5150 #onthisday</t>
+          <t>»J'ai reçu votre lettre, Monsieur, et je m'empresse de vous envoyer celle que je viens de recevoir ...« à Simon, 1830-02-15, https://constance-de-salm.de/archiv/#/document/5150 #onthisday</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11155,17 +11155,17 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2026-2-16</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>16:22:09</t>
+          <t>10:54:01</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>"Pendant que je suis encore toute remplie de votre belle et intéressante notice, Monsieur, je veux dicter quelques notes ..." à Sanson de Pongerville, 1836-02-16, https://constance-de-salm.de/archiv/#/document/9705 #onthisday</t>
+          <t>»Pendant que je suis encore toute remplie de votre belle et intéressante notice, Monsieur, je veux dicter quelques notes ...« à Sanson de Pongerville, 1836-02-16, https://constance-de-salm.de/archiv/#/document/9705 #onthisday</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11182,17 +11182,17 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2026-2-17</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>10:31:32</t>
+          <t>12:11:49</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps que je ne me suis entretenue avec vous ..." à Salis, 1822-02-17, https://constance-de-salm.de/archiv/#/document/10436 #onthisday</t>
+          <t>»Qu'il y a longtemps que je ne me suis entretenue avec vous ...« à Salis, 1822-02-17, https://constance-de-salm.de/archiv/#/document/10436 #onthisday</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11209,17 +11209,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2026-2-18</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>18:30:49</t>
+          <t>16:57:43</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>"Monsieur de Ladoucette vous a sans doute fait part, Monsieur, du fâcheux malentendu qui a eu lieu entre lui et moi ..." à Depping, 1835-02-18, https://constance-de-salm.de/archiv/#/document/9569 #onthisday</t>
+          <t>»Monsieur de Ladoucette vous a sans doute fait part, Monsieur, du fâcheux malentendu qui a eu lieu entre lui et moi ...« à Depping, 1835-02-18, https://constance-de-salm.de/archiv/#/document/9569 #onthisday</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11236,17 +11236,17 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2026-2-19</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>16:36:47</t>
+          <t>11:19:19</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>"Vous deviez, ce me semble, ma chère amie, venir bientôt dans ce pays ..." à Salis, 1805-02-19, https://constance-de-salm.de/archiv/#/document/8658 #onthisday</t>
+          <t>»Vous deviez, ce me semble, ma chère amie, venir bientôt dans ce pays ...« à Salis, 1805-02-19, https://constance-de-salm.de/archiv/#/document/8658 #onthisday</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11263,17 +11263,17 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2026-2-19</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>15:33:05</t>
+          <t>15:57:01</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>"Vous deviez, ce me semble, ma chère amie, venir bientôt dans ce pays ..." à Salis, 1805-02-19, https://constance-de-salm.de/archiv/#/document/10435 #onthisday</t>
+          <t>»Vous deviez, ce me semble, ma chère amie, venir bientôt dans ce pays ...« à Salis, 1805-02-19, https://constance-de-salm.de/archiv/#/document/10435 #onthisday</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11290,17 +11290,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2026-2-20</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>11:32:13</t>
+          <t>14:24:58</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>"Que penserez-vous de mon long silence, mon ancien ami ? ..." à Raboteau, 1824-02-20, https://constance-de-salm.de/archiv/#/document/4000 #onthisday</t>
+          <t>»Que penserez-vous de mon long silence, mon ancien ami ? ...« à Raboteau, 1824-02-20, https://constance-de-salm.de/archiv/#/document/4000 #onthisday</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
